--- a/mercados/gscpi_data.xlsx
+++ b/mercados/gscpi_data.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
         <v>35826</v>
       </c>
       <c r="C2">
-        <v>-0.938428943585085</v>
+        <v>-0.9354520091875088</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -414,7 +414,7 @@
         <v>35854</v>
       </c>
       <c r="C3">
-        <v>-0.4214771447862342</v>
+        <v>-0.4424439329133047</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,7 +425,7 @@
         <v>35885</v>
       </c>
       <c r="C4">
-        <v>-0.06367825993300189</v>
+        <v>-0.08170803655033165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,7 +436,7 @@
         <v>35915</v>
       </c>
       <c r="C5">
-        <v>-0.1099951348406512</v>
+        <v>-0.1231141677174325</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>35946</v>
       </c>
       <c r="C6">
-        <v>-0.474500392765961</v>
+        <v>-0.4852819429279915</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>35976</v>
       </c>
       <c r="C7">
-        <v>-0.8456881061452518</v>
+        <v>-0.8050908361967212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -469,7 +469,7 @@
         <v>36007</v>
       </c>
       <c r="C8">
-        <v>-0.9489477736013257</v>
+        <v>-0.923834776887875</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,7 +480,7 @@
         <v>36038</v>
       </c>
       <c r="C9">
-        <v>-0.9500285003082667</v>
+        <v>-0.9336807053948869</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -491,7 +491,7 @@
         <v>36068</v>
       </c>
       <c r="C10">
-        <v>-0.9688017796384923</v>
+        <v>-0.9193759900778185</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>36099</v>
       </c>
       <c r="C11">
-        <v>-0.7595735926216221</v>
+        <v>-0.7572193511957117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -513,7 +513,7 @@
         <v>36129</v>
       </c>
       <c r="C12">
-        <v>-0.8542220064259463</v>
+        <v>-0.8230783263590663</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -524,7 +524,7 @@
         <v>36160</v>
       </c>
       <c r="C13">
-        <v>-0.5296342831920795</v>
+        <v>-0.5597945287150278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -535,7 +535,7 @@
         <v>36191</v>
       </c>
       <c r="C14">
-        <v>-0.253494226267745</v>
+        <v>-0.2550849982478905</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -546,7 +546,7 @@
         <v>36219</v>
       </c>
       <c r="C15">
-        <v>-0.05576565288362352</v>
+        <v>-0.05586988686523318</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -557,7 +557,7 @@
         <v>36250</v>
       </c>
       <c r="C16">
-        <v>-0.3984198953024322</v>
+        <v>-0.3469342372618148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -568,7 +568,7 @@
         <v>36280</v>
       </c>
       <c r="C17">
-        <v>-0.2977034844981127</v>
+        <v>-0.3278412579549753</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>36311</v>
       </c>
       <c r="C18">
-        <v>-0.3808406858473588</v>
+        <v>-0.3637055801218769</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -590,7 +590,7 @@
         <v>36341</v>
       </c>
       <c r="C19">
-        <v>-0.4126460752912515</v>
+        <v>-0.4171582429880176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -601,7 +601,7 @@
         <v>36372</v>
       </c>
       <c r="C20">
-        <v>-0.6464886378841209</v>
+        <v>-0.6148118715090984</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -612,7 +612,7 @@
         <v>36403</v>
       </c>
       <c r="C21">
-        <v>-0.4613879430624683</v>
+        <v>-0.4879362706167262</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -623,7 +623,7 @@
         <v>36433</v>
       </c>
       <c r="C22">
-        <v>-0.3340910537401938</v>
+        <v>-0.3269811955167292</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -634,7 +634,7 @@
         <v>36464</v>
       </c>
       <c r="C23">
-        <v>-0.1296739725746131</v>
+        <v>-0.1188528585550209</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -645,7 +645,7 @@
         <v>36494</v>
       </c>
       <c r="C24">
-        <v>-0.08737131321125557</v>
+        <v>-0.08763234940653133</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -656,7 +656,7 @@
         <v>36525</v>
       </c>
       <c r="C25">
-        <v>-0.01187609453188628</v>
+        <v>-0.01946954527584446</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -667,7 +667,7 @@
         <v>36556</v>
       </c>
       <c r="C26">
-        <v>-0.4760557457429625</v>
+        <v>-0.4747968686400497</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -678,7 +678,7 @@
         <v>36585</v>
       </c>
       <c r="C27">
-        <v>-0.3708010203836881</v>
+        <v>-0.3406164588627994</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -689,7 +689,7 @@
         <v>36616</v>
       </c>
       <c r="C28">
-        <v>-0.2374333612719069</v>
+        <v>-0.2524895211500584</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -700,7 +700,7 @@
         <v>36646</v>
       </c>
       <c r="C29">
-        <v>0.09844538235982672</v>
+        <v>0.09109539709243362</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -711,7 +711,7 @@
         <v>36677</v>
       </c>
       <c r="C30">
-        <v>0.1640660041483201</v>
+        <v>0.1789967240563</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -722,7 +722,7 @@
         <v>36707</v>
       </c>
       <c r="C31">
-        <v>-0.1061233346431482</v>
+        <v>-0.09578623865153124</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -733,7 +733,7 @@
         <v>36738</v>
       </c>
       <c r="C32">
-        <v>-0.1176955468767925</v>
+        <v>-0.1076143981899381</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -744,7 +744,7 @@
         <v>36769</v>
       </c>
       <c r="C33">
-        <v>-0.123667432680278</v>
+        <v>-0.07985346624719558</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -755,7 +755,7 @@
         <v>36799</v>
       </c>
       <c r="C34">
-        <v>-0.1858297241967496</v>
+        <v>-0.1858769142724405</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -766,7 +766,7 @@
         <v>36830</v>
       </c>
       <c r="C35">
-        <v>-0.7047665255852507</v>
+        <v>-0.6620522909032488</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -777,7 +777,7 @@
         <v>36860</v>
       </c>
       <c r="C36">
-        <v>-0.9374472864868403</v>
+        <v>-0.9201438634725555</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -788,7 +788,7 @@
         <v>36891</v>
       </c>
       <c r="C37">
-        <v>-1.175531857152274</v>
+        <v>-1.120048239799299</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -799,7 +799,7 @@
         <v>36922</v>
       </c>
       <c r="C38">
-        <v>-1.133145960905801</v>
+        <v>-1.137235551956785</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -810,7 +810,7 @@
         <v>36950</v>
       </c>
       <c r="C39">
-        <v>-0.9751671521314902</v>
+        <v>-0.9487596752713312</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -821,7 +821,7 @@
         <v>36981</v>
       </c>
       <c r="C40">
-        <v>-0.965331541590272</v>
+        <v>-0.959632169652782</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -832,7 +832,7 @@
         <v>37011</v>
       </c>
       <c r="C41">
-        <v>-1.227087424402246</v>
+        <v>-1.176047276574691</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -843,7 +843,7 @@
         <v>37042</v>
       </c>
       <c r="C42">
-        <v>-1.271965230356076</v>
+        <v>-1.260007245405153</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -854,7 +854,7 @@
         <v>37072</v>
       </c>
       <c r="C43">
-        <v>-0.8235384928329086</v>
+        <v>-0.8078998184912509</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -865,7 +865,7 @@
         <v>37103</v>
       </c>
       <c r="C44">
-        <v>-0.8912468733715934</v>
+        <v>-0.8459546217196722</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -876,7 +876,7 @@
         <v>37134</v>
       </c>
       <c r="C45">
-        <v>-0.7364785447767643</v>
+        <v>-0.7250629220727293</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -887,7 +887,7 @@
         <v>37164</v>
       </c>
       <c r="C46">
-        <v>-0.6067906751151256</v>
+        <v>-0.628131862632539</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -898,7 +898,7 @@
         <v>37195</v>
       </c>
       <c r="C47">
-        <v>-1.183364265391481</v>
+        <v>-1.132132012788815</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -909,7 +909,7 @@
         <v>37225</v>
       </c>
       <c r="C48">
-        <v>-1.260302296173383</v>
+        <v>-1.233666094351237</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -920,7 +920,7 @@
         <v>37256</v>
       </c>
       <c r="C49">
-        <v>-0.989371518727547</v>
+        <v>-1.012742870847166</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -931,7 +931,7 @@
         <v>37287</v>
       </c>
       <c r="C50">
-        <v>-0.9389926268137909</v>
+        <v>-0.8886671855797998</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -942,7 +942,7 @@
         <v>37315</v>
       </c>
       <c r="C51">
-        <v>-0.4147677102618181</v>
+        <v>-0.4050248371011984</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -953,7 +953,7 @@
         <v>37346</v>
       </c>
       <c r="C52">
-        <v>-0.4299584584307454</v>
+        <v>-0.4254892670745046</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -964,7 +964,7 @@
         <v>37376</v>
       </c>
       <c r="C53">
-        <v>-0.517794348728708</v>
+        <v>-0.4799227059894409</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -975,7 +975,7 @@
         <v>37407</v>
       </c>
       <c r="C54">
-        <v>-0.2352899164192925</v>
+        <v>-0.2493412958598703</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -986,7 +986,7 @@
         <v>37437</v>
       </c>
       <c r="C55">
-        <v>-0.4600226199860885</v>
+        <v>-0.4689459680695352</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -997,7 +997,7 @@
         <v>37468</v>
       </c>
       <c r="C56">
-        <v>-0.8417226154103817</v>
+        <v>-0.8604574856009304</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>37499</v>
       </c>
       <c r="C57">
-        <v>-0.9187412192432538</v>
+        <v>-0.9579296367052073</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>37529</v>
       </c>
       <c r="C58">
-        <v>-0.9242204449574291</v>
+        <v>-0.9305181514392683</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>37560</v>
       </c>
       <c r="C59">
-        <v>-1.141807776205339</v>
+        <v>-1.126731051428646</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>37590</v>
       </c>
       <c r="C60">
-        <v>-0.7628973702340643</v>
+        <v>-0.765571342371238</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1052,7 +1052,7 @@
         <v>37621</v>
       </c>
       <c r="C61">
-        <v>-0.5591010113056227</v>
+        <v>-0.5594780955588052</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1063,7 +1063,7 @@
         <v>37652</v>
       </c>
       <c r="C62">
-        <v>-0.5040810682908251</v>
+        <v>-0.494998592678748</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>37680</v>
       </c>
       <c r="C63">
-        <v>-0.3675780908472437</v>
+        <v>-0.3766023077772732</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1085,7 +1085,7 @@
         <v>37711</v>
       </c>
       <c r="C64">
-        <v>-0.2534894401620696</v>
+        <v>-0.2533476616551465</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1096,7 +1096,7 @@
         <v>37741</v>
       </c>
       <c r="C65">
-        <v>-0.4805250743201629</v>
+        <v>-0.4997229978540456</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1107,7 +1107,7 @@
         <v>37772</v>
       </c>
       <c r="C66">
-        <v>-0.2022079614504646</v>
+        <v>-0.2115427904463495</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1118,7 +1118,7 @@
         <v>37802</v>
       </c>
       <c r="C67">
-        <v>-0.2260285658250741</v>
+        <v>-0.2149481830836606</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1129,7 +1129,7 @@
         <v>37833</v>
       </c>
       <c r="C68">
-        <v>-0.1448672098965774</v>
+        <v>-0.1147919462830431</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1140,7 +1140,7 @@
         <v>37864</v>
       </c>
       <c r="C69">
-        <v>-0.18834316689486</v>
+        <v>-0.160915624384184</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>37894</v>
       </c>
       <c r="C70">
-        <v>-0.09349878495206261</v>
+        <v>-0.07202304100240542</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>37925</v>
       </c>
       <c r="C71">
-        <v>-0.3082010643506864</v>
+        <v>-0.3059797450143518</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>37955</v>
       </c>
       <c r="C72">
-        <v>-0.2979412658764827</v>
+        <v>-0.3185544564939123</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>37986</v>
       </c>
       <c r="C73">
-        <v>-0.2725197145018282</v>
+        <v>-0.2705761139216853</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1195,7 +1195,7 @@
         <v>38017</v>
       </c>
       <c r="C74">
-        <v>-0.364597948117452</v>
+        <v>-0.3768425957955936</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>38046</v>
       </c>
       <c r="C75">
-        <v>-0.2624006978211858</v>
+        <v>-0.2747931024612091</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1217,7 +1217,7 @@
         <v>38077</v>
       </c>
       <c r="C76">
-        <v>0.09059263758896081</v>
+        <v>0.06691184490007927</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>38107</v>
       </c>
       <c r="C77">
-        <v>0.5579995398071119</v>
+        <v>0.4816004753194592</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>38138</v>
       </c>
       <c r="C78">
-        <v>0.5187758614801846</v>
+        <v>0.4851642481554009</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>38168</v>
       </c>
       <c r="C79">
-        <v>0.4895546080534703</v>
+        <v>0.44450557727262</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1261,7 +1261,7 @@
         <v>38199</v>
       </c>
       <c r="C80">
-        <v>-0.3152100438065898</v>
+        <v>-0.3225786589565891</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>38230</v>
       </c>
       <c r="C81">
-        <v>0.2446930017626814</v>
+        <v>0.2207659715570997</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>38260</v>
       </c>
       <c r="C82">
-        <v>-0.005712999144463907</v>
+        <v>-0.03396799830039399</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>38291</v>
       </c>
       <c r="C83">
-        <v>-0.5320719829671918</v>
+        <v>-0.5736259405169367</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>38321</v>
       </c>
       <c r="C84">
-        <v>0.03322809727529339</v>
+        <v>0.006475227444036824</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>38352</v>
       </c>
       <c r="C85">
-        <v>0.1980970394840455</v>
+        <v>0.1793559148007224</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1327,7 +1327,7 @@
         <v>38383</v>
       </c>
       <c r="C86">
-        <v>-0.1058559762582254</v>
+        <v>-0.1310373337777138</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1338,7 +1338,7 @@
         <v>38411</v>
       </c>
       <c r="C87">
-        <v>-0.2287821400255272</v>
+        <v>-0.2422298071114619</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>38442</v>
       </c>
       <c r="C88">
-        <v>-0.2996752453484705</v>
+        <v>-0.3234495622707614</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>38472</v>
       </c>
       <c r="C89">
-        <v>-1.35075177550578</v>
+        <v>-1.366629575029867</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>38503</v>
       </c>
       <c r="C90">
-        <v>-1.082945850588284</v>
+        <v>-1.106997736914198</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>38533</v>
       </c>
       <c r="C91">
-        <v>-0.9535211904266544</v>
+        <v>-0.966445777395746</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>38564</v>
       </c>
       <c r="C92">
-        <v>-1.01727892521294</v>
+        <v>-1.013478011271816</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>38595</v>
       </c>
       <c r="C93">
-        <v>-0.7613233594713706</v>
+        <v>-0.7506840988662477</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>38625</v>
       </c>
       <c r="C94">
-        <v>-0.05066781671355475</v>
+        <v>-0.04071213928607684</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>38656</v>
       </c>
       <c r="C95">
-        <v>-0.06266188857769002</v>
+        <v>-0.07956703088417956</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>38686</v>
       </c>
       <c r="C96">
-        <v>-0.6744136160582186</v>
+        <v>-0.6930408157479365</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>38717</v>
       </c>
       <c r="C97">
-        <v>-0.738376639995573</v>
+        <v>-0.7231278292122196</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>38748</v>
       </c>
       <c r="C98">
-        <v>-0.4271945583238786</v>
+        <v>-0.4138818638765228</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>38776</v>
       </c>
       <c r="C99">
-        <v>-0.686954519911489</v>
+        <v>-0.6727097892497148</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>38807</v>
       </c>
       <c r="C100">
-        <v>-0.4414326786433888</v>
+        <v>-0.4488884404759809</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1492,7 +1492,7 @@
         <v>38837</v>
       </c>
       <c r="C101">
-        <v>0.02341943337953039</v>
+        <v>0.03047519940990384</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>38868</v>
       </c>
       <c r="C102">
-        <v>0.09909427645653926</v>
+        <v>0.09717576506841587</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>38898</v>
       </c>
       <c r="C103">
-        <v>0.06932810604372372</v>
+        <v>0.07154636959689348</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>38929</v>
       </c>
       <c r="C104">
-        <v>-0.1291685694147635</v>
+        <v>-0.1392902785639598</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>38960</v>
       </c>
       <c r="C105">
-        <v>0.08287407416614508</v>
+        <v>0.0780359774452067</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>38990</v>
       </c>
       <c r="C106">
-        <v>-0.532398516084659</v>
+        <v>-0.5335035282976255</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>39021</v>
       </c>
       <c r="C107">
-        <v>-0.3933126364151529</v>
+        <v>-0.4004285920063545</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>39051</v>
       </c>
       <c r="C108">
-        <v>-0.2038692765951609</v>
+        <v>-0.1891020226609733</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>39082</v>
       </c>
       <c r="C109">
-        <v>-0.4398656106551156</v>
+        <v>-0.4381135679763284</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>39113</v>
       </c>
       <c r="C110">
-        <v>-0.8477391756556244</v>
+        <v>-0.8368806005054493</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>39141</v>
       </c>
       <c r="C111">
-        <v>-0.7091488524128352</v>
+        <v>-0.7174265238107943</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>39172</v>
       </c>
       <c r="C112">
-        <v>-0.5063781403600656</v>
+        <v>-0.504438182036215</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>39202</v>
       </c>
       <c r="C113">
-        <v>-0.7506354955660891</v>
+        <v>-0.7497262529300327</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>39233</v>
       </c>
       <c r="C114">
-        <v>-0.2809820444191195</v>
+        <v>-0.2955161892509698</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>39263</v>
       </c>
       <c r="C115">
-        <v>-0.369944061449673</v>
+        <v>-0.3680249171589166</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1657,7 +1657,7 @@
         <v>39294</v>
       </c>
       <c r="C116">
-        <v>-0.3971195101688944</v>
+        <v>-0.3962605567083733</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1668,7 +1668,7 @@
         <v>39325</v>
       </c>
       <c r="C117">
-        <v>-0.03015917216283784</v>
+        <v>-0.05621290840806208</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>39355</v>
       </c>
       <c r="C118">
-        <v>-0.07607819262285143</v>
+        <v>-0.08371770043111443</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>39386</v>
       </c>
       <c r="C119">
-        <v>-0.6498958447175042</v>
+        <v>-0.6539859537963337</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>39416</v>
       </c>
       <c r="C120">
-        <v>-0.4354980545049794</v>
+        <v>-0.4544416545653899</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>39447</v>
       </c>
       <c r="C121">
-        <v>-0.1618489124078159</v>
+        <v>-0.1697765116203247</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>39478</v>
       </c>
       <c r="C122">
-        <v>-0.322421150219304</v>
+        <v>-0.344218541524356</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1734,7 +1734,7 @@
         <v>39507</v>
       </c>
       <c r="C123">
-        <v>0.4227680698455556</v>
+        <v>0.4021963635715654</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1745,7 +1745,7 @@
         <v>39538</v>
       </c>
       <c r="C124">
-        <v>0.1757033447720468</v>
+        <v>0.1616844503393844</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1756,7 +1756,7 @@
         <v>39568</v>
       </c>
       <c r="C125">
-        <v>0.1549956296558047</v>
+        <v>0.1203513956758718</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>39599</v>
       </c>
       <c r="C126">
-        <v>-0.0755383981029349</v>
+        <v>-0.1100183326809485</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>39629</v>
       </c>
       <c r="C127">
-        <v>0.2807175893467045</v>
+        <v>0.2465966026873586</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1789,7 +1789,7 @@
         <v>39660</v>
       </c>
       <c r="C128">
-        <v>1.017709471124572</v>
+        <v>0.9895563890673359</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>39691</v>
       </c>
       <c r="C129">
-        <v>0.2586563558694467</v>
+        <v>0.2484388379955778</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1811,7 +1811,7 @@
         <v>39721</v>
       </c>
       <c r="C130">
-        <v>-0.5571197721479454</v>
+        <v>-0.5707346917653429</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>39752</v>
       </c>
       <c r="C131">
-        <v>-1.043379263518327</v>
+        <v>-1.077805875606644</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>39782</v>
       </c>
       <c r="C132">
-        <v>-1.523037603245738</v>
+        <v>-1.555874183011527</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1844,7 +1844,7 @@
         <v>39813</v>
       </c>
       <c r="C133">
-        <v>-0.6120231249746645</v>
+        <v>-0.6631653676165494</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1855,7 +1855,7 @@
         <v>39844</v>
       </c>
       <c r="C134">
-        <v>-0.4233655774322897</v>
+        <v>-0.4730475309738406</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>39872</v>
       </c>
       <c r="C135">
-        <v>-0.6175290010582434</v>
+        <v>-0.6211696064921696</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1877,7 +1877,7 @@
         <v>39903</v>
       </c>
       <c r="C136">
-        <v>-0.04193048666663674</v>
+        <v>-0.03353136199119128</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1888,7 +1888,7 @@
         <v>39933</v>
       </c>
       <c r="C137">
-        <v>0.6512975556834038</v>
+        <v>0.6795388926689128</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>39964</v>
       </c>
       <c r="C138">
-        <v>0.1793517396787531</v>
+        <v>0.1909144219475485</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1910,7 +1910,7 @@
         <v>39994</v>
       </c>
       <c r="C139">
-        <v>-0.6847486834435119</v>
+        <v>-0.6620728063150049</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1921,7 +1921,7 @@
         <v>40025</v>
       </c>
       <c r="C140">
-        <v>-0.876779433154852</v>
+        <v>-0.8771618830780549</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>40056</v>
       </c>
       <c r="C141">
-        <v>-1.180616435319747</v>
+        <v>-1.16963865042744</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1943,7 +1943,7 @@
         <v>40086</v>
       </c>
       <c r="C142">
-        <v>-0.4920438587966696</v>
+        <v>-0.5026827725413076</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1954,7 +1954,7 @@
         <v>40117</v>
       </c>
       <c r="C143">
-        <v>-0.4182387263489948</v>
+        <v>-0.4294531389470014</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>40147</v>
       </c>
       <c r="C144">
-        <v>-0.7503285177880656</v>
+        <v>-0.7458842002358443</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1976,7 +1976,7 @@
         <v>40178</v>
       </c>
       <c r="C145">
-        <v>-0.619202828123422</v>
+        <v>-0.6161787134543757</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1987,7 +1987,7 @@
         <v>40209</v>
       </c>
       <c r="C146">
-        <v>-0.2489583924627238</v>
+        <v>-0.2502874431101764</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1998,7 +1998,7 @@
         <v>40237</v>
       </c>
       <c r="C147">
-        <v>-0.1032438834236496</v>
+        <v>-0.1142104438416339</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>40268</v>
       </c>
       <c r="C148">
-        <v>0.4276438660067604</v>
+        <v>0.4143687005337299</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>40298</v>
       </c>
       <c r="C149">
-        <v>0.2773140755057464</v>
+        <v>0.2679455627774762</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>40329</v>
       </c>
       <c r="C150">
-        <v>0.3768588560767248</v>
+        <v>0.3863157708660074</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>40359</v>
       </c>
       <c r="C151">
-        <v>-0.04965415485087001</v>
+        <v>-0.05431873638540651</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2053,7 +2053,7 @@
         <v>40390</v>
       </c>
       <c r="C152">
-        <v>0.06348317653044475</v>
+        <v>0.02373006930997941</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2064,7 +2064,7 @@
         <v>40421</v>
       </c>
       <c r="C153">
-        <v>0.4369571797184302</v>
+        <v>0.3886793623383029</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>40451</v>
       </c>
       <c r="C154">
-        <v>0.4171575082559276</v>
+        <v>0.3945781766661708</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2086,7 +2086,7 @@
         <v>40482</v>
       </c>
       <c r="C155">
-        <v>0.7566653718802147</v>
+        <v>0.7273774721944842</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2097,7 +2097,7 @@
         <v>40512</v>
       </c>
       <c r="C156">
-        <v>0.4287363948965445</v>
+        <v>0.4305121291907117</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2108,7 +2108,7 @@
         <v>40543</v>
       </c>
       <c r="C157">
-        <v>0.6938610711399383</v>
+        <v>0.6990459658475207</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2119,7 +2119,7 @@
         <v>40574</v>
       </c>
       <c r="C158">
-        <v>0.8300076588455013</v>
+        <v>0.8186489809275374</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2130,7 +2130,7 @@
         <v>40602</v>
       </c>
       <c r="C159">
-        <v>0.4114938900573724</v>
+        <v>0.3993012319849932</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>40633</v>
       </c>
       <c r="C160">
-        <v>0.7560335567263671</v>
+        <v>0.7492970705566711</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>40663</v>
       </c>
       <c r="C161">
-        <v>1.575736273086475</v>
+        <v>1.563643557957704</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2163,7 +2163,7 @@
         <v>40694</v>
       </c>
       <c r="C162">
-        <v>0.9768627406454219</v>
+        <v>0.959827141278368</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2174,7 +2174,7 @@
         <v>40724</v>
       </c>
       <c r="C163">
-        <v>0.2470471501619161</v>
+        <v>0.2204353877065003</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2185,7 +2185,7 @@
         <v>40755</v>
       </c>
       <c r="C164">
-        <v>0.30491808517478</v>
+        <v>0.2740669749879076</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2196,7 +2196,7 @@
         <v>40786</v>
       </c>
       <c r="C165">
-        <v>-0.03666014274652601</v>
+        <v>-0.06732470861132886</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2207,7 +2207,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <v>-0.5621119785110266</v>
+        <v>-0.566364435548096</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>40847</v>
       </c>
       <c r="C167">
-        <v>-0.3830682343099537</v>
+        <v>-0.3907381245546763</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2229,7 +2229,7 @@
         <v>40877</v>
       </c>
       <c r="C168">
-        <v>0.1420998058348884</v>
+        <v>0.1250262937324668</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>40908</v>
       </c>
       <c r="C169">
-        <v>-0.05910795970561002</v>
+        <v>-0.06323612474101722</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>40939</v>
       </c>
       <c r="C170">
-        <v>0.3560893454653816</v>
+        <v>0.338433888282919</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>40968</v>
       </c>
       <c r="C171">
-        <v>-0.0336715213364216</v>
+        <v>-0.03922208660860455</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2273,7 +2273,7 @@
         <v>40999</v>
       </c>
       <c r="C172">
-        <v>-0.3857561863713825</v>
+        <v>-0.39505434717425</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2284,7 +2284,7 @@
         <v>41029</v>
       </c>
       <c r="C173">
-        <v>-0.2770028202209596</v>
+        <v>-0.2988123785530405</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2295,7 +2295,7 @@
         <v>41060</v>
       </c>
       <c r="C174">
-        <v>-0.6891176701761781</v>
+        <v>-0.7042825970152474</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2306,7 +2306,7 @@
         <v>41090</v>
       </c>
       <c r="C175">
-        <v>-0.6460152954442752</v>
+        <v>-0.6658424418729254</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>41121</v>
       </c>
       <c r="C176">
-        <v>-0.6453398996625173</v>
+        <v>-0.6750574510240556</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>41152</v>
       </c>
       <c r="C177">
-        <v>-0.1063896802690038</v>
+        <v>-0.1303698909449847</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2339,7 +2339,7 @@
         <v>41182</v>
       </c>
       <c r="C178">
-        <v>-0.2059603634093424</v>
+        <v>-0.2272841848230293</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2350,7 +2350,7 @@
         <v>41213</v>
       </c>
       <c r="C179">
-        <v>0.02614383321581159</v>
+        <v>0.007160511649639851</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>41243</v>
       </c>
       <c r="C180">
-        <v>-0.3257241560906869</v>
+        <v>-0.3457312674382373</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2372,7 +2372,7 @@
         <v>41274</v>
       </c>
       <c r="C181">
-        <v>-0.132074159959123</v>
+        <v>-0.1434694728973424</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>41305</v>
       </c>
       <c r="C182">
-        <v>-0.04763219875705144</v>
+        <v>-0.04681693861292913</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>41333</v>
       </c>
       <c r="C183">
-        <v>-0.3965351851646559</v>
+        <v>-0.3948160041066963</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2405,7 +2405,7 @@
         <v>41364</v>
       </c>
       <c r="C184">
-        <v>-0.5397597818659677</v>
+        <v>-0.5428041931327865</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2416,7 +2416,7 @@
         <v>41394</v>
       </c>
       <c r="C185">
-        <v>-0.7246097675310438</v>
+        <v>-0.7374972970694916</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>41425</v>
       </c>
       <c r="C186">
-        <v>-0.8153111388008425</v>
+        <v>-0.83042316229279</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2438,7 +2438,7 @@
         <v>41455</v>
       </c>
       <c r="C187">
-        <v>-0.6023739677948444</v>
+        <v>-0.6230912810671132</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2449,7 +2449,7 @@
         <v>41486</v>
       </c>
       <c r="C188">
-        <v>-0.6568005134927725</v>
+        <v>-0.6614857090486556</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>41517</v>
       </c>
       <c r="C189">
-        <v>-0.5248704173962345</v>
+        <v>-0.529323848995965</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>41547</v>
       </c>
       <c r="C190">
-        <v>-0.2682274966149747</v>
+        <v>-0.2719699004671558</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2482,7 +2482,7 @@
         <v>41578</v>
       </c>
       <c r="C191">
-        <v>-0.1433495086286724</v>
+        <v>-0.1582487265983141</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2493,7 +2493,7 @@
         <v>41608</v>
       </c>
       <c r="C192">
-        <v>-0.6135022671855468</v>
+        <v>-0.6365552262397682</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2504,7 +2504,7 @@
         <v>41639</v>
       </c>
       <c r="C193">
-        <v>-0.4534947765075588</v>
+        <v>-0.4575470744167597</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>41670</v>
       </c>
       <c r="C194">
-        <v>-0.6154804595709492</v>
+        <v>-0.6065943895267636</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2526,7 +2526,7 @@
         <v>41698</v>
       </c>
       <c r="C195">
-        <v>-0.2391631852386694</v>
+        <v>-0.2462357835632986</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>41729</v>
       </c>
       <c r="C196">
-        <v>-0.5678386681037544</v>
+        <v>-0.5715141844341723</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>41759</v>
       </c>
       <c r="C197">
-        <v>-0.7972837965033356</v>
+        <v>-0.7987049025686186</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>41790</v>
       </c>
       <c r="C198">
-        <v>-0.7454037888181843</v>
+        <v>-0.7649973049197144</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>41820</v>
       </c>
       <c r="C199">
-        <v>-0.6256325837214103</v>
+        <v>-0.6350751493469419</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>41851</v>
       </c>
       <c r="C200">
-        <v>-0.7775217498339765</v>
+        <v>-0.7881772907063704</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>41882</v>
       </c>
       <c r="C201">
-        <v>-0.6093036567280702</v>
+        <v>-0.6187985116683522</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>41912</v>
       </c>
       <c r="C202">
-        <v>-0.778638019881996</v>
+        <v>-0.7961790363827136</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>41943</v>
       </c>
       <c r="C203">
-        <v>-0.5603503700797586</v>
+        <v>-0.5663956986358292</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>41973</v>
       </c>
       <c r="C204">
-        <v>-0.9482308213247459</v>
+        <v>-0.9610262663474447</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>42004</v>
       </c>
       <c r="C205">
-        <v>-0.3560299125279061</v>
+        <v>-0.3785894072908105</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>42035</v>
       </c>
       <c r="C206">
-        <v>-0.4972212426313206</v>
+        <v>-0.5152649003493932</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>42063</v>
       </c>
       <c r="C207">
-        <v>-0.3075950521002573</v>
+        <v>-0.3110647646724647</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>42094</v>
       </c>
       <c r="C208">
-        <v>-0.3868604056180776</v>
+        <v>-0.3935965945305436</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>42124</v>
       </c>
       <c r="C209">
-        <v>-0.2585719462284569</v>
+        <v>-0.2673431471946168</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>42155</v>
       </c>
       <c r="C210">
-        <v>-0.5193187810770578</v>
+        <v>-0.5254179382371966</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>42185</v>
       </c>
       <c r="C211">
-        <v>-0.8074486710150307</v>
+        <v>-0.8237430898582092</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>42216</v>
       </c>
       <c r="C212">
-        <v>-0.3775057691821518</v>
+        <v>-0.3873047986252354</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>42247</v>
       </c>
       <c r="C213">
-        <v>-0.6636828594815389</v>
+        <v>-0.6664054302595174</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>42277</v>
       </c>
       <c r="C214">
-        <v>-0.3920550688758038</v>
+        <v>-0.407206978052698</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>42308</v>
       </c>
       <c r="C215">
-        <v>-0.2034979795221546</v>
+        <v>-0.2172607398870885</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>42338</v>
       </c>
       <c r="C216">
-        <v>-0.6267450094268768</v>
+        <v>-0.634045741598552</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>42369</v>
       </c>
       <c r="C217">
-        <v>-0.5750411225030834</v>
+        <v>-0.5882283602849551</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>42400</v>
       </c>
       <c r="C218">
-        <v>-0.7317160897310316</v>
+        <v>-0.748938578500751</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>42429</v>
       </c>
       <c r="C219">
-        <v>-0.6921786751504119</v>
+        <v>-0.7052225387040486</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2801,7 +2801,7 @@
         <v>42460</v>
       </c>
       <c r="C220">
-        <v>-0.5939071557347249</v>
+        <v>-0.6043708497877551</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2812,7 +2812,7 @@
         <v>42490</v>
       </c>
       <c r="C221">
-        <v>-0.186466470850172</v>
+        <v>-0.2115372624285167</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2823,7 +2823,7 @@
         <v>42521</v>
       </c>
       <c r="C222">
-        <v>-0.704002063882419</v>
+        <v>-0.7129669553586787</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2834,7 +2834,7 @@
         <v>42551</v>
       </c>
       <c r="C223">
-        <v>-0.2553597241782621</v>
+        <v>-0.2710729919714263</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2845,7 +2845,7 @@
         <v>42582</v>
       </c>
       <c r="C224">
-        <v>-0.1540134368329751</v>
+        <v>-0.1691696757815032</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>42613</v>
       </c>
       <c r="C225">
-        <v>0.1214991497558014</v>
+        <v>0.1102086627654237</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>42643</v>
       </c>
       <c r="C226">
-        <v>-0.2792025907564353</v>
+        <v>-0.2829277263124122</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>42674</v>
       </c>
       <c r="C227">
-        <v>-0.02530216287882599</v>
+        <v>-0.03963586727081747</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>42704</v>
       </c>
       <c r="C228">
-        <v>-0.2954707380170843</v>
+        <v>-0.2964344843834628</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>42735</v>
       </c>
       <c r="C229">
-        <v>-0.2434462907230029</v>
+        <v>-0.2334422761084403</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2911,7 +2911,7 @@
         <v>42766</v>
       </c>
       <c r="C230">
-        <v>0.2106718713162087</v>
+        <v>0.2073637546722226</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2922,7 +2922,7 @@
         <v>42794</v>
       </c>
       <c r="C231">
-        <v>0.2401370319660064</v>
+        <v>0.2336578717856274</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2933,7 +2933,7 @@
         <v>42825</v>
       </c>
       <c r="C232">
-        <v>0.1270376252881351</v>
+        <v>0.1197846751221357</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2944,7 +2944,7 @@
         <v>42855</v>
       </c>
       <c r="C233">
-        <v>0.06273715293117349</v>
+        <v>0.05015058785486981</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>42886</v>
       </c>
       <c r="C234">
-        <v>-0.0702985387536009</v>
+        <v>-0.08287613051572297</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>42916</v>
       </c>
       <c r="C235">
-        <v>0.1541070012427257</v>
+        <v>0.1397884774840518</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>42947</v>
       </c>
       <c r="C236">
-        <v>0.1738417595952228</v>
+        <v>0.1588431063616269</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>42978</v>
       </c>
       <c r="C237">
-        <v>0.4650589319756651</v>
+        <v>0.4525281122611891</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>43008</v>
       </c>
       <c r="C238">
-        <v>0.5563944862553828</v>
+        <v>0.5559132620066516</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43039</v>
       </c>
       <c r="C239">
-        <v>0.8111097715775232</v>
+        <v>0.8045895504860359</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>43069</v>
       </c>
       <c r="C240">
-        <v>0.8790813703440004</v>
+        <v>0.8710826158154586</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>43100</v>
       </c>
       <c r="C241">
-        <v>0.7206308956104787</v>
+        <v>0.7191395194802672</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>43131</v>
       </c>
       <c r="C242">
-        <v>0.6122714188701459</v>
+        <v>0.6040730496040504</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>43159</v>
       </c>
       <c r="C243">
-        <v>0.1134003852046024</v>
+        <v>0.1121855813103103</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>43190</v>
       </c>
       <c r="C244">
-        <v>0.4907883437999563</v>
+        <v>0.4792079203070643</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>43220</v>
       </c>
       <c r="C245">
-        <v>0.5817634377912787</v>
+        <v>0.5694660564392776</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>43251</v>
       </c>
       <c r="C246">
-        <v>0.3844352810591545</v>
+        <v>0.3741441612225761</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>43281</v>
       </c>
       <c r="C247">
-        <v>0.4201864616261169</v>
+        <v>0.4166107183687729</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43312</v>
       </c>
       <c r="C248">
-        <v>0.4303310692908135</v>
+        <v>0.4184642701373092</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>43343</v>
       </c>
       <c r="C249">
-        <v>0.5654781780456944</v>
+        <v>0.5438329475408467</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>43373</v>
       </c>
       <c r="C250">
-        <v>0.4807819603382039</v>
+        <v>0.47605092746475</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>43404</v>
       </c>
       <c r="C251">
-        <v>0.5451369673751195</v>
+        <v>0.5362649193414377</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>43434</v>
       </c>
       <c r="C252">
-        <v>0.4538062763265938</v>
+        <v>0.4480063307060466</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C253">
-        <v>0.4642517845722861</v>
+        <v>0.4579920885364373</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>43496</v>
       </c>
       <c r="C254">
-        <v>0.5545138937850329</v>
+        <v>0.5351899826151981</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>43524</v>
       </c>
       <c r="C255">
-        <v>0.1485111968165332</v>
+        <v>0.1295771682547186</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>43555</v>
       </c>
       <c r="C256">
-        <v>0.2121240476681386</v>
+        <v>0.2025672535337778</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>43585</v>
       </c>
       <c r="C257">
-        <v>0.04872641220849522</v>
+        <v>0.03220010771891443</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43616</v>
       </c>
       <c r="C258">
-        <v>-0.6410338531434726</v>
+        <v>-0.6498550906548911</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>43646</v>
       </c>
       <c r="C259">
-        <v>-0.4634726604564056</v>
+        <v>-0.4776861344172783</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>43677</v>
       </c>
       <c r="C260">
-        <v>-0.4391434607207026</v>
+        <v>-0.4583442299217397</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>43708</v>
       </c>
       <c r="C261">
-        <v>-0.3218218421553108</v>
+        <v>-0.3244418046503131</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>43738</v>
       </c>
       <c r="C262">
-        <v>0.1452816270925867</v>
+        <v>0.1272134205334934</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>43769</v>
       </c>
       <c r="C263">
-        <v>0.06974527566490549</v>
+        <v>0.05380289122374651</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>43799</v>
       </c>
       <c r="C264">
-        <v>0.1299260741796208</v>
+        <v>0.1181756295452124</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>43830</v>
       </c>
       <c r="C265">
-        <v>0.01584161752299007</v>
+        <v>0.01259718364710465</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>43861</v>
       </c>
       <c r="C266">
-        <v>0.05825164513327844</v>
+        <v>0.04956342459146662</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>43890</v>
       </c>
       <c r="C267">
-        <v>1.162670076146881</v>
+        <v>1.130813605612517</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>43921</v>
       </c>
       <c r="C268">
-        <v>2.541747464616043</v>
+        <v>2.506200960764162</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>43951</v>
       </c>
       <c r="C269">
-        <v>3.259676242502604</v>
+        <v>3.187916393765618</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3351,7 +3351,7 @@
         <v>43982</v>
       </c>
       <c r="C270">
-        <v>2.730040010109359</v>
+        <v>2.651393073083515</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3362,7 +3362,7 @@
         <v>44012</v>
       </c>
       <c r="C271">
-        <v>2.452499446863963</v>
+        <v>2.398379100667929</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3373,7 +3373,7 @@
         <v>44043</v>
       </c>
       <c r="C272">
-        <v>2.719835196681604</v>
+        <v>2.803295684481194</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3384,7 +3384,7 @@
         <v>44074</v>
       </c>
       <c r="C273">
-        <v>1.243771553347811</v>
+        <v>1.324632803213632</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>44104</v>
       </c>
       <c r="C274">
-        <v>0.5841721372999905</v>
+        <v>0.596643696530828</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3406,7 +3406,7 @@
         <v>44135</v>
       </c>
       <c r="C275">
-        <v>0.1136233757227769</v>
+        <v>0.1153599551310045</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3417,7 +3417,7 @@
         <v>44165</v>
       </c>
       <c r="C276">
-        <v>0.7156171740210611</v>
+        <v>0.7022437346591164</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>44196</v>
       </c>
       <c r="C277">
-        <v>1.642286949479728</v>
+        <v>1.642669724618871</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3439,7 +3439,7 @@
         <v>44227</v>
       </c>
       <c r="C278">
-        <v>1.417565656019326</v>
+        <v>1.420932930823033</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3450,7 +3450,7 @@
         <v>44255</v>
       </c>
       <c r="C279">
-        <v>1.891087100500862</v>
+        <v>1.89127716476863</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3461,7 +3461,7 @@
         <v>44286</v>
       </c>
       <c r="C280">
-        <v>2.165330309005588</v>
+        <v>2.175059029841529</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>44316</v>
       </c>
       <c r="C281">
-        <v>2.469106297420863</v>
+        <v>2.474269591312726</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>44347</v>
       </c>
       <c r="C282">
-        <v>2.939307656132337</v>
+        <v>2.958513735695787</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3494,7 +3494,7 @@
         <v>44377</v>
       </c>
       <c r="C283">
-        <v>2.668986655647314</v>
+        <v>2.684920119432177</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>44408</v>
       </c>
       <c r="C284">
-        <v>2.947166985383212</v>
+        <v>2.945853961494599</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3516,7 +3516,7 @@
         <v>44439</v>
       </c>
       <c r="C285">
-        <v>3.259576704292519</v>
+        <v>3.239218573747304</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>44469</v>
       </c>
       <c r="C286">
-        <v>3.269322915518234</v>
+        <v>3.252486180579294</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>44500</v>
       </c>
       <c r="C287">
-        <v>3.824881954280212</v>
+        <v>3.803547579006632</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3549,7 +3549,7 @@
         <v>44530</v>
       </c>
       <c r="C288">
-        <v>4.259822425577382</v>
+        <v>4.240862241930924</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3560,7 +3560,7 @@
         <v>44561</v>
       </c>
       <c r="C289">
-        <v>4.350974327939342</v>
+        <v>4.324074310975543</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3571,7 +3571,7 @@
         <v>44592</v>
       </c>
       <c r="C290">
-        <v>3.654710360604912</v>
+        <v>3.648648733165185</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3582,7 +3582,7 @@
         <v>44620</v>
       </c>
       <c r="C291">
-        <v>2.765574775797722</v>
+        <v>2.761096458352433</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3593,7 +3593,7 @@
         <v>44651</v>
       </c>
       <c r="C292">
-        <v>2.789164179457603</v>
+        <v>2.780844575853506</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>44681</v>
       </c>
       <c r="C293">
-        <v>3.387835820776399</v>
+        <v>3.393198837356864</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3615,7 +3615,7 @@
         <v>44712</v>
       </c>
       <c r="C294">
-        <v>2.580493250281501</v>
+        <v>2.593269893028056</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3626,7 +3626,18 @@
         <v>44742</v>
       </c>
       <c r="C295">
-        <v>2.412487906383673</v>
+        <v>2.313829755585826</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>44773</v>
+      </c>
+      <c r="C296">
+        <v>1.836499202981767</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/gscpi_data.xlsx
+++ b/mercados/gscpi_data.xlsx
@@ -19,7 +19,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>GSCPI</t>
+    <t>Close</t>
   </si>
 </sst>
 </file>

--- a/mercados/gscpi_data.xlsx
+++ b/mercados/gscpi_data.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
         <v>35826</v>
       </c>
       <c r="C2">
-        <v>-0.9354520091875088</v>
+        <v>-0.9425860949431372</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -414,7 +414,7 @@
         <v>35854</v>
       </c>
       <c r="C3">
-        <v>-0.4424439329133047</v>
+        <v>-0.4461210612482688</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,7 +425,7 @@
         <v>35885</v>
       </c>
       <c r="C4">
-        <v>-0.08170803655033165</v>
+        <v>-0.07937937590709553</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,7 +436,7 @@
         <v>35915</v>
       </c>
       <c r="C5">
-        <v>-0.1231141677174325</v>
+        <v>-0.1187915249069303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>35946</v>
       </c>
       <c r="C6">
-        <v>-0.4852819429279915</v>
+        <v>-0.4884003682351828</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>35976</v>
       </c>
       <c r="C7">
-        <v>-0.8050908361967212</v>
+        <v>-0.8059043318898378</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -469,7 +469,7 @@
         <v>36007</v>
       </c>
       <c r="C8">
-        <v>-0.923834776887875</v>
+        <v>-0.9281259079359905</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,7 +480,7 @@
         <v>36038</v>
       </c>
       <c r="C9">
-        <v>-0.9336807053948869</v>
+        <v>-0.9474240178594927</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -491,7 +491,7 @@
         <v>36068</v>
       </c>
       <c r="C10">
-        <v>-0.9193759900778185</v>
+        <v>-0.9298872364052344</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>36099</v>
       </c>
       <c r="C11">
-        <v>-0.7572193511957117</v>
+        <v>-0.7730756013136806</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -513,7 +513,7 @@
         <v>36129</v>
       </c>
       <c r="C12">
-        <v>-0.8230783263590663</v>
+        <v>-0.8438523866858471</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -524,7 +524,7 @@
         <v>36160</v>
       </c>
       <c r="C13">
-        <v>-0.5597945287150278</v>
+        <v>-0.5824133128695748</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -535,7 +535,7 @@
         <v>36191</v>
       </c>
       <c r="C14">
-        <v>-0.2550849982478905</v>
+        <v>-0.274373203406279</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -546,7 +546,7 @@
         <v>36219</v>
       </c>
       <c r="C15">
-        <v>-0.05586988686523318</v>
+        <v>-0.06499465447385319</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -557,7 +557,7 @@
         <v>36250</v>
       </c>
       <c r="C16">
-        <v>-0.3469342372618148</v>
+        <v>-0.3427697450350924</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -568,7 +568,7 @@
         <v>36280</v>
       </c>
       <c r="C17">
-        <v>-0.3278412579549753</v>
+        <v>-0.3238001068842106</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>36311</v>
       </c>
       <c r="C18">
-        <v>-0.3637055801218769</v>
+        <v>-0.3575534414592667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -590,7 +590,7 @@
         <v>36341</v>
       </c>
       <c r="C19">
-        <v>-0.4171582429880176</v>
+        <v>-0.4093303552021466</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -601,7 +601,7 @@
         <v>36372</v>
       </c>
       <c r="C20">
-        <v>-0.6148118715090984</v>
+        <v>-0.6074680136205308</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -612,7 +612,7 @@
         <v>36403</v>
       </c>
       <c r="C21">
-        <v>-0.4879362706167262</v>
+        <v>-0.474188515559591</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -623,7 +623,7 @@
         <v>36433</v>
       </c>
       <c r="C22">
-        <v>-0.3269811955167292</v>
+        <v>-0.321958385067618</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -634,7 +634,7 @@
         <v>36464</v>
       </c>
       <c r="C23">
-        <v>-0.1188528585550209</v>
+        <v>-0.110824115048236</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -645,7 +645,7 @@
         <v>36494</v>
       </c>
       <c r="C24">
-        <v>-0.08763234940653133</v>
+        <v>-0.07947467385463139</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -656,7 +656,7 @@
         <v>36525</v>
       </c>
       <c r="C25">
-        <v>-0.01946954527584446</v>
+        <v>-0.01937606011207047</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -667,7 +667,7 @@
         <v>36556</v>
       </c>
       <c r="C26">
-        <v>-0.4747968686400497</v>
+        <v>-0.47892145550835</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -678,7 +678,7 @@
         <v>36585</v>
       </c>
       <c r="C27">
-        <v>-0.3406164588627994</v>
+        <v>-0.3382302090693678</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -689,7 +689,7 @@
         <v>36616</v>
       </c>
       <c r="C28">
-        <v>-0.2524895211500584</v>
+        <v>-0.2536607887107841</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -700,7 +700,7 @@
         <v>36646</v>
       </c>
       <c r="C29">
-        <v>0.09109539709243362</v>
+        <v>0.08802000656440481</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -711,7 +711,7 @@
         <v>36677</v>
       </c>
       <c r="C30">
-        <v>0.1789967240563</v>
+        <v>0.1795472966902895</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -722,7 +722,7 @@
         <v>36707</v>
       </c>
       <c r="C31">
-        <v>-0.09578623865153124</v>
+        <v>-0.09875779028538841</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -733,7 +733,7 @@
         <v>36738</v>
       </c>
       <c r="C32">
-        <v>-0.1076143981899381</v>
+        <v>-0.1150940444141811</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -744,7 +744,7 @@
         <v>36769</v>
       </c>
       <c r="C33">
-        <v>-0.07985346624719558</v>
+        <v>-0.085494903793431</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -755,7 +755,7 @@
         <v>36799</v>
       </c>
       <c r="C34">
-        <v>-0.1858769142724405</v>
+        <v>-0.1951427264446944</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -766,7 +766,7 @@
         <v>36830</v>
       </c>
       <c r="C35">
-        <v>-0.6620522909032488</v>
+        <v>-0.6712964337699833</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -777,7 +777,7 @@
         <v>36860</v>
       </c>
       <c r="C36">
-        <v>-0.9201438634725555</v>
+        <v>-0.9331872744544929</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -788,7 +788,7 @@
         <v>36891</v>
       </c>
       <c r="C37">
-        <v>-1.120048239799299</v>
+        <v>-1.13096660506797</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -799,7 +799,7 @@
         <v>36922</v>
       </c>
       <c r="C38">
-        <v>-1.137235551956785</v>
+        <v>-1.156501067890326</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -810,7 +810,7 @@
         <v>36950</v>
       </c>
       <c r="C39">
-        <v>-0.9487596752713312</v>
+        <v>-0.9620843642273543</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -821,7 +821,7 @@
         <v>36981</v>
       </c>
       <c r="C40">
-        <v>-0.959632169652782</v>
+        <v>-0.9692067777618816</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -832,7 +832,7 @@
         <v>37011</v>
       </c>
       <c r="C41">
-        <v>-1.176047276574691</v>
+        <v>-1.187199265699776</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -843,7 +843,7 @@
         <v>37042</v>
       </c>
       <c r="C42">
-        <v>-1.260007245405153</v>
+        <v>-1.275922536996508</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -854,7 +854,7 @@
         <v>37072</v>
       </c>
       <c r="C43">
-        <v>-0.8078998184912509</v>
+        <v>-0.8306549502236185</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -865,7 +865,7 @@
         <v>37103</v>
       </c>
       <c r="C44">
-        <v>-0.8459546217196722</v>
+        <v>-0.8670872836493351</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -876,7 +876,7 @@
         <v>37134</v>
       </c>
       <c r="C45">
-        <v>-0.7250629220727293</v>
+        <v>-0.7433008868581937</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -887,7 +887,7 @@
         <v>37164</v>
       </c>
       <c r="C46">
-        <v>-0.628131862632539</v>
+        <v>-0.6517429867017557</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -898,7 +898,7 @@
         <v>37195</v>
       </c>
       <c r="C47">
-        <v>-1.132132012788815</v>
+        <v>-1.155016950540549</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -909,7 +909,7 @@
         <v>37225</v>
       </c>
       <c r="C48">
-        <v>-1.233666094351237</v>
+        <v>-1.25528825101414</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -920,7 +920,7 @@
         <v>37256</v>
       </c>
       <c r="C49">
-        <v>-1.012742870847166</v>
+        <v>-1.036391597225585</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -931,7 +931,7 @@
         <v>37287</v>
       </c>
       <c r="C50">
-        <v>-0.8886671855797998</v>
+        <v>-0.9016457099592681</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -942,7 +942,7 @@
         <v>37315</v>
       </c>
       <c r="C51">
-        <v>-0.4050248371011984</v>
+        <v>-0.4109031587258433</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -953,7 +953,7 @@
         <v>37346</v>
       </c>
       <c r="C52">
-        <v>-0.4254892670745046</v>
+        <v>-0.4283705830310509</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -964,7 +964,7 @@
         <v>37376</v>
       </c>
       <c r="C53">
-        <v>-0.4799227059894409</v>
+        <v>-0.4782076529031043</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -975,7 +975,7 @@
         <v>37407</v>
       </c>
       <c r="C54">
-        <v>-0.2493412958598703</v>
+        <v>-0.2476771624718197</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -986,7 +986,7 @@
         <v>37437</v>
       </c>
       <c r="C55">
-        <v>-0.4689459680695352</v>
+        <v>-0.473081464523811</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -997,7 +997,7 @@
         <v>37468</v>
       </c>
       <c r="C56">
-        <v>-0.8604574856009304</v>
+        <v>-0.8649262570178595</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>37499</v>
       </c>
       <c r="C57">
-        <v>-0.9579296367052073</v>
+        <v>-0.9698475966816053</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>37529</v>
       </c>
       <c r="C58">
-        <v>-0.9305181514392683</v>
+        <v>-0.9487563945986317</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>37560</v>
       </c>
       <c r="C59">
-        <v>-1.126731051428646</v>
+        <v>-1.14085750005878</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>37590</v>
       </c>
       <c r="C60">
-        <v>-0.765571342371238</v>
+        <v>-0.7686393937232499</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1052,7 +1052,7 @@
         <v>37621</v>
       </c>
       <c r="C61">
-        <v>-0.5594780955588052</v>
+        <v>-0.5656773014966715</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1063,7 +1063,7 @@
         <v>37652</v>
       </c>
       <c r="C62">
-        <v>-0.494998592678748</v>
+        <v>-0.4988810160889466</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>37680</v>
       </c>
       <c r="C63">
-        <v>-0.3766023077772732</v>
+        <v>-0.383728958890518</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1085,7 +1085,7 @@
         <v>37711</v>
       </c>
       <c r="C64">
-        <v>-0.2533476616551465</v>
+        <v>-0.2578850751112406</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1096,7 +1096,7 @@
         <v>37741</v>
       </c>
       <c r="C65">
-        <v>-0.4997229978540456</v>
+        <v>-0.5081075660286194</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1107,7 +1107,7 @@
         <v>37772</v>
       </c>
       <c r="C66">
-        <v>-0.2115427904463495</v>
+        <v>-0.2224376388729987</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1118,7 +1118,7 @@
         <v>37802</v>
       </c>
       <c r="C67">
-        <v>-0.2149481830836606</v>
+        <v>-0.2219347106946752</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1129,7 +1129,7 @@
         <v>37833</v>
       </c>
       <c r="C68">
-        <v>-0.1147919462830431</v>
+        <v>-0.1188862166662628</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1140,7 +1140,7 @@
         <v>37864</v>
       </c>
       <c r="C69">
-        <v>-0.160915624384184</v>
+        <v>-0.1619969392621595</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>37894</v>
       </c>
       <c r="C70">
-        <v>-0.07202304100240542</v>
+        <v>-0.06434788885649398</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>37925</v>
       </c>
       <c r="C71">
-        <v>-0.3059797450143518</v>
+        <v>-0.2936352911556512</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>37955</v>
       </c>
       <c r="C72">
-        <v>-0.3185544564939123</v>
+        <v>-0.3078899564615457</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>37986</v>
       </c>
       <c r="C73">
-        <v>-0.2705761139216853</v>
+        <v>-0.2592644574652574</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1195,7 +1195,7 @@
         <v>38017</v>
       </c>
       <c r="C74">
-        <v>-0.3768425957955936</v>
+        <v>-0.363339719470623</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>38046</v>
       </c>
       <c r="C75">
-        <v>-0.2747931024612091</v>
+        <v>-0.2616843186426957</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1217,7 +1217,7 @@
         <v>38077</v>
       </c>
       <c r="C76">
-        <v>0.06691184490007927</v>
+        <v>0.07709952825677976</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>38107</v>
       </c>
       <c r="C77">
-        <v>0.4816004753194592</v>
+        <v>0.4855518887242317</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>38138</v>
       </c>
       <c r="C78">
-        <v>0.4851642481554009</v>
+        <v>0.483110388915265</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>38168</v>
       </c>
       <c r="C79">
-        <v>0.44450557727262</v>
+        <v>0.4441886576318722</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1261,7 +1261,7 @@
         <v>38199</v>
       </c>
       <c r="C80">
-        <v>-0.3225786589565891</v>
+        <v>-0.3263686586147982</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>38230</v>
       </c>
       <c r="C81">
-        <v>0.2207659715570997</v>
+        <v>0.2132405999021736</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>38260</v>
       </c>
       <c r="C82">
-        <v>-0.03396799830039399</v>
+        <v>-0.03862138169886205</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>38291</v>
       </c>
       <c r="C83">
-        <v>-0.5736259405169367</v>
+        <v>-0.5843991056847818</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>38321</v>
       </c>
       <c r="C84">
-        <v>0.006475227444036824</v>
+        <v>-0.001887078334508182</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>38352</v>
       </c>
       <c r="C85">
-        <v>0.1793559148007224</v>
+        <v>0.1713832759807148</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1327,7 +1327,7 @@
         <v>38383</v>
       </c>
       <c r="C86">
-        <v>-0.1310373337777138</v>
+        <v>-0.1340297686706055</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1338,7 +1338,7 @@
         <v>38411</v>
       </c>
       <c r="C87">
-        <v>-0.2422298071114619</v>
+        <v>-0.2407561498436108</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>38442</v>
       </c>
       <c r="C88">
-        <v>-0.3234495622707614</v>
+        <v>-0.3209558621735704</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>38472</v>
       </c>
       <c r="C89">
-        <v>-1.366629575029867</v>
+        <v>-1.369914400712543</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>38503</v>
       </c>
       <c r="C90">
-        <v>-1.106997736914198</v>
+        <v>-1.103993890997498</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>38533</v>
       </c>
       <c r="C91">
-        <v>-0.966445777395746</v>
+        <v>-0.9675822745827559</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>38564</v>
       </c>
       <c r="C92">
-        <v>-1.013478011271816</v>
+        <v>-1.016178108152509</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>38595</v>
       </c>
       <c r="C93">
-        <v>-0.7506840988662477</v>
+        <v>-0.7448524379632379</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>38625</v>
       </c>
       <c r="C94">
-        <v>-0.04071213928607684</v>
+        <v>-0.03542443429999772</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>38656</v>
       </c>
       <c r="C95">
-        <v>-0.07956703088417956</v>
+        <v>-0.07953148350789523</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>38686</v>
       </c>
       <c r="C96">
-        <v>-0.6930408157479365</v>
+        <v>-0.6907357362653058</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>38717</v>
       </c>
       <c r="C97">
-        <v>-0.7231278292122196</v>
+        <v>-0.714978276697773</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>38748</v>
       </c>
       <c r="C98">
-        <v>-0.4138818638765228</v>
+        <v>-0.4037658940847863</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>38776</v>
       </c>
       <c r="C99">
-        <v>-0.6727097892497148</v>
+        <v>-0.6610924414702137</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>38807</v>
       </c>
       <c r="C100">
-        <v>-0.4488884404759809</v>
+        <v>-0.444550775649819</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1492,7 +1492,7 @@
         <v>38837</v>
       </c>
       <c r="C101">
-        <v>0.03047519940990384</v>
+        <v>0.03876045032551139</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>38868</v>
       </c>
       <c r="C102">
-        <v>0.09717576506841587</v>
+        <v>0.1007925349192405</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>38898</v>
       </c>
       <c r="C103">
-        <v>0.07154636959689348</v>
+        <v>0.07310358348125279</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>38929</v>
       </c>
       <c r="C104">
-        <v>-0.1392902785639598</v>
+        <v>-0.137624624139514</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>38960</v>
       </c>
       <c r="C105">
-        <v>0.0780359774452067</v>
+        <v>0.08015270229406014</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>38990</v>
       </c>
       <c r="C106">
-        <v>-0.5335035282976255</v>
+        <v>-0.5303366744977163</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>39021</v>
       </c>
       <c r="C107">
-        <v>-0.4004285920063545</v>
+        <v>-0.3978870605825788</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>39051</v>
       </c>
       <c r="C108">
-        <v>-0.1891020226609733</v>
+        <v>-0.1855566597466641</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>39082</v>
       </c>
       <c r="C109">
-        <v>-0.4381135679763284</v>
+        <v>-0.4344850731955793</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>39113</v>
       </c>
       <c r="C110">
-        <v>-0.8368806005054493</v>
+        <v>-0.8305252508330758</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>39141</v>
       </c>
       <c r="C111">
-        <v>-0.7174265238107943</v>
+        <v>-0.7184692294630296</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>39172</v>
       </c>
       <c r="C112">
-        <v>-0.504438182036215</v>
+        <v>-0.5029832352806074</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>39202</v>
       </c>
       <c r="C113">
-        <v>-0.7497262529300327</v>
+        <v>-0.7463568522784085</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>39233</v>
       </c>
       <c r="C114">
-        <v>-0.2955161892509698</v>
+        <v>-0.2970900925861252</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>39263</v>
       </c>
       <c r="C115">
-        <v>-0.3680249171589166</v>
+        <v>-0.3670099577718915</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1657,7 +1657,7 @@
         <v>39294</v>
       </c>
       <c r="C116">
-        <v>-0.3962605567083733</v>
+        <v>-0.3951680112197306</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1668,7 +1668,7 @@
         <v>39325</v>
       </c>
       <c r="C117">
-        <v>-0.05621290840806208</v>
+        <v>-0.05404301514966399</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>39355</v>
       </c>
       <c r="C118">
-        <v>-0.08371770043111443</v>
+        <v>-0.08098156111005174</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>39386</v>
       </c>
       <c r="C119">
-        <v>-0.6539859537963337</v>
+        <v>-0.6530272122391148</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>39416</v>
       </c>
       <c r="C120">
-        <v>-0.4544416545653899</v>
+        <v>-0.4549539649649861</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>39447</v>
       </c>
       <c r="C121">
-        <v>-0.1697765116203247</v>
+        <v>-0.1673833086912349</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>39478</v>
       </c>
       <c r="C122">
-        <v>-0.344218541524356</v>
+        <v>-0.3463963385227042</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1734,7 +1734,7 @@
         <v>39507</v>
       </c>
       <c r="C123">
-        <v>0.4021963635715654</v>
+        <v>0.3940541996797576</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1745,7 +1745,7 @@
         <v>39538</v>
       </c>
       <c r="C124">
-        <v>0.1616844503393844</v>
+        <v>0.1520185318146791</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1756,7 +1756,7 @@
         <v>39568</v>
       </c>
       <c r="C125">
-        <v>0.1203513956758718</v>
+        <v>0.1122088457888308</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>39599</v>
       </c>
       <c r="C126">
-        <v>-0.1100183326809485</v>
+        <v>-0.1197135790255844</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>39629</v>
       </c>
       <c r="C127">
-        <v>0.2465966026873586</v>
+        <v>0.2339167493598503</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1789,7 +1789,7 @@
         <v>39660</v>
       </c>
       <c r="C128">
-        <v>0.9895563890673359</v>
+        <v>0.9810142089895547</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>39691</v>
       </c>
       <c r="C129">
-        <v>0.2484388379955778</v>
+        <v>0.2411612891565051</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1811,7 +1811,7 @@
         <v>39721</v>
       </c>
       <c r="C130">
-        <v>-0.5707346917653429</v>
+        <v>-0.5816593238535489</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>39752</v>
       </c>
       <c r="C131">
-        <v>-1.077805875606644</v>
+        <v>-1.091811294459572</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>39782</v>
       </c>
       <c r="C132">
-        <v>-1.555874183011527</v>
+        <v>-1.573888159153135</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1844,7 +1844,7 @@
         <v>39813</v>
       </c>
       <c r="C133">
-        <v>-0.6631653676165494</v>
+        <v>-0.6934715359395554</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1855,7 +1855,7 @@
         <v>39844</v>
       </c>
       <c r="C134">
-        <v>-0.4730475309738406</v>
+        <v>-0.5086694619321176</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>39872</v>
       </c>
       <c r="C135">
-        <v>-0.6211696064921696</v>
+        <v>-0.6395328892293638</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1877,7 +1877,7 @@
         <v>39903</v>
       </c>
       <c r="C136">
-        <v>-0.03353136199119128</v>
+        <v>-0.04693199705699121</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1888,7 +1888,7 @@
         <v>39933</v>
       </c>
       <c r="C137">
-        <v>0.6795388926689128</v>
+        <v>0.6691187297007724</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>39964</v>
       </c>
       <c r="C138">
-        <v>0.1909144219475485</v>
+        <v>0.1881140395550674</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1910,7 +1910,7 @@
         <v>39994</v>
       </c>
       <c r="C139">
-        <v>-0.6620728063150049</v>
+        <v>-0.6590440211752205</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1921,7 +1921,7 @@
         <v>40025</v>
       </c>
       <c r="C140">
-        <v>-0.8771618830780549</v>
+        <v>-0.8798546498806659</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>40056</v>
       </c>
       <c r="C141">
-        <v>-1.16963865042744</v>
+        <v>-1.170743068204912</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1943,7 +1943,7 @@
         <v>40086</v>
       </c>
       <c r="C142">
-        <v>-0.5026827725413076</v>
+        <v>-0.5058881071298691</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1954,7 +1954,7 @@
         <v>40117</v>
       </c>
       <c r="C143">
-        <v>-0.4294531389470014</v>
+        <v>-0.4335381580405309</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>40147</v>
       </c>
       <c r="C144">
-        <v>-0.7458842002358443</v>
+        <v>-0.7517155239083976</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1976,7 +1976,7 @@
         <v>40178</v>
       </c>
       <c r="C145">
-        <v>-0.6161787134543757</v>
+        <v>-0.6238366396334954</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1987,7 +1987,7 @@
         <v>40209</v>
       </c>
       <c r="C146">
-        <v>-0.2502874431101764</v>
+        <v>-0.2588962401725788</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1998,7 +1998,7 @@
         <v>40237</v>
       </c>
       <c r="C147">
-        <v>-0.1142104438416339</v>
+        <v>-0.1172560251941812</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>40268</v>
       </c>
       <c r="C148">
-        <v>0.4143687005337299</v>
+        <v>0.405637846065088</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>40298</v>
       </c>
       <c r="C149">
-        <v>0.2679455627774762</v>
+        <v>0.2644603662416953</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>40329</v>
       </c>
       <c r="C150">
-        <v>0.3863157708660074</v>
+        <v>0.3873861644899785</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>40359</v>
       </c>
       <c r="C151">
-        <v>-0.05431873638540651</v>
+        <v>-0.05905506886693059</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2053,7 +2053,7 @@
         <v>40390</v>
       </c>
       <c r="C152">
-        <v>0.02373006930997941</v>
+        <v>0.01108095313143963</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2064,7 +2064,7 @@
         <v>40421</v>
       </c>
       <c r="C153">
-        <v>0.3886793623383029</v>
+        <v>0.3785425005816919</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>40451</v>
       </c>
       <c r="C154">
-        <v>0.3945781766661708</v>
+        <v>0.3864620499492281</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2086,7 +2086,7 @@
         <v>40482</v>
       </c>
       <c r="C155">
-        <v>0.7273774721944842</v>
+        <v>0.715884248298524</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2097,7 +2097,7 @@
         <v>40512</v>
       </c>
       <c r="C156">
-        <v>0.4305121291907117</v>
+        <v>0.4284423224695511</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2108,7 +2108,7 @@
         <v>40543</v>
       </c>
       <c r="C157">
-        <v>0.6990459658475207</v>
+        <v>0.7012388623202668</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2119,7 +2119,7 @@
         <v>40574</v>
       </c>
       <c r="C158">
-        <v>0.8186489809275374</v>
+        <v>0.8221500671054345</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2130,7 +2130,7 @@
         <v>40602</v>
       </c>
       <c r="C159">
-        <v>0.3993012319849932</v>
+        <v>0.4016331026296125</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>40633</v>
       </c>
       <c r="C160">
-        <v>0.7492970705566711</v>
+        <v>0.747159168000225</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>40663</v>
       </c>
       <c r="C161">
-        <v>1.563643557957704</v>
+        <v>1.55701751973915</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2163,7 +2163,7 @@
         <v>40694</v>
       </c>
       <c r="C162">
-        <v>0.959827141278368</v>
+        <v>0.9613739104264307</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2174,7 +2174,7 @@
         <v>40724</v>
       </c>
       <c r="C163">
-        <v>0.2204353877065003</v>
+        <v>0.2207084872606768</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2185,7 +2185,7 @@
         <v>40755</v>
       </c>
       <c r="C164">
-        <v>0.2740669749879076</v>
+        <v>0.2668213306310876</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2196,7 +2196,7 @@
         <v>40786</v>
       </c>
       <c r="C165">
-        <v>-0.06732470861132886</v>
+        <v>-0.07651235114759855</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2207,7 +2207,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <v>-0.566364435548096</v>
+        <v>-0.574689746905313</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>40847</v>
       </c>
       <c r="C167">
-        <v>-0.3907381245546763</v>
+        <v>-0.3994438347889449</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2229,7 +2229,7 @@
         <v>40877</v>
       </c>
       <c r="C168">
-        <v>0.1250262937324668</v>
+        <v>0.1145853258268028</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>40908</v>
       </c>
       <c r="C169">
-        <v>-0.06323612474101722</v>
+        <v>-0.07303621267260876</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>40939</v>
       </c>
       <c r="C170">
-        <v>0.338433888282919</v>
+        <v>0.3299073799368255</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>40968</v>
       </c>
       <c r="C171">
-        <v>-0.03922208660860455</v>
+        <v>-0.04179186383424272</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2273,7 +2273,7 @@
         <v>40999</v>
       </c>
       <c r="C172">
-        <v>-0.39505434717425</v>
+        <v>-0.3936842008617852</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2284,7 +2284,7 @@
         <v>41029</v>
       </c>
       <c r="C173">
-        <v>-0.2988123785530405</v>
+        <v>-0.3064597296481398</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2295,7 +2295,7 @@
         <v>41060</v>
       </c>
       <c r="C174">
-        <v>-0.7042825970152474</v>
+        <v>-0.7149665890838683</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2306,7 +2306,7 @@
         <v>41090</v>
       </c>
       <c r="C175">
-        <v>-0.6658424418729254</v>
+        <v>-0.6766346313435662</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>41121</v>
       </c>
       <c r="C176">
-        <v>-0.6750574510240556</v>
+        <v>-0.6862835300325254</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>41152</v>
       </c>
       <c r="C177">
-        <v>-0.1303698909449847</v>
+        <v>-0.1416175563490586</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2339,7 +2339,7 @@
         <v>41182</v>
       </c>
       <c r="C178">
-        <v>-0.2272841848230293</v>
+        <v>-0.239924103908576</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2350,7 +2350,7 @@
         <v>41213</v>
       </c>
       <c r="C179">
-        <v>0.007160511649639851</v>
+        <v>-0.002893530014072775</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>41243</v>
       </c>
       <c r="C180">
-        <v>-0.3457312674382373</v>
+        <v>-0.3573729722375387</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2372,7 +2372,7 @@
         <v>41274</v>
       </c>
       <c r="C181">
-        <v>-0.1434694728973424</v>
+        <v>-0.1515893196875611</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>41305</v>
       </c>
       <c r="C182">
-        <v>-0.04681693861292913</v>
+        <v>-0.05381219333498957</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>41333</v>
       </c>
       <c r="C183">
-        <v>-0.3948160041066963</v>
+        <v>-0.3983180380743809</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2405,7 +2405,7 @@
         <v>41364</v>
       </c>
       <c r="C184">
-        <v>-0.5428041931327865</v>
+        <v>-0.5412552038892706</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2416,7 +2416,7 @@
         <v>41394</v>
       </c>
       <c r="C185">
-        <v>-0.7374972970694916</v>
+        <v>-0.7436616673390726</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>41425</v>
       </c>
       <c r="C186">
-        <v>-0.83042316229279</v>
+        <v>-0.8365943537864414</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2438,7 +2438,7 @@
         <v>41455</v>
       </c>
       <c r="C187">
-        <v>-0.6230912810671132</v>
+        <v>-0.6254931161888058</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2449,7 +2449,7 @@
         <v>41486</v>
       </c>
       <c r="C188">
-        <v>-0.6614857090486556</v>
+        <v>-0.6642546616163277</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>41517</v>
       </c>
       <c r="C189">
-        <v>-0.529323848995965</v>
+        <v>-0.5319897903381431</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>41547</v>
       </c>
       <c r="C190">
-        <v>-0.2719699004671558</v>
+        <v>-0.2680852053865414</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2482,7 +2482,7 @@
         <v>41578</v>
       </c>
       <c r="C191">
-        <v>-0.1582487265983141</v>
+        <v>-0.1582514588641079</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2493,7 +2493,7 @@
         <v>41608</v>
       </c>
       <c r="C192">
-        <v>-0.6365552262397682</v>
+        <v>-0.6380626065283299</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2504,7 +2504,7 @@
         <v>41639</v>
       </c>
       <c r="C193">
-        <v>-0.4575470744167597</v>
+        <v>-0.4564974182459717</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>41670</v>
       </c>
       <c r="C194">
-        <v>-0.6065943895267636</v>
+        <v>-0.6031856479598132</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2526,7 +2526,7 @@
         <v>41698</v>
       </c>
       <c r="C195">
-        <v>-0.2462357835632986</v>
+        <v>-0.2396630099092262</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>41729</v>
       </c>
       <c r="C196">
-        <v>-0.5715141844341723</v>
+        <v>-0.5673679124645721</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>41759</v>
       </c>
       <c r="C197">
-        <v>-0.7987049025686186</v>
+        <v>-0.7977987871115527</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>41790</v>
       </c>
       <c r="C198">
-        <v>-0.7649973049197144</v>
+        <v>-0.7647341943649555</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>41820</v>
       </c>
       <c r="C199">
-        <v>-0.6350751493469419</v>
+        <v>-0.6342469704463725</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>41851</v>
       </c>
       <c r="C200">
-        <v>-0.7881772907063704</v>
+        <v>-0.7878961084467136</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>41882</v>
       </c>
       <c r="C201">
-        <v>-0.6187985116683522</v>
+        <v>-0.6193559267938645</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>41912</v>
       </c>
       <c r="C202">
-        <v>-0.7961790363827136</v>
+        <v>-0.7995597579728995</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>41943</v>
       </c>
       <c r="C203">
-        <v>-0.5663956986358292</v>
+        <v>-0.5705344348293871</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>41973</v>
       </c>
       <c r="C204">
-        <v>-0.9610262663474447</v>
+        <v>-0.9654357921364974</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>42004</v>
       </c>
       <c r="C205">
-        <v>-0.3785894072908105</v>
+        <v>-0.3851560494506315</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>42035</v>
       </c>
       <c r="C206">
-        <v>-0.5152649003493932</v>
+        <v>-0.5200818793164181</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>42063</v>
       </c>
       <c r="C207">
-        <v>-0.3110647646724647</v>
+        <v>-0.3127905233863661</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>42094</v>
       </c>
       <c r="C208">
-        <v>-0.3935965945305436</v>
+        <v>-0.3989729953428803</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>42124</v>
       </c>
       <c r="C209">
-        <v>-0.2673431471946168</v>
+        <v>-0.2725136636029826</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>42155</v>
       </c>
       <c r="C210">
-        <v>-0.5254179382371966</v>
+        <v>-0.531250083022753</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>42185</v>
       </c>
       <c r="C211">
-        <v>-0.8237430898582092</v>
+        <v>-0.8313029988798813</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>42216</v>
       </c>
       <c r="C212">
-        <v>-0.3873047986252354</v>
+        <v>-0.3896686351066157</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>42247</v>
       </c>
       <c r="C213">
-        <v>-0.6664054302595174</v>
+        <v>-0.6664506454174534</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>42277</v>
       </c>
       <c r="C214">
-        <v>-0.407206978052698</v>
+        <v>-0.4093542183260566</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>42308</v>
       </c>
       <c r="C215">
-        <v>-0.2172607398870885</v>
+        <v>-0.2166782299186233</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>42338</v>
       </c>
       <c r="C216">
-        <v>-0.634045741598552</v>
+        <v>-0.6342983896230214</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>42369</v>
       </c>
       <c r="C217">
-        <v>-0.5882283602849551</v>
+        <v>-0.5896884446638825</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>42400</v>
       </c>
       <c r="C218">
-        <v>-0.748938578500751</v>
+        <v>-0.7476342184757644</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>42429</v>
       </c>
       <c r="C219">
-        <v>-0.7052225387040486</v>
+        <v>-0.7070424782031072</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2801,7 +2801,7 @@
         <v>42460</v>
       </c>
       <c r="C220">
-        <v>-0.6043708497877551</v>
+        <v>-0.6089410183528549</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2812,7 +2812,7 @@
         <v>42490</v>
       </c>
       <c r="C221">
-        <v>-0.2115372624285167</v>
+        <v>-0.2176443259788539</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2823,7 +2823,7 @@
         <v>42521</v>
       </c>
       <c r="C222">
-        <v>-0.7129669553586787</v>
+        <v>-0.7157979024498411</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2834,7 +2834,7 @@
         <v>42551</v>
       </c>
       <c r="C223">
-        <v>-0.2710729919714263</v>
+        <v>-0.2742452060174683</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2845,7 +2845,7 @@
         <v>42582</v>
       </c>
       <c r="C224">
-        <v>-0.1691696757815032</v>
+        <v>-0.1716465891712907</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>42613</v>
       </c>
       <c r="C225">
-        <v>0.1102086627654237</v>
+        <v>0.1070819597063561</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>42643</v>
       </c>
       <c r="C226">
-        <v>-0.2829277263124122</v>
+        <v>-0.2885205769656237</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>42674</v>
       </c>
       <c r="C227">
-        <v>-0.03963586727081747</v>
+        <v>-0.04601912480388642</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>42704</v>
       </c>
       <c r="C228">
-        <v>-0.2964344843834628</v>
+        <v>-0.3007066007766616</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>42735</v>
       </c>
       <c r="C229">
-        <v>-0.2334422761084403</v>
+        <v>-0.2401792913095818</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2911,7 +2911,7 @@
         <v>42766</v>
       </c>
       <c r="C230">
-        <v>0.2073637546722226</v>
+        <v>0.2038017282937895</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2922,7 +2922,7 @@
         <v>42794</v>
       </c>
       <c r="C231">
-        <v>0.2336578717856274</v>
+        <v>0.2319263320492301</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2933,7 +2933,7 @@
         <v>42825</v>
       </c>
       <c r="C232">
-        <v>0.1197846751221357</v>
+        <v>0.1140102520740447</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2944,7 +2944,7 @@
         <v>42855</v>
       </c>
       <c r="C233">
-        <v>0.05015058785486981</v>
+        <v>0.0517432894183626</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>42886</v>
       </c>
       <c r="C234">
-        <v>-0.08287613051572297</v>
+        <v>-0.08335825847497157</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>42916</v>
       </c>
       <c r="C235">
-        <v>0.1397884774840518</v>
+        <v>0.13963712521116</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>42947</v>
       </c>
       <c r="C236">
-        <v>0.1588431063616269</v>
+        <v>0.1530453892037084</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>42978</v>
       </c>
       <c r="C237">
-        <v>0.4525281122611891</v>
+        <v>0.4451695898280745</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>43008</v>
       </c>
       <c r="C238">
-        <v>0.5559132620066516</v>
+        <v>0.5509542196027956</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43039</v>
       </c>
       <c r="C239">
-        <v>0.8045895504860359</v>
+        <v>0.8005183917127418</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>43069</v>
       </c>
       <c r="C240">
-        <v>0.8710826158154586</v>
+        <v>0.8649027732840815</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>43100</v>
       </c>
       <c r="C241">
-        <v>0.7191395194802672</v>
+        <v>0.7159743282120926</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>43131</v>
       </c>
       <c r="C242">
-        <v>0.6040730496040504</v>
+        <v>0.6057583027515037</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>43159</v>
       </c>
       <c r="C243">
-        <v>0.1121855813103103</v>
+        <v>0.1139801486492775</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>43190</v>
       </c>
       <c r="C244">
-        <v>0.4792079203070643</v>
+        <v>0.4771428478740258</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>43220</v>
       </c>
       <c r="C245">
-        <v>0.5694660564392776</v>
+        <v>0.5639258239786197</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>43251</v>
       </c>
       <c r="C246">
-        <v>0.3741441612225761</v>
+        <v>0.3704819709307087</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>43281</v>
       </c>
       <c r="C247">
-        <v>0.4166107183687729</v>
+        <v>0.4142448472539175</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43312</v>
       </c>
       <c r="C248">
-        <v>0.4184642701373092</v>
+        <v>0.4121765454568855</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>43343</v>
       </c>
       <c r="C249">
-        <v>0.5438329475408467</v>
+        <v>0.5357017485271072</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>43373</v>
       </c>
       <c r="C250">
-        <v>0.47605092746475</v>
+        <v>0.4742713815720053</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>43404</v>
       </c>
       <c r="C251">
-        <v>0.5362649193414377</v>
+        <v>0.5313198034398949</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>43434</v>
       </c>
       <c r="C252">
-        <v>0.4480063307060466</v>
+        <v>0.4395558701506962</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C253">
-        <v>0.4579920885364373</v>
+        <v>0.4532298981284192</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>43496</v>
       </c>
       <c r="C254">
-        <v>0.5351899826151981</v>
+        <v>0.5280753351828822</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>43524</v>
       </c>
       <c r="C255">
-        <v>0.1295771682547186</v>
+        <v>0.1238453723883926</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>43555</v>
       </c>
       <c r="C256">
-        <v>0.2025672535337778</v>
+        <v>0.2014243584948091</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>43585</v>
       </c>
       <c r="C257">
-        <v>0.03220010771891443</v>
+        <v>0.02915699709421713</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43616</v>
       </c>
       <c r="C258">
-        <v>-0.6498550906548911</v>
+        <v>-0.6520863757033811</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>43646</v>
       </c>
       <c r="C259">
-        <v>-0.4776861344172783</v>
+        <v>-0.4796563986533317</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>43677</v>
       </c>
       <c r="C260">
-        <v>-0.4583442299217397</v>
+        <v>-0.464813795920913</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>43708</v>
       </c>
       <c r="C261">
-        <v>-0.3244418046503131</v>
+        <v>-0.3280525137250141</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>43738</v>
       </c>
       <c r="C262">
-        <v>0.1272134205334934</v>
+        <v>0.1218479166653591</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>43769</v>
       </c>
       <c r="C263">
-        <v>0.05380289122374651</v>
+        <v>0.04510792283926893</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>43799</v>
       </c>
       <c r="C264">
-        <v>0.1181756295452124</v>
+        <v>0.109478736223431</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>43830</v>
       </c>
       <c r="C265">
-        <v>0.01259718364710465</v>
+        <v>0.009789440164311068</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>43861</v>
       </c>
       <c r="C266">
-        <v>0.04956342459146662</v>
+        <v>0.0487636996763578</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>43890</v>
       </c>
       <c r="C267">
-        <v>1.130813605612517</v>
+        <v>1.111265165029456</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>43921</v>
       </c>
       <c r="C268">
-        <v>2.506200960764162</v>
+        <v>2.483019962963582</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>43951</v>
       </c>
       <c r="C269">
-        <v>3.187916393765618</v>
+        <v>3.149744061036779</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3351,7 +3351,7 @@
         <v>43982</v>
       </c>
       <c r="C270">
-        <v>2.651393073083515</v>
+        <v>2.582216610318057</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3362,7 +3362,7 @@
         <v>44012</v>
       </c>
       <c r="C271">
-        <v>2.398379100667929</v>
+        <v>2.353321363387857</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3373,7 +3373,7 @@
         <v>44043</v>
       </c>
       <c r="C272">
-        <v>2.803295684481194</v>
+        <v>2.812131346547675</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3384,7 +3384,7 @@
         <v>44074</v>
       </c>
       <c r="C273">
-        <v>1.324632803213632</v>
+        <v>1.34877411201927</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>44104</v>
       </c>
       <c r="C274">
-        <v>0.596643696530828</v>
+        <v>0.6003456763031345</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3406,7 +3406,7 @@
         <v>44135</v>
       </c>
       <c r="C275">
-        <v>0.1153599551310045</v>
+        <v>0.1144813119343265</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3417,7 +3417,7 @@
         <v>44165</v>
       </c>
       <c r="C276">
-        <v>0.7022437346591164</v>
+        <v>0.7032245007819979</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>44196</v>
       </c>
       <c r="C277">
-        <v>1.642669724618871</v>
+        <v>1.634150827396257</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3439,7 +3439,7 @@
         <v>44227</v>
       </c>
       <c r="C278">
-        <v>1.420932930823033</v>
+        <v>1.404802535888257</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3450,7 +3450,7 @@
         <v>44255</v>
       </c>
       <c r="C279">
-        <v>1.89127716476863</v>
+        <v>1.879984901258474</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3461,7 +3461,7 @@
         <v>44286</v>
       </c>
       <c r="C280">
-        <v>2.175059029841529</v>
+        <v>2.16496580511104</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>44316</v>
       </c>
       <c r="C281">
-        <v>2.474269591312726</v>
+        <v>2.474306129656732</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>44347</v>
       </c>
       <c r="C282">
-        <v>2.958513735695787</v>
+        <v>2.956315754438333</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3494,7 +3494,7 @@
         <v>44377</v>
       </c>
       <c r="C283">
-        <v>2.684920119432177</v>
+        <v>2.680226310478881</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>44408</v>
       </c>
       <c r="C284">
-        <v>2.945853961494599</v>
+        <v>2.936499842568348</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3516,7 +3516,7 @@
         <v>44439</v>
       </c>
       <c r="C285">
-        <v>3.239218573747304</v>
+        <v>3.221886161594695</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>44469</v>
       </c>
       <c r="C286">
-        <v>3.252486180579294</v>
+        <v>3.234082250457355</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>44500</v>
       </c>
       <c r="C287">
-        <v>3.803547579006632</v>
+        <v>3.782431392291223</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3549,7 +3549,7 @@
         <v>44530</v>
       </c>
       <c r="C288">
-        <v>4.240862241930924</v>
+        <v>4.216831376645724</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3560,7 +3560,7 @@
         <v>44561</v>
       </c>
       <c r="C289">
-        <v>4.324074310975543</v>
+        <v>4.307274225657618</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3571,7 +3571,7 @@
         <v>44592</v>
       </c>
       <c r="C290">
-        <v>3.648648733165185</v>
+        <v>3.629922009117848</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3582,7 +3582,7 @@
         <v>44620</v>
       </c>
       <c r="C291">
-        <v>2.761096458352433</v>
+        <v>2.76023107847074</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3593,7 +3593,7 @@
         <v>44651</v>
       </c>
       <c r="C292">
-        <v>2.780844575853506</v>
+        <v>2.777934159087218</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>44681</v>
       </c>
       <c r="C293">
-        <v>3.393198837356864</v>
+        <v>3.407630211910321</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3615,7 +3615,7 @@
         <v>44712</v>
       </c>
       <c r="C294">
-        <v>2.593269893028056</v>
+        <v>2.611884736480381</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3626,7 +3626,7 @@
         <v>44742</v>
       </c>
       <c r="C295">
-        <v>2.313829755585826</v>
+        <v>2.31770045020668</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3637,7 +3637,18 @@
         <v>44773</v>
       </c>
       <c r="C296">
-        <v>1.836499202981767</v>
+        <v>1.7514912574629</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>44804</v>
+      </c>
+      <c r="C297">
+        <v>1.465240703134306</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/gscpi_data.xlsx
+++ b/mercados/gscpi_data.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
         <v>35826</v>
       </c>
       <c r="C2">
-        <v>-0.9425860949431372</v>
+        <v>-0.9344279323203987</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -414,7 +414,7 @@
         <v>35854</v>
       </c>
       <c r="C3">
-        <v>-0.4461210612482688</v>
+        <v>-0.4560707618838566</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,7 +425,7 @@
         <v>35885</v>
       </c>
       <c r="C4">
-        <v>-0.07937937590709553</v>
+        <v>-0.1030458995044019</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,7 +436,7 @@
         <v>35915</v>
       </c>
       <c r="C5">
-        <v>-0.1187915249069303</v>
+        <v>-0.1370834230151193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>35946</v>
       </c>
       <c r="C6">
-        <v>-0.4884003682351828</v>
+        <v>-0.5013573197104652</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>35976</v>
       </c>
       <c r="C7">
-        <v>-0.8059043318898378</v>
+        <v>-0.8037141015552012</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -469,7 +469,7 @@
         <v>36007</v>
       </c>
       <c r="C8">
-        <v>-0.9281259079359905</v>
+        <v>-0.9345403177525531</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,7 +480,7 @@
         <v>36038</v>
       </c>
       <c r="C9">
-        <v>-0.9474240178594927</v>
+        <v>-0.9515896200456037</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -491,7 +491,7 @@
         <v>36068</v>
       </c>
       <c r="C10">
-        <v>-0.9298872364052344</v>
+        <v>-0.9452767654052571</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>36099</v>
       </c>
       <c r="C11">
-        <v>-0.7730756013136806</v>
+        <v>-0.7894590457753262</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -513,7 +513,7 @@
         <v>36129</v>
       </c>
       <c r="C12">
-        <v>-0.8438523866858471</v>
+        <v>-0.8658405560450514</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -524,7 +524,7 @@
         <v>36160</v>
       </c>
       <c r="C13">
-        <v>-0.5824133128695748</v>
+        <v>-0.6213426171929076</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -535,7 +535,7 @@
         <v>36191</v>
       </c>
       <c r="C14">
-        <v>-0.274373203406279</v>
+        <v>-0.3065270714599176</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -546,7 +546,7 @@
         <v>36219</v>
       </c>
       <c r="C15">
-        <v>-0.06499465447385319</v>
+        <v>-0.08847329831014529</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -557,7 +557,7 @@
         <v>36250</v>
       </c>
       <c r="C16">
-        <v>-0.3427697450350924</v>
+        <v>-0.351652701421884</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -568,7 +568,7 @@
         <v>36280</v>
       </c>
       <c r="C17">
-        <v>-0.3238001068842106</v>
+        <v>-0.3458603771410294</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>36311</v>
       </c>
       <c r="C18">
-        <v>-0.3575534414592667</v>
+        <v>-0.3761772178971506</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -590,7 +590,7 @@
         <v>36341</v>
       </c>
       <c r="C19">
-        <v>-0.4093303552021466</v>
+        <v>-0.4172309385508494</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -601,7 +601,7 @@
         <v>36372</v>
       </c>
       <c r="C20">
-        <v>-0.6074680136205308</v>
+        <v>-0.607722639489619</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -612,7 +612,7 @@
         <v>36403</v>
       </c>
       <c r="C21">
-        <v>-0.474188515559591</v>
+        <v>-0.4818797628259639</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -623,7 +623,7 @@
         <v>36433</v>
       </c>
       <c r="C22">
-        <v>-0.321958385067618</v>
+        <v>-0.3229554685365647</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -634,7 +634,7 @@
         <v>36464</v>
       </c>
       <c r="C23">
-        <v>-0.110824115048236</v>
+        <v>-0.1094151003219193</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -645,7 +645,7 @@
         <v>36494</v>
       </c>
       <c r="C24">
-        <v>-0.07947467385463139</v>
+        <v>-0.08343928069849062</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -656,7 +656,7 @@
         <v>36525</v>
       </c>
       <c r="C25">
-        <v>-0.01937606011207047</v>
+        <v>-0.02842628751010649</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -667,7 +667,7 @@
         <v>36556</v>
       </c>
       <c r="C26">
-        <v>-0.47892145550835</v>
+        <v>-0.4744825654933889</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -678,7 +678,7 @@
         <v>36585</v>
       </c>
       <c r="C27">
-        <v>-0.3382302090693678</v>
+        <v>-0.3269476797260231</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -689,7 +689,7 @@
         <v>36616</v>
       </c>
       <c r="C28">
-        <v>-0.2536607887107841</v>
+        <v>-0.2561329477749302</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -700,7 +700,7 @@
         <v>36646</v>
       </c>
       <c r="C29">
-        <v>0.08802000656440481</v>
+        <v>0.08893509237406234</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -711,7 +711,7 @@
         <v>36677</v>
       </c>
       <c r="C30">
-        <v>0.1795472966902895</v>
+        <v>0.182421474780657</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -722,7 +722,7 @@
         <v>36707</v>
       </c>
       <c r="C31">
-        <v>-0.09875779028538841</v>
+        <v>-0.09393339939721272</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -733,7 +733,7 @@
         <v>36738</v>
       </c>
       <c r="C32">
-        <v>-0.1150940444141811</v>
+        <v>-0.1127027015645619</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -744,7 +744,7 @@
         <v>36769</v>
       </c>
       <c r="C33">
-        <v>-0.085494903793431</v>
+        <v>-0.08131610873884697</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -755,7 +755,7 @@
         <v>36799</v>
       </c>
       <c r="C34">
-        <v>-0.1951427264446944</v>
+        <v>-0.2006801219029906</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -766,7 +766,7 @@
         <v>36830</v>
       </c>
       <c r="C35">
-        <v>-0.6712964337699833</v>
+        <v>-0.6602197279726983</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -777,7 +777,7 @@
         <v>36860</v>
       </c>
       <c r="C36">
-        <v>-0.9331872744544929</v>
+        <v>-0.9248895511375638</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -788,7 +788,7 @@
         <v>36891</v>
       </c>
       <c r="C37">
-        <v>-1.13096660506797</v>
+        <v>-1.118580550556934</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -799,7 +799,7 @@
         <v>36922</v>
       </c>
       <c r="C38">
-        <v>-1.156501067890326</v>
+        <v>-1.14450497731445</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -810,7 +810,7 @@
         <v>36950</v>
       </c>
       <c r="C39">
-        <v>-0.9620843642273543</v>
+        <v>-0.9587820145943261</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -821,7 +821,7 @@
         <v>36981</v>
       </c>
       <c r="C40">
-        <v>-0.9692067777618816</v>
+        <v>-0.9656059099708652</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -832,7 +832,7 @@
         <v>37011</v>
       </c>
       <c r="C41">
-        <v>-1.187199265699776</v>
+        <v>-1.187058891631383</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -843,7 +843,7 @@
         <v>37042</v>
       </c>
       <c r="C42">
-        <v>-1.275922536996508</v>
+        <v>-1.280774715326669</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -854,7 +854,7 @@
         <v>37072</v>
       </c>
       <c r="C43">
-        <v>-0.8306549502236185</v>
+        <v>-0.8406624910756086</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -865,7 +865,7 @@
         <v>37103</v>
       </c>
       <c r="C44">
-        <v>-0.8670872836493351</v>
+        <v>-0.8688728802013274</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -876,7 +876,7 @@
         <v>37134</v>
       </c>
       <c r="C45">
-        <v>-0.7433008868581937</v>
+        <v>-0.7513497238479563</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -887,7 +887,7 @@
         <v>37164</v>
       </c>
       <c r="C46">
-        <v>-0.6517429867017557</v>
+        <v>-0.6683998302262674</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -898,7 +898,7 @@
         <v>37195</v>
       </c>
       <c r="C47">
-        <v>-1.155016950540549</v>
+        <v>-1.148089559960096</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -909,7 +909,7 @@
         <v>37225</v>
       </c>
       <c r="C48">
-        <v>-1.25528825101414</v>
+        <v>-1.244813051870896</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -920,7 +920,7 @@
         <v>37256</v>
       </c>
       <c r="C49">
-        <v>-1.036391597225585</v>
+        <v>-1.038641438229382</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -931,7 +931,7 @@
         <v>37287</v>
       </c>
       <c r="C50">
-        <v>-0.9016457099592681</v>
+        <v>-0.8844574783952891</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -942,7 +942,7 @@
         <v>37315</v>
       </c>
       <c r="C51">
-        <v>-0.4109031587258433</v>
+        <v>-0.4129352783198858</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -953,7 +953,7 @@
         <v>37346</v>
       </c>
       <c r="C52">
-        <v>-0.4283705830310509</v>
+        <v>-0.4276564569056645</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -964,7 +964,7 @@
         <v>37376</v>
       </c>
       <c r="C53">
-        <v>-0.4782076529031043</v>
+        <v>-0.4731229983346583</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -975,7 +975,7 @@
         <v>37407</v>
       </c>
       <c r="C54">
-        <v>-0.2476771624718197</v>
+        <v>-0.2598536524149812</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -986,7 +986,7 @@
         <v>37437</v>
       </c>
       <c r="C55">
-        <v>-0.473081464523811</v>
+        <v>-0.479029210944485</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -997,7 +997,7 @@
         <v>37468</v>
       </c>
       <c r="C56">
-        <v>-0.8649262570178595</v>
+        <v>-0.872429924240239</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>37499</v>
       </c>
       <c r="C57">
-        <v>-0.9698475966816053</v>
+        <v>-0.9628872266700265</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>37529</v>
       </c>
       <c r="C58">
-        <v>-0.9487563945986317</v>
+        <v>-0.9467749415632518</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>37560</v>
       </c>
       <c r="C59">
-        <v>-1.14085750005878</v>
+        <v>-1.124890330352179</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>37590</v>
       </c>
       <c r="C60">
-        <v>-0.7686393937232499</v>
+        <v>-0.7874946878149963</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1052,7 +1052,7 @@
         <v>37621</v>
       </c>
       <c r="C61">
-        <v>-0.5656773014966715</v>
+        <v>-0.5749558685989539</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1063,7 +1063,7 @@
         <v>37652</v>
       </c>
       <c r="C62">
-        <v>-0.4988810160889466</v>
+        <v>-0.5034484726463555</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>37680</v>
       </c>
       <c r="C63">
-        <v>-0.383728958890518</v>
+        <v>-0.3927102989622431</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1085,7 +1085,7 @@
         <v>37711</v>
       </c>
       <c r="C64">
-        <v>-0.2578850751112406</v>
+        <v>-0.2653479042887643</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1096,7 +1096,7 @@
         <v>37741</v>
       </c>
       <c r="C65">
-        <v>-0.5081075660286194</v>
+        <v>-0.5118677793202632</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1107,7 +1107,7 @@
         <v>37772</v>
       </c>
       <c r="C66">
-        <v>-0.2224376388729987</v>
+        <v>-0.2418361445428878</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1118,7 +1118,7 @@
         <v>37802</v>
       </c>
       <c r="C67">
-        <v>-0.2219347106946752</v>
+        <v>-0.2273805890103205</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1129,7 +1129,7 @@
         <v>37833</v>
       </c>
       <c r="C68">
-        <v>-0.1188862166662628</v>
+        <v>-0.1290735376336897</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1140,7 +1140,7 @@
         <v>37864</v>
       </c>
       <c r="C69">
-        <v>-0.1619969392621595</v>
+        <v>-0.1689401686047729</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>37894</v>
       </c>
       <c r="C70">
-        <v>-0.06434788885649398</v>
+        <v>-0.07339442808745524</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>37925</v>
       </c>
       <c r="C71">
-        <v>-0.2936352911556512</v>
+        <v>-0.3050282515921608</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>37955</v>
       </c>
       <c r="C72">
-        <v>-0.3078899564615457</v>
+        <v>-0.3088049999740222</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>37986</v>
       </c>
       <c r="C73">
-        <v>-0.2592644574652574</v>
+        <v>-0.2614948255107505</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1195,7 +1195,7 @@
         <v>38017</v>
       </c>
       <c r="C74">
-        <v>-0.363339719470623</v>
+        <v>-0.3650304279055455</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>38046</v>
       </c>
       <c r="C75">
-        <v>-0.2616843186426957</v>
+        <v>-0.2596950993417203</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1217,7 +1217,7 @@
         <v>38077</v>
       </c>
       <c r="C76">
-        <v>0.07709952825677976</v>
+        <v>0.08136079665053762</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>38107</v>
       </c>
       <c r="C77">
-        <v>0.4855518887242317</v>
+        <v>0.4773547651947025</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>38138</v>
       </c>
       <c r="C78">
-        <v>0.483110388915265</v>
+        <v>0.4959543250080186</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>38168</v>
       </c>
       <c r="C79">
-        <v>0.4441886576318722</v>
+        <v>0.4340761128397148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1261,7 +1261,7 @@
         <v>38199</v>
       </c>
       <c r="C80">
-        <v>-0.3263686586147982</v>
+        <v>-0.3380222881497634</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>38230</v>
       </c>
       <c r="C81">
-        <v>0.2132405999021736</v>
+        <v>0.200183524727875</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>38260</v>
       </c>
       <c r="C82">
-        <v>-0.03862138169886205</v>
+        <v>-0.0532975226019192</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>38291</v>
       </c>
       <c r="C83">
-        <v>-0.5843991056847818</v>
+        <v>-0.5928112355564346</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>38321</v>
       </c>
       <c r="C84">
-        <v>-0.001887078334508182</v>
+        <v>-0.03451378322076278</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>38352</v>
       </c>
       <c r="C85">
-        <v>0.1713832759807148</v>
+        <v>0.1549538807302692</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1327,7 +1327,7 @@
         <v>38383</v>
       </c>
       <c r="C86">
-        <v>-0.1340297686706055</v>
+        <v>-0.1498242540780281</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1338,7 +1338,7 @@
         <v>38411</v>
       </c>
       <c r="C87">
-        <v>-0.2407561498436108</v>
+        <v>-0.2535575534195871</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>38442</v>
       </c>
       <c r="C88">
-        <v>-0.3209558621735704</v>
+        <v>-0.3354075814779937</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>38472</v>
       </c>
       <c r="C89">
-        <v>-1.369914400712543</v>
+        <v>-1.379959628914956</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>38503</v>
       </c>
       <c r="C90">
-        <v>-1.103993890997498</v>
+        <v>-1.115180310344019</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>38533</v>
       </c>
       <c r="C91">
-        <v>-0.9675822745827559</v>
+        <v>-0.9633765033601929</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>38564</v>
       </c>
       <c r="C92">
-        <v>-1.016178108152509</v>
+        <v>-1.003781249294204</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>38595</v>
       </c>
       <c r="C93">
-        <v>-0.7448524379632379</v>
+        <v>-0.7500136413542966</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>38625</v>
       </c>
       <c r="C94">
-        <v>-0.03542443429999772</v>
+        <v>-0.02581309723406693</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>38656</v>
       </c>
       <c r="C95">
-        <v>-0.07953148350789523</v>
+        <v>-0.06564441710102362</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>38686</v>
       </c>
       <c r="C96">
-        <v>-0.6907357362653058</v>
+        <v>-0.6643164239807826</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>38717</v>
       </c>
       <c r="C97">
-        <v>-0.714978276697773</v>
+        <v>-0.6927085283772839</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>38748</v>
       </c>
       <c r="C98">
-        <v>-0.4037658940847863</v>
+        <v>-0.4001491768631785</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>38776</v>
       </c>
       <c r="C99">
-        <v>-0.6610924414702137</v>
+        <v>-0.6454302793047214</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>38807</v>
       </c>
       <c r="C100">
-        <v>-0.444550775649819</v>
+        <v>-0.4322551142770186</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1492,7 +1492,7 @@
         <v>38837</v>
       </c>
       <c r="C101">
-        <v>0.03876045032551139</v>
+        <v>0.04463981531325844</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>38868</v>
       </c>
       <c r="C102">
-        <v>0.1007925349192405</v>
+        <v>0.09478784509385638</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>38898</v>
       </c>
       <c r="C103">
-        <v>0.07310358348125279</v>
+        <v>0.08527253223424068</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>38929</v>
       </c>
       <c r="C104">
-        <v>-0.137624624139514</v>
+        <v>-0.1325201205088979</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>38960</v>
       </c>
       <c r="C105">
-        <v>0.08015270229406014</v>
+        <v>0.08385043821140618</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>38990</v>
       </c>
       <c r="C106">
-        <v>-0.5303366744977163</v>
+        <v>-0.529512999478672</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>39021</v>
       </c>
       <c r="C107">
-        <v>-0.3978870605825788</v>
+        <v>-0.3950016277037931</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>39051</v>
       </c>
       <c r="C108">
-        <v>-0.1855566597466641</v>
+        <v>-0.1883561019064387</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>39082</v>
       </c>
       <c r="C109">
-        <v>-0.4344850731955793</v>
+        <v>-0.4310565096620682</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>39113</v>
       </c>
       <c r="C110">
-        <v>-0.8305252508330758</v>
+        <v>-0.8173850370109941</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>39141</v>
       </c>
       <c r="C111">
-        <v>-0.7184692294630296</v>
+        <v>-0.711219975506448</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>39172</v>
       </c>
       <c r="C112">
-        <v>-0.5029832352806074</v>
+        <v>-0.5041645724545647</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>39202</v>
       </c>
       <c r="C113">
-        <v>-0.7463568522784085</v>
+        <v>-0.745043237736537</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>39233</v>
       </c>
       <c r="C114">
-        <v>-0.2970900925861252</v>
+        <v>-0.2951953976321133</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>39263</v>
       </c>
       <c r="C115">
-        <v>-0.3670099577718915</v>
+        <v>-0.3645978281321091</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1657,7 +1657,7 @@
         <v>39294</v>
       </c>
       <c r="C116">
-        <v>-0.3951680112197306</v>
+        <v>-0.3981703163613837</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1668,7 +1668,7 @@
         <v>39325</v>
       </c>
       <c r="C117">
-        <v>-0.05404301514966399</v>
+        <v>-0.05440556784786048</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>39355</v>
       </c>
       <c r="C118">
-        <v>-0.08098156111005174</v>
+        <v>-0.08589245423333665</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>39386</v>
       </c>
       <c r="C119">
-        <v>-0.6530272122391148</v>
+        <v>-0.6604297128271273</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>39416</v>
       </c>
       <c r="C120">
-        <v>-0.4549539649649861</v>
+        <v>-0.4685651475135227</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>39447</v>
       </c>
       <c r="C121">
-        <v>-0.1673833086912349</v>
+        <v>-0.1733888445467657</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>39478</v>
       </c>
       <c r="C122">
-        <v>-0.3463963385227042</v>
+        <v>-0.3562974338618143</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1734,7 +1734,7 @@
         <v>39507</v>
       </c>
       <c r="C123">
-        <v>0.3940541996797576</v>
+        <v>0.3735057807283813</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1745,7 +1745,7 @@
         <v>39538</v>
       </c>
       <c r="C124">
-        <v>0.1520185318146791</v>
+        <v>0.1388973854822472</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1756,7 +1756,7 @@
         <v>39568</v>
       </c>
       <c r="C125">
-        <v>0.1122088457888308</v>
+        <v>0.09912454713152258</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>39599</v>
       </c>
       <c r="C126">
-        <v>-0.1197135790255844</v>
+        <v>-0.1229854681658162</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>39629</v>
       </c>
       <c r="C127">
-        <v>0.2339167493598503</v>
+        <v>0.2131204804944135</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1789,7 +1789,7 @@
         <v>39660</v>
       </c>
       <c r="C128">
-        <v>0.9810142089895547</v>
+        <v>0.9505957937561215</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>39691</v>
       </c>
       <c r="C129">
-        <v>0.2411612891565051</v>
+        <v>0.2352305094599168</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1811,7 +1811,7 @@
         <v>39721</v>
       </c>
       <c r="C130">
-        <v>-0.5816593238535489</v>
+        <v>-0.592926701991205</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>39752</v>
       </c>
       <c r="C131">
-        <v>-1.091811294459572</v>
+        <v>-1.069641603836666</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>39782</v>
       </c>
       <c r="C132">
-        <v>-1.573888159153135</v>
+        <v>-1.583146456398633</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1844,7 +1844,7 @@
         <v>39813</v>
       </c>
       <c r="C133">
-        <v>-0.6934715359395554</v>
+        <v>-0.732341579325935</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1855,7 +1855,7 @@
         <v>39844</v>
       </c>
       <c r="C134">
-        <v>-0.5086694619321176</v>
+        <v>-0.5328783679497723</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>39872</v>
       </c>
       <c r="C135">
-        <v>-0.6395328892293638</v>
+        <v>-0.6425700838635217</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1877,7 +1877,7 @@
         <v>39903</v>
       </c>
       <c r="C136">
-        <v>-0.04693199705699121</v>
+        <v>-0.04458781038301191</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1888,7 +1888,7 @@
         <v>39933</v>
       </c>
       <c r="C137">
-        <v>0.6691187297007724</v>
+        <v>0.6424882532354057</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>39964</v>
       </c>
       <c r="C138">
-        <v>0.1881140395550674</v>
+        <v>0.1631324654727667</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1910,7 +1910,7 @@
         <v>39994</v>
       </c>
       <c r="C139">
-        <v>-0.6590440211752205</v>
+        <v>-0.6575674474642355</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1921,7 +1921,7 @@
         <v>40025</v>
       </c>
       <c r="C140">
-        <v>-0.8798546498806659</v>
+        <v>-0.8747948770950954</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>40056</v>
       </c>
       <c r="C141">
-        <v>-1.170743068204912</v>
+        <v>-1.176742865635553</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1943,7 +1943,7 @@
         <v>40086</v>
       </c>
       <c r="C142">
-        <v>-0.5058881071298691</v>
+        <v>-0.5166856939165563</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1954,7 +1954,7 @@
         <v>40117</v>
       </c>
       <c r="C143">
-        <v>-0.4335381580405309</v>
+        <v>-0.4560741621639448</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>40147</v>
       </c>
       <c r="C144">
-        <v>-0.7517155239083976</v>
+        <v>-0.7629716383723759</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1976,7 +1976,7 @@
         <v>40178</v>
       </c>
       <c r="C145">
-        <v>-0.6238366396334954</v>
+        <v>-0.6275719658980621</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1987,7 +1987,7 @@
         <v>40209</v>
       </c>
       <c r="C146">
-        <v>-0.2588962401725788</v>
+        <v>-0.2626701072774826</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1998,7 +1998,7 @@
         <v>40237</v>
       </c>
       <c r="C147">
-        <v>-0.1172560251941812</v>
+        <v>-0.1155104109298834</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>40268</v>
       </c>
       <c r="C148">
-        <v>0.405637846065088</v>
+        <v>0.4062242371414794</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>40298</v>
       </c>
       <c r="C149">
-        <v>0.2644603662416953</v>
+        <v>0.2650772811290235</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>40329</v>
       </c>
       <c r="C150">
-        <v>0.3873861644899785</v>
+        <v>0.4041445116479173</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>40359</v>
       </c>
       <c r="C151">
-        <v>-0.05905506886693059</v>
+        <v>-0.04072466065235612</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2053,7 +2053,7 @@
         <v>40390</v>
       </c>
       <c r="C152">
-        <v>0.01108095313143963</v>
+        <v>0.008567045409871903</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2064,7 +2064,7 @@
         <v>40421</v>
       </c>
       <c r="C153">
-        <v>0.3785425005816919</v>
+        <v>0.3537124741653881</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>40451</v>
       </c>
       <c r="C154">
-        <v>0.3864620499492281</v>
+        <v>0.3708639290861395</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2086,7 +2086,7 @@
         <v>40482</v>
       </c>
       <c r="C155">
-        <v>0.715884248298524</v>
+        <v>0.6913119607046833</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2097,7 +2097,7 @@
         <v>40512</v>
       </c>
       <c r="C156">
-        <v>0.4284423224695511</v>
+        <v>0.4185212511233302</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2108,7 +2108,7 @@
         <v>40543</v>
       </c>
       <c r="C157">
-        <v>0.7012388623202668</v>
+        <v>0.7055269511360077</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2119,7 +2119,7 @@
         <v>40574</v>
       </c>
       <c r="C158">
-        <v>0.8221500671054345</v>
+        <v>0.8103498671337032</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2130,7 +2130,7 @@
         <v>40602</v>
       </c>
       <c r="C159">
-        <v>0.4016331026296125</v>
+        <v>0.3955648693795059</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>40633</v>
       </c>
       <c r="C160">
-        <v>0.747159168000225</v>
+        <v>0.7226068230524105</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>40663</v>
       </c>
       <c r="C161">
-        <v>1.55701751973915</v>
+        <v>1.537837592583667</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2163,7 +2163,7 @@
         <v>40694</v>
       </c>
       <c r="C162">
-        <v>0.9613739104264307</v>
+        <v>0.9440358278720046</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2174,7 +2174,7 @@
         <v>40724</v>
       </c>
       <c r="C163">
-        <v>0.2207084872606768</v>
+        <v>0.2070703335216766</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2185,7 +2185,7 @@
         <v>40755</v>
       </c>
       <c r="C164">
-        <v>0.2668213306310876</v>
+        <v>0.2464584039845727</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2196,7 +2196,7 @@
         <v>40786</v>
       </c>
       <c r="C165">
-        <v>-0.07651235114759855</v>
+        <v>-0.09110527151062324</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2207,7 +2207,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <v>-0.574689746905313</v>
+        <v>-0.5755164254662396</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>40847</v>
       </c>
       <c r="C167">
-        <v>-0.3994438347889449</v>
+        <v>-0.3993351673513368</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2229,7 +2229,7 @@
         <v>40877</v>
       </c>
       <c r="C168">
-        <v>0.1145853258268028</v>
+        <v>0.1024730143316274</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>40908</v>
       </c>
       <c r="C169">
-        <v>-0.07303621267260876</v>
+        <v>-0.07488135891634649</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>40939</v>
       </c>
       <c r="C170">
-        <v>0.3299073799368255</v>
+        <v>0.325001278662237</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>40968</v>
       </c>
       <c r="C171">
-        <v>-0.04179186383424272</v>
+        <v>-0.04658202153394992</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2273,7 +2273,7 @@
         <v>40999</v>
       </c>
       <c r="C172">
-        <v>-0.3936842008617852</v>
+        <v>-0.3867612160225984</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2284,7 +2284,7 @@
         <v>41029</v>
       </c>
       <c r="C173">
-        <v>-0.3064597296481398</v>
+        <v>-0.308885108335974</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2295,7 +2295,7 @@
         <v>41060</v>
       </c>
       <c r="C174">
-        <v>-0.7149665890838683</v>
+        <v>-0.7175814032090954</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2306,7 +2306,7 @@
         <v>41090</v>
       </c>
       <c r="C175">
-        <v>-0.6766346313435662</v>
+        <v>-0.6833922772448672</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>41121</v>
       </c>
       <c r="C176">
-        <v>-0.6862835300325254</v>
+        <v>-0.704372081659123</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>41152</v>
       </c>
       <c r="C177">
-        <v>-0.1416175563490586</v>
+        <v>-0.1542760712201853</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2339,7 +2339,7 @@
         <v>41182</v>
       </c>
       <c r="C178">
-        <v>-0.239924103908576</v>
+        <v>-0.2553400534362941</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2350,7 +2350,7 @@
         <v>41213</v>
       </c>
       <c r="C179">
-        <v>-0.002893530014072775</v>
+        <v>-0.02007378093515475</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>41243</v>
       </c>
       <c r="C180">
-        <v>-0.3573729722375387</v>
+        <v>-0.3724537717362916</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2372,7 +2372,7 @@
         <v>41274</v>
       </c>
       <c r="C181">
-        <v>-0.1515893196875611</v>
+        <v>-0.165736104085337</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>41305</v>
       </c>
       <c r="C182">
-        <v>-0.05381219333498957</v>
+        <v>-0.05053604408736991</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>41333</v>
       </c>
       <c r="C183">
-        <v>-0.3983180380743809</v>
+        <v>-0.3986130252142273</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2405,7 +2405,7 @@
         <v>41364</v>
       </c>
       <c r="C184">
-        <v>-0.5412552038892706</v>
+        <v>-0.5426773146775361</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2416,7 +2416,7 @@
         <v>41394</v>
       </c>
       <c r="C185">
-        <v>-0.7436616673390726</v>
+        <v>-0.7356016608217302</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>41425</v>
       </c>
       <c r="C186">
-        <v>-0.8365943537864414</v>
+        <v>-0.8361678214248048</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2438,7 +2438,7 @@
         <v>41455</v>
       </c>
       <c r="C187">
-        <v>-0.6254931161888058</v>
+        <v>-0.6306700934004564</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2449,7 +2449,7 @@
         <v>41486</v>
       </c>
       <c r="C188">
-        <v>-0.6642546616163277</v>
+        <v>-0.6604866119644586</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>41517</v>
       </c>
       <c r="C189">
-        <v>-0.5319897903381431</v>
+        <v>-0.5386633726984751</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>41547</v>
       </c>
       <c r="C190">
-        <v>-0.2680852053865414</v>
+        <v>-0.2815251745448726</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2482,7 +2482,7 @@
         <v>41578</v>
       </c>
       <c r="C191">
-        <v>-0.1582514588641079</v>
+        <v>-0.1640039721420914</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2493,7 +2493,7 @@
         <v>41608</v>
       </c>
       <c r="C192">
-        <v>-0.6380626065283299</v>
+        <v>-0.6435727239325024</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2504,7 +2504,7 @@
         <v>41639</v>
       </c>
       <c r="C193">
-        <v>-0.4564974182459717</v>
+        <v>-0.4587887642845892</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>41670</v>
       </c>
       <c r="C194">
-        <v>-0.6031856479598132</v>
+        <v>-0.5996931329452704</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2526,7 +2526,7 @@
         <v>41698</v>
       </c>
       <c r="C195">
-        <v>-0.2396630099092262</v>
+        <v>-0.2466215780200666</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>41729</v>
       </c>
       <c r="C196">
-        <v>-0.5673679124645721</v>
+        <v>-0.5678281998493764</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>41759</v>
       </c>
       <c r="C197">
-        <v>-0.7977987871115527</v>
+        <v>-0.8115483845318187</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>41790</v>
       </c>
       <c r="C198">
-        <v>-0.7647341943649555</v>
+        <v>-0.773302685778433</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>41820</v>
       </c>
       <c r="C199">
-        <v>-0.6342469704463725</v>
+        <v>-0.6375365152110885</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>41851</v>
       </c>
       <c r="C200">
-        <v>-0.7878961084467136</v>
+        <v>-0.7887059214092828</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>41882</v>
       </c>
       <c r="C201">
-        <v>-0.6193559267938645</v>
+        <v>-0.6208409007944486</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>41912</v>
       </c>
       <c r="C202">
-        <v>-0.7995597579728995</v>
+        <v>-0.7931523061063466</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>41943</v>
       </c>
       <c r="C203">
-        <v>-0.5705344348293871</v>
+        <v>-0.5674982968692656</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>41973</v>
       </c>
       <c r="C204">
-        <v>-0.9654357921364974</v>
+        <v>-0.9486057693181326</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>42004</v>
       </c>
       <c r="C205">
-        <v>-0.3851560494506315</v>
+        <v>-0.3769944470795471</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>42035</v>
       </c>
       <c r="C206">
-        <v>-0.5200818793164181</v>
+        <v>-0.5244733123205525</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>42063</v>
       </c>
       <c r="C207">
-        <v>-0.3127905233863661</v>
+        <v>-0.3066587718694343</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>42094</v>
       </c>
       <c r="C208">
-        <v>-0.3989729953428803</v>
+        <v>-0.393360514391815</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>42124</v>
       </c>
       <c r="C209">
-        <v>-0.2725136636029826</v>
+        <v>-0.2902802571916857</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>42155</v>
       </c>
       <c r="C210">
-        <v>-0.531250083022753</v>
+        <v>-0.524100841598206</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>42185</v>
       </c>
       <c r="C211">
-        <v>-0.8313029988798813</v>
+        <v>-0.8302016873102053</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>42216</v>
       </c>
       <c r="C212">
-        <v>-0.3896686351066157</v>
+        <v>-0.3847664115326361</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>42247</v>
       </c>
       <c r="C213">
-        <v>-0.6664506454174534</v>
+        <v>-0.6582815419080952</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>42277</v>
       </c>
       <c r="C214">
-        <v>-0.4093542183260566</v>
+        <v>-0.4140832449712248</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>42308</v>
       </c>
       <c r="C215">
-        <v>-0.2166782299186233</v>
+        <v>-0.2313944004353883</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>42338</v>
       </c>
       <c r="C216">
-        <v>-0.6342983896230214</v>
+        <v>-0.6302851447779457</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>42369</v>
       </c>
       <c r="C217">
-        <v>-0.5896884446638825</v>
+        <v>-0.585037920816442</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>42400</v>
       </c>
       <c r="C218">
-        <v>-0.7476342184757644</v>
+        <v>-0.7429543689484841</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>42429</v>
       </c>
       <c r="C219">
-        <v>-0.7070424782031072</v>
+        <v>-0.7082387912259468</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2801,7 +2801,7 @@
         <v>42460</v>
       </c>
       <c r="C220">
-        <v>-0.6089410183528549</v>
+        <v>-0.6217879874099121</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2812,7 +2812,7 @@
         <v>42490</v>
       </c>
       <c r="C221">
-        <v>-0.2176443259788539</v>
+        <v>-0.2364498341168559</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2823,7 +2823,7 @@
         <v>42521</v>
       </c>
       <c r="C222">
-        <v>-0.7157979024498411</v>
+        <v>-0.7110864740964631</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2834,7 +2834,7 @@
         <v>42551</v>
       </c>
       <c r="C223">
-        <v>-0.2742452060174683</v>
+        <v>-0.2780606202595213</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2845,7 +2845,7 @@
         <v>42582</v>
       </c>
       <c r="C224">
-        <v>-0.1716465891712907</v>
+        <v>-0.1791041428298671</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>42613</v>
       </c>
       <c r="C225">
-        <v>0.1070819597063561</v>
+        <v>0.09472878991307618</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>42643</v>
       </c>
       <c r="C226">
-        <v>-0.2885205769656237</v>
+        <v>-0.286399030652089</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>42674</v>
       </c>
       <c r="C227">
-        <v>-0.04601912480388642</v>
+        <v>-0.04153282170816167</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>42704</v>
       </c>
       <c r="C228">
-        <v>-0.3007066007766616</v>
+        <v>-0.2875386122459118</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>42735</v>
       </c>
       <c r="C229">
-        <v>-0.2401792913095818</v>
+        <v>-0.2240702248715591</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2911,7 +2911,7 @@
         <v>42766</v>
       </c>
       <c r="C230">
-        <v>0.2038017282937895</v>
+        <v>0.2007565680298957</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2922,7 +2922,7 @@
         <v>42794</v>
       </c>
       <c r="C231">
-        <v>0.2319263320492301</v>
+        <v>0.2212851290568024</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2933,7 +2933,7 @@
         <v>42825</v>
       </c>
       <c r="C232">
-        <v>0.1140102520740447</v>
+        <v>0.1127932638599036</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2944,7 +2944,7 @@
         <v>42855</v>
       </c>
       <c r="C233">
-        <v>0.0517432894183626</v>
+        <v>0.05020871198409478</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>42886</v>
       </c>
       <c r="C234">
-        <v>-0.08335825847497157</v>
+        <v>-0.08154752495481679</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>42916</v>
       </c>
       <c r="C235">
-        <v>0.13963712521116</v>
+        <v>0.143254245588041</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>42947</v>
       </c>
       <c r="C236">
-        <v>0.1530453892037084</v>
+        <v>0.1461134611131931</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>42978</v>
       </c>
       <c r="C237">
-        <v>0.4451695898280745</v>
+        <v>0.4416484193709197</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>43008</v>
       </c>
       <c r="C238">
-        <v>0.5509542196027956</v>
+        <v>0.5476271856828699</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43039</v>
       </c>
       <c r="C239">
-        <v>0.8005183917127418</v>
+        <v>0.8029499528406449</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>43069</v>
       </c>
       <c r="C240">
-        <v>0.8649027732840815</v>
+        <v>0.8601732231281125</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>43100</v>
       </c>
       <c r="C241">
-        <v>0.7159743282120926</v>
+        <v>0.7097710688994293</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>43131</v>
       </c>
       <c r="C242">
-        <v>0.6057583027515037</v>
+        <v>0.6012334188657946</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>43159</v>
       </c>
       <c r="C243">
-        <v>0.1139801486492775</v>
+        <v>0.1169367117819424</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>43190</v>
       </c>
       <c r="C244">
-        <v>0.4771428478740258</v>
+        <v>0.4719000588877482</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>43220</v>
       </c>
       <c r="C245">
-        <v>0.5639258239786197</v>
+        <v>0.5598267464067788</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>43251</v>
       </c>
       <c r="C246">
-        <v>0.3704819709307087</v>
+        <v>0.3716110612362358</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>43281</v>
       </c>
       <c r="C247">
-        <v>0.4142448472539175</v>
+        <v>0.4147831512325639</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43312</v>
       </c>
       <c r="C248">
-        <v>0.4121765454568855</v>
+        <v>0.4282338220802847</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>43343</v>
       </c>
       <c r="C249">
-        <v>0.5357017485271072</v>
+        <v>0.5329152409067506</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>43373</v>
       </c>
       <c r="C250">
-        <v>0.4742713815720053</v>
+        <v>0.4732582492389656</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>43404</v>
       </c>
       <c r="C251">
-        <v>0.5313198034398949</v>
+        <v>0.5340236976159524</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>43434</v>
       </c>
       <c r="C252">
-        <v>0.4395558701506962</v>
+        <v>0.4361802534265906</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C253">
-        <v>0.4532298981284192</v>
+        <v>0.446774107272341</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>43496</v>
       </c>
       <c r="C254">
-        <v>0.5280753351828822</v>
+        <v>0.5204877739397965</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>43524</v>
       </c>
       <c r="C255">
-        <v>0.1238453723883926</v>
+        <v>0.1203776673585769</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>43555</v>
       </c>
       <c r="C256">
-        <v>0.2014243584948091</v>
+        <v>0.2002795529579847</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>43585</v>
       </c>
       <c r="C257">
-        <v>0.02915699709421713</v>
+        <v>0.02112897041698963</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43616</v>
       </c>
       <c r="C258">
-        <v>-0.6520863757033811</v>
+        <v>-0.6493562731218302</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>43646</v>
       </c>
       <c r="C259">
-        <v>-0.4796563986533317</v>
+        <v>-0.4911140906566539</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>43677</v>
       </c>
       <c r="C260">
-        <v>-0.464813795920913</v>
+        <v>-0.4554127709707981</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>43708</v>
       </c>
       <c r="C261">
-        <v>-0.3280525137250141</v>
+        <v>-0.3270519928694576</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>43738</v>
       </c>
       <c r="C262">
-        <v>0.1218479166653591</v>
+        <v>0.1066014324742199</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>43769</v>
       </c>
       <c r="C263">
-        <v>0.04510792283926893</v>
+        <v>0.03449695462293521</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>43799</v>
       </c>
       <c r="C264">
-        <v>0.109478736223431</v>
+        <v>0.09638074365545246</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>43830</v>
       </c>
       <c r="C265">
-        <v>0.009789440164311068</v>
+        <v>0.007382024780516396</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>43861</v>
       </c>
       <c r="C266">
-        <v>0.0487636996763578</v>
+        <v>0.04335937611564739</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>43890</v>
       </c>
       <c r="C267">
-        <v>1.111265165029456</v>
+        <v>1.10328440971466</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>43921</v>
       </c>
       <c r="C268">
-        <v>2.483019962963582</v>
+        <v>2.461569478793334</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>43951</v>
       </c>
       <c r="C269">
-        <v>3.149744061036779</v>
+        <v>3.095223513987736</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3351,7 +3351,7 @@
         <v>43982</v>
       </c>
       <c r="C270">
-        <v>2.582216610318057</v>
+        <v>2.554490996182135</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3362,7 +3362,7 @@
         <v>44012</v>
       </c>
       <c r="C271">
-        <v>2.353321363387857</v>
+        <v>2.297542595478015</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3373,7 +3373,7 @@
         <v>44043</v>
       </c>
       <c r="C272">
-        <v>2.812131346547675</v>
+        <v>2.797542585261972</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3384,7 +3384,7 @@
         <v>44074</v>
       </c>
       <c r="C273">
-        <v>1.34877411201927</v>
+        <v>1.33328144364323</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>44104</v>
       </c>
       <c r="C274">
-        <v>0.6003456763031345</v>
+        <v>0.5991745590931497</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3406,7 +3406,7 @@
         <v>44135</v>
       </c>
       <c r="C275">
-        <v>0.1144813119343265</v>
+        <v>0.1054668847175035</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3417,7 +3417,7 @@
         <v>44165</v>
       </c>
       <c r="C276">
-        <v>0.7032245007819979</v>
+        <v>0.6952363593364326</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>44196</v>
       </c>
       <c r="C277">
-        <v>1.634150827396257</v>
+        <v>1.643805349837805</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3439,7 +3439,7 @@
         <v>44227</v>
       </c>
       <c r="C278">
-        <v>1.404802535888257</v>
+        <v>1.42181529046812</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3450,7 +3450,7 @@
         <v>44255</v>
       </c>
       <c r="C279">
-        <v>1.879984901258474</v>
+        <v>1.896743389024177</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3461,7 +3461,7 @@
         <v>44286</v>
       </c>
       <c r="C280">
-        <v>2.16496580511104</v>
+        <v>2.181051903085149</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>44316</v>
       </c>
       <c r="C281">
-        <v>2.474306129656732</v>
+        <v>2.52226817259032</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>44347</v>
       </c>
       <c r="C282">
-        <v>2.956315754438333</v>
+        <v>2.972932101084186</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3494,7 +3494,7 @@
         <v>44377</v>
       </c>
       <c r="C283">
-        <v>2.680226310478881</v>
+        <v>2.69601875215429</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>44408</v>
       </c>
       <c r="C284">
-        <v>2.936499842568348</v>
+        <v>2.940050036011608</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3516,7 +3516,7 @@
         <v>44439</v>
       </c>
       <c r="C285">
-        <v>3.221886161594695</v>
+        <v>3.233109908940609</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>44469</v>
       </c>
       <c r="C286">
-        <v>3.234082250457355</v>
+        <v>3.238326462026413</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>44500</v>
       </c>
       <c r="C287">
-        <v>3.782431392291223</v>
+        <v>3.786907044361866</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3549,7 +3549,7 @@
         <v>44530</v>
       </c>
       <c r="C288">
-        <v>4.216831376645724</v>
+        <v>4.218530163507914</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3560,7 +3560,7 @@
         <v>44561</v>
       </c>
       <c r="C289">
-        <v>4.307274225657618</v>
+        <v>4.302158149343084</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3571,7 +3571,7 @@
         <v>44592</v>
       </c>
       <c r="C290">
-        <v>3.629922009117848</v>
+        <v>3.64286503244586</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3582,7 +3582,7 @@
         <v>44620</v>
       </c>
       <c r="C291">
-        <v>2.76023107847074</v>
+        <v>2.755232215922528</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3593,7 +3593,7 @@
         <v>44651</v>
       </c>
       <c r="C292">
-        <v>2.777934159087218</v>
+        <v>2.781001043605035</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>44681</v>
       </c>
       <c r="C293">
-        <v>3.407630211910321</v>
+        <v>3.416805693208293</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3615,7 +3615,7 @@
         <v>44712</v>
       </c>
       <c r="C294">
-        <v>2.611884736480381</v>
+        <v>2.619388529361149</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3626,7 +3626,7 @@
         <v>44742</v>
       </c>
       <c r="C295">
-        <v>2.31770045020668</v>
+        <v>2.316740396940611</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>44773</v>
       </c>
       <c r="C296">
-        <v>1.7514912574629</v>
+        <v>1.745382443425751</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3648,7 +3648,18 @@
         <v>44804</v>
       </c>
       <c r="C297">
-        <v>1.465240703134306</v>
+        <v>1.508923760918729</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>44834</v>
+      </c>
+      <c r="C298">
+        <v>1.047849608008719</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/gscpi_data.xlsx
+++ b/mercados/gscpi_data.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
         <v>35826</v>
       </c>
       <c r="C2">
-        <v>-0.9344279323203987</v>
+        <v>-0.9213717687627395</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -414,7 +414,7 @@
         <v>35854</v>
       </c>
       <c r="C3">
-        <v>-0.4560707618838566</v>
+        <v>-0.4596956451348003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,7 +425,7 @@
         <v>35885</v>
       </c>
       <c r="C4">
-        <v>-0.1030458995044019</v>
+        <v>-0.1131707158782029</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,7 +436,7 @@
         <v>35915</v>
       </c>
       <c r="C5">
-        <v>-0.1370834230151193</v>
+        <v>-0.1484218881339096</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>35946</v>
       </c>
       <c r="C6">
-        <v>-0.5013573197104652</v>
+        <v>-0.5036103197043866</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>35976</v>
       </c>
       <c r="C7">
-        <v>-0.8037141015552012</v>
+        <v>-0.7970687781064281</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -469,7 +469,7 @@
         <v>36007</v>
       </c>
       <c r="C8">
-        <v>-0.9345403177525531</v>
+        <v>-0.940189341444339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,7 +480,7 @@
         <v>36038</v>
       </c>
       <c r="C9">
-        <v>-0.9515896200456037</v>
+        <v>-0.9512023892152982</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -491,7 +491,7 @@
         <v>36068</v>
       </c>
       <c r="C10">
-        <v>-0.9452767654052571</v>
+        <v>-0.9641080528854897</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>36099</v>
       </c>
       <c r="C11">
-        <v>-0.7894590457753262</v>
+        <v>-0.8180181568713073</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -513,7 +513,7 @@
         <v>36129</v>
       </c>
       <c r="C12">
-        <v>-0.8658405560450514</v>
+        <v>-0.8885209103875558</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -524,7 +524,7 @@
         <v>36160</v>
       </c>
       <c r="C13">
-        <v>-0.6213426171929076</v>
+        <v>-0.6653199888526543</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -535,7 +535,7 @@
         <v>36191</v>
       </c>
       <c r="C14">
-        <v>-0.3065270714599176</v>
+        <v>-0.3314089553052362</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -546,7 +546,7 @@
         <v>36219</v>
       </c>
       <c r="C15">
-        <v>-0.08847329831014529</v>
+        <v>-0.09763742653290816</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -557,7 +557,7 @@
         <v>36250</v>
       </c>
       <c r="C16">
-        <v>-0.351652701421884</v>
+        <v>-0.3454068997002097</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -568,7 +568,7 @@
         <v>36280</v>
       </c>
       <c r="C17">
-        <v>-0.3458603771410294</v>
+        <v>-0.3581185892818958</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>36311</v>
       </c>
       <c r="C18">
-        <v>-0.3761772178971506</v>
+        <v>-0.3874510263925235</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -590,7 +590,7 @@
         <v>36341</v>
       </c>
       <c r="C19">
-        <v>-0.4172309385508494</v>
+        <v>-0.4238237788424287</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -601,7 +601,7 @@
         <v>36372</v>
       </c>
       <c r="C20">
-        <v>-0.607722639489619</v>
+        <v>-0.6097945704778387</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -612,7 +612,7 @@
         <v>36403</v>
       </c>
       <c r="C21">
-        <v>-0.4818797628259639</v>
+        <v>-0.4869443813135514</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -623,7 +623,7 @@
         <v>36433</v>
       </c>
       <c r="C22">
-        <v>-0.3229554685365647</v>
+        <v>-0.3275271158633454</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -634,7 +634,7 @@
         <v>36464</v>
       </c>
       <c r="C23">
-        <v>-0.1094151003219193</v>
+        <v>-0.1093404141488429</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -645,7 +645,7 @@
         <v>36494</v>
       </c>
       <c r="C24">
-        <v>-0.08343928069849062</v>
+        <v>-0.09114156685846081</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -656,7 +656,7 @@
         <v>36525</v>
       </c>
       <c r="C25">
-        <v>-0.02842628751010649</v>
+        <v>-0.03966475682966245</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -667,7 +667,7 @@
         <v>36556</v>
       </c>
       <c r="C26">
-        <v>-0.4744825654933889</v>
+        <v>-0.4759529664722458</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -678,7 +678,7 @@
         <v>36585</v>
       </c>
       <c r="C27">
-        <v>-0.3269476797260231</v>
+        <v>-0.3147309955592109</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -689,7 +689,7 @@
         <v>36616</v>
       </c>
       <c r="C28">
-        <v>-0.2561329477749302</v>
+        <v>-0.2512969928207531</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -700,7 +700,7 @@
         <v>36646</v>
       </c>
       <c r="C29">
-        <v>0.08893509237406234</v>
+        <v>0.0957042572045205</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -711,7 +711,7 @@
         <v>36677</v>
       </c>
       <c r="C30">
-        <v>0.182421474780657</v>
+        <v>0.1853261909116201</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -722,7 +722,7 @@
         <v>36707</v>
       </c>
       <c r="C31">
-        <v>-0.09393339939721272</v>
+        <v>-0.09043113064740162</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -733,7 +733,7 @@
         <v>36738</v>
       </c>
       <c r="C32">
-        <v>-0.1127027015645619</v>
+        <v>-0.1065913752449231</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -744,7 +744,7 @@
         <v>36769</v>
       </c>
       <c r="C33">
-        <v>-0.08131610873884697</v>
+        <v>-0.07885634590808473</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -755,7 +755,7 @@
         <v>36799</v>
       </c>
       <c r="C34">
-        <v>-0.2006801219029906</v>
+        <v>-0.201210702879164</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -766,7 +766,7 @@
         <v>36830</v>
       </c>
       <c r="C35">
-        <v>-0.6602197279726983</v>
+        <v>-0.6517594681774672</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -777,7 +777,7 @@
         <v>36860</v>
       </c>
       <c r="C36">
-        <v>-0.9248895511375638</v>
+        <v>-0.9088800145364518</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -788,7 +788,7 @@
         <v>36891</v>
       </c>
       <c r="C37">
-        <v>-1.118580550556934</v>
+        <v>-1.097238712340159</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -799,7 +799,7 @@
         <v>36922</v>
       </c>
       <c r="C38">
-        <v>-1.14450497731445</v>
+        <v>-1.124066586661989</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -810,7 +810,7 @@
         <v>36950</v>
       </c>
       <c r="C39">
-        <v>-0.9587820145943261</v>
+        <v>-0.9524737741176141</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -821,7 +821,7 @@
         <v>36981</v>
       </c>
       <c r="C40">
-        <v>-0.9656059099708652</v>
+        <v>-0.9494283426644615</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -832,7 +832,7 @@
         <v>37011</v>
       </c>
       <c r="C41">
-        <v>-1.187058891631383</v>
+        <v>-1.186902639225804</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -843,7 +843,7 @@
         <v>37042</v>
       </c>
       <c r="C42">
-        <v>-1.280774715326669</v>
+        <v>-1.282525008624491</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -854,7 +854,7 @@
         <v>37072</v>
       </c>
       <c r="C43">
-        <v>-0.8406624910756086</v>
+        <v>-0.842795778450444</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -865,7 +865,7 @@
         <v>37103</v>
       </c>
       <c r="C44">
-        <v>-0.8688728802013274</v>
+        <v>-0.8583153525806644</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -876,7 +876,7 @@
         <v>37134</v>
       </c>
       <c r="C45">
-        <v>-0.7513497238479563</v>
+        <v>-0.7479371740055055</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -887,7 +887,7 @@
         <v>37164</v>
       </c>
       <c r="C46">
-        <v>-0.6683998302262674</v>
+        <v>-0.6764976965873651</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -898,7 +898,7 @@
         <v>37195</v>
       </c>
       <c r="C47">
-        <v>-1.148089559960096</v>
+        <v>-1.148335707266397</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -909,7 +909,7 @@
         <v>37225</v>
       </c>
       <c r="C48">
-        <v>-1.244813051870896</v>
+        <v>-1.233134036478878</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -920,7 +920,7 @@
         <v>37256</v>
       </c>
       <c r="C49">
-        <v>-1.038641438229382</v>
+        <v>-1.031909515542452</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -931,7 +931,7 @@
         <v>37287</v>
       </c>
       <c r="C50">
-        <v>-0.8844574783952891</v>
+        <v>-0.8705181321466519</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -942,7 +942,7 @@
         <v>37315</v>
       </c>
       <c r="C51">
-        <v>-0.4129352783198858</v>
+        <v>-0.4023556453941905</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -953,7 +953,7 @@
         <v>37346</v>
       </c>
       <c r="C52">
-        <v>-0.4276564569056645</v>
+        <v>-0.4250491734568824</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -964,7 +964,7 @@
         <v>37376</v>
       </c>
       <c r="C53">
-        <v>-0.4731229983346583</v>
+        <v>-0.476617542263979</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -975,7 +975,7 @@
         <v>37407</v>
       </c>
       <c r="C54">
-        <v>-0.2598536524149812</v>
+        <v>-0.2669707775582806</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -986,7 +986,7 @@
         <v>37437</v>
       </c>
       <c r="C55">
-        <v>-0.479029210944485</v>
+        <v>-0.4933250943086983</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -997,7 +997,7 @@
         <v>37468</v>
       </c>
       <c r="C56">
-        <v>-0.872429924240239</v>
+        <v>-0.8739034305179855</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>37499</v>
       </c>
       <c r="C57">
-        <v>-0.9628872266700265</v>
+        <v>-0.9593162353801257</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>37529</v>
       </c>
       <c r="C58">
-        <v>-0.9467749415632518</v>
+        <v>-0.9458143371240155</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>37560</v>
       </c>
       <c r="C59">
-        <v>-1.124890330352179</v>
+        <v>-1.115468362820329</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>37590</v>
       </c>
       <c r="C60">
-        <v>-0.7874946878149963</v>
+        <v>-0.793041957554918</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1052,7 +1052,7 @@
         <v>37621</v>
       </c>
       <c r="C61">
-        <v>-0.5749558685989539</v>
+        <v>-0.590519161053419</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1063,7 +1063,7 @@
         <v>37652</v>
       </c>
       <c r="C62">
-        <v>-0.5034484726463555</v>
+        <v>-0.5070391849542738</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>37680</v>
       </c>
       <c r="C63">
-        <v>-0.3927102989622431</v>
+        <v>-0.3952859289173751</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1085,7 +1085,7 @@
         <v>37711</v>
       </c>
       <c r="C64">
-        <v>-0.2653479042887643</v>
+        <v>-0.2747882700230833</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1096,7 +1096,7 @@
         <v>37741</v>
       </c>
       <c r="C65">
-        <v>-0.5118677793202632</v>
+        <v>-0.5242005332147761</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1107,7 +1107,7 @@
         <v>37772</v>
       </c>
       <c r="C66">
-        <v>-0.2418361445428878</v>
+        <v>-0.2492021869590172</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1118,7 +1118,7 @@
         <v>37802</v>
       </c>
       <c r="C67">
-        <v>-0.2273805890103205</v>
+        <v>-0.2315076330632976</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1129,7 +1129,7 @@
         <v>37833</v>
       </c>
       <c r="C68">
-        <v>-0.1290735376336897</v>
+        <v>-0.1431066741306328</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1140,7 +1140,7 @@
         <v>37864</v>
       </c>
       <c r="C69">
-        <v>-0.1689401686047729</v>
+        <v>-0.1815822309337375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>37894</v>
       </c>
       <c r="C70">
-        <v>-0.07339442808745524</v>
+        <v>-0.09021554589429862</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>37925</v>
       </c>
       <c r="C71">
-        <v>-0.3050282515921608</v>
+        <v>-0.3429665875833305</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>37955</v>
       </c>
       <c r="C72">
-        <v>-0.3088049999740222</v>
+        <v>-0.330072674844947</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>37986</v>
       </c>
       <c r="C73">
-        <v>-0.2614948255107505</v>
+        <v>-0.2736836844551866</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1195,7 +1195,7 @@
         <v>38017</v>
       </c>
       <c r="C74">
-        <v>-0.3650304279055455</v>
+        <v>-0.3785221731060872</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>38046</v>
       </c>
       <c r="C75">
-        <v>-0.2596950993417203</v>
+        <v>-0.2697362407796545</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1217,7 +1217,7 @@
         <v>38077</v>
       </c>
       <c r="C76">
-        <v>0.08136079665053762</v>
+        <v>0.08221218511749522</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>38107</v>
       </c>
       <c r="C77">
-        <v>0.4773547651947025</v>
+        <v>0.4754378778539542</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>38138</v>
       </c>
       <c r="C78">
-        <v>0.4959543250080186</v>
+        <v>0.4931734772353413</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>38168</v>
       </c>
       <c r="C79">
-        <v>0.4340761128397148</v>
+        <v>0.4214007122606069</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1261,7 +1261,7 @@
         <v>38199</v>
       </c>
       <c r="C80">
-        <v>-0.3380222881497634</v>
+        <v>-0.367261362845292</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>38230</v>
       </c>
       <c r="C81">
-        <v>0.200183524727875</v>
+        <v>0.1839838020355518</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>38260</v>
       </c>
       <c r="C82">
-        <v>-0.0532975226019192</v>
+        <v>-0.06466665533972003</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>38291</v>
       </c>
       <c r="C83">
-        <v>-0.5928112355564346</v>
+        <v>-0.6083243573921016</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>38321</v>
       </c>
       <c r="C84">
-        <v>-0.03451378322076278</v>
+        <v>-0.05526586108242568</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>38352</v>
       </c>
       <c r="C85">
-        <v>0.1549538807302692</v>
+        <v>0.123555489163299</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1327,7 +1327,7 @@
         <v>38383</v>
       </c>
       <c r="C86">
-        <v>-0.1498242540780281</v>
+        <v>-0.1647962282416718</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1338,7 +1338,7 @@
         <v>38411</v>
       </c>
       <c r="C87">
-        <v>-0.2535575534195871</v>
+        <v>-0.2754770414753925</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>38442</v>
       </c>
       <c r="C88">
-        <v>-0.3354075814779937</v>
+        <v>-0.3557465664892264</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>38472</v>
       </c>
       <c r="C89">
-        <v>-1.379959628914956</v>
+        <v>-1.404391691593766</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>38503</v>
       </c>
       <c r="C90">
-        <v>-1.115180310344019</v>
+        <v>-1.122433677112166</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>38533</v>
       </c>
       <c r="C91">
-        <v>-0.9633765033601929</v>
+        <v>-0.9544282226891797</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>38564</v>
       </c>
       <c r="C92">
-        <v>-1.003781249294204</v>
+        <v>-0.9801158279669743</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>38595</v>
       </c>
       <c r="C93">
-        <v>-0.7500136413542966</v>
+        <v>-0.733699165254567</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>38625</v>
       </c>
       <c r="C94">
-        <v>-0.02581309723406693</v>
+        <v>-0.02544544438686595</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>38656</v>
       </c>
       <c r="C95">
-        <v>-0.06564441710102362</v>
+        <v>-0.04986269055534529</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>38686</v>
       </c>
       <c r="C96">
-        <v>-0.6643164239807826</v>
+        <v>-0.6248802813245944</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>38717</v>
       </c>
       <c r="C97">
-        <v>-0.6927085283772839</v>
+        <v>-0.6609601057023803</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>38748</v>
       </c>
       <c r="C98">
-        <v>-0.4001491768631785</v>
+        <v>-0.3776158297871331</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>38776</v>
       </c>
       <c r="C99">
-        <v>-0.6454302793047214</v>
+        <v>-0.6383369024905621</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>38807</v>
       </c>
       <c r="C100">
-        <v>-0.4322551142770186</v>
+        <v>-0.4146326114835607</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1492,7 +1492,7 @@
         <v>38837</v>
       </c>
       <c r="C101">
-        <v>0.04463981531325844</v>
+        <v>0.05307994889951602</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>38868</v>
       </c>
       <c r="C102">
-        <v>0.09478784509385638</v>
+        <v>0.07380145465259742</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>38898</v>
       </c>
       <c r="C103">
-        <v>0.08527253223424068</v>
+        <v>0.106740596096937</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>38929</v>
       </c>
       <c r="C104">
-        <v>-0.1325201205088979</v>
+        <v>-0.1286515354596111</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>38960</v>
       </c>
       <c r="C105">
-        <v>0.08385043821140618</v>
+        <v>0.09094251365584245</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>38990</v>
       </c>
       <c r="C106">
-        <v>-0.529512999478672</v>
+        <v>-0.5303526392270586</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>39021</v>
       </c>
       <c r="C107">
-        <v>-0.3950016277037931</v>
+        <v>-0.3894193663162377</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>39051</v>
       </c>
       <c r="C108">
-        <v>-0.1883561019064387</v>
+        <v>-0.1899089181311175</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>39082</v>
       </c>
       <c r="C109">
-        <v>-0.4310565096620682</v>
+        <v>-0.4268395798788525</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>39113</v>
       </c>
       <c r="C110">
-        <v>-0.8173850370109941</v>
+        <v>-0.7965042598469686</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>39141</v>
       </c>
       <c r="C111">
-        <v>-0.711219975506448</v>
+        <v>-0.6996703739936609</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>39172</v>
       </c>
       <c r="C112">
-        <v>-0.5041645724545647</v>
+        <v>-0.5007937965736099</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>39202</v>
       </c>
       <c r="C113">
-        <v>-0.745043237736537</v>
+        <v>-0.7454938095282554</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>39233</v>
       </c>
       <c r="C114">
-        <v>-0.2951953976321133</v>
+        <v>-0.2914088589693897</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>39263</v>
       </c>
       <c r="C115">
-        <v>-0.3645978281321091</v>
+        <v>-0.3603373256427824</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1657,7 +1657,7 @@
         <v>39294</v>
       </c>
       <c r="C116">
-        <v>-0.3981703163613837</v>
+        <v>-0.3995424069199011</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1668,7 +1668,7 @@
         <v>39325</v>
       </c>
       <c r="C117">
-        <v>-0.05440556784786048</v>
+        <v>-0.06161712548725452</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>39355</v>
       </c>
       <c r="C118">
-        <v>-0.08589245423333665</v>
+        <v>-0.09527568836641336</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>39386</v>
       </c>
       <c r="C119">
-        <v>-0.6604297128271273</v>
+        <v>-0.6738472383898836</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>39416</v>
       </c>
       <c r="C120">
-        <v>-0.4685651475135227</v>
+        <v>-0.4887619846507728</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>39447</v>
       </c>
       <c r="C121">
-        <v>-0.1733888445467657</v>
+        <v>-0.1798634065669004</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>39478</v>
       </c>
       <c r="C122">
-        <v>-0.3562974338618143</v>
+        <v>-0.376171278190763</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1734,7 +1734,7 @@
         <v>39507</v>
       </c>
       <c r="C123">
-        <v>0.3735057807283813</v>
+        <v>0.3538580560909754</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1745,7 +1745,7 @@
         <v>39538</v>
       </c>
       <c r="C124">
-        <v>0.1388973854822472</v>
+        <v>0.1204812151213512</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1756,7 +1756,7 @@
         <v>39568</v>
       </c>
       <c r="C125">
-        <v>0.09912454713152258</v>
+        <v>0.08768345289512147</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>39599</v>
       </c>
       <c r="C126">
-        <v>-0.1229854681658162</v>
+        <v>-0.1236838482866658</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>39629</v>
       </c>
       <c r="C127">
-        <v>0.2131204804944135</v>
+        <v>0.1903810338509238</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1789,7 +1789,7 @@
         <v>39660</v>
       </c>
       <c r="C128">
-        <v>0.9505957937561215</v>
+        <v>0.9050112124084861</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>39691</v>
       </c>
       <c r="C129">
-        <v>0.2352305094599168</v>
+        <v>0.2234114064716218</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1811,7 +1811,7 @@
         <v>39721</v>
       </c>
       <c r="C130">
-        <v>-0.592926701991205</v>
+        <v>-0.5932983348271931</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>39752</v>
       </c>
       <c r="C131">
-        <v>-1.069641603836666</v>
+        <v>-1.025383673884245</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>39782</v>
       </c>
       <c r="C132">
-        <v>-1.583146456398633</v>
+        <v>-1.598856646350406</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1844,7 +1844,7 @@
         <v>39813</v>
       </c>
       <c r="C133">
-        <v>-0.732341579325935</v>
+        <v>-0.7912463679003439</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1855,7 +1855,7 @@
         <v>39844</v>
       </c>
       <c r="C134">
-        <v>-0.5328783679497723</v>
+        <v>-0.5619724131397302</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>39872</v>
       </c>
       <c r="C135">
-        <v>-0.6425700838635217</v>
+        <v>-0.6225252225383835</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1877,7 +1877,7 @@
         <v>39903</v>
       </c>
       <c r="C136">
-        <v>-0.04458781038301191</v>
+        <v>-0.04173522769565233</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1888,7 +1888,7 @@
         <v>39933</v>
       </c>
       <c r="C137">
-        <v>0.6424882532354057</v>
+        <v>0.5941721365154459</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>39964</v>
       </c>
       <c r="C138">
-        <v>0.1631324654727667</v>
+        <v>0.1307225769561183</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1910,7 +1910,7 @@
         <v>39994</v>
       </c>
       <c r="C139">
-        <v>-0.6575674474642355</v>
+        <v>-0.6554492851097978</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1921,7 +1921,7 @@
         <v>40025</v>
       </c>
       <c r="C140">
-        <v>-0.8747948770950954</v>
+        <v>-0.8733172271609769</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>40056</v>
       </c>
       <c r="C141">
-        <v>-1.176742865635553</v>
+        <v>-1.187998907881263</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1943,7 +1943,7 @@
         <v>40086</v>
       </c>
       <c r="C142">
-        <v>-0.5166856939165563</v>
+        <v>-0.5391992427522005</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1954,7 +1954,7 @@
         <v>40117</v>
       </c>
       <c r="C143">
-        <v>-0.4560741621639448</v>
+        <v>-0.4878169356337929</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>40147</v>
       </c>
       <c r="C144">
-        <v>-0.7629716383723759</v>
+        <v>-0.7820995738372711</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1976,7 +1976,7 @@
         <v>40178</v>
       </c>
       <c r="C145">
-        <v>-0.6275719658980621</v>
+        <v>-0.6336679878582391</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1987,7 +1987,7 @@
         <v>40209</v>
       </c>
       <c r="C146">
-        <v>-0.2626701072774826</v>
+        <v>-0.2690676751243046</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1998,7 +1998,7 @@
         <v>40237</v>
       </c>
       <c r="C147">
-        <v>-0.1155104109298834</v>
+        <v>-0.1067629848904884</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>40268</v>
       </c>
       <c r="C148">
-        <v>0.4062242371414794</v>
+        <v>0.4017840236316411</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>40298</v>
       </c>
       <c r="C149">
-        <v>0.2650772811290235</v>
+        <v>0.2762159625261594</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>40329</v>
       </c>
       <c r="C150">
-        <v>0.4041445116479173</v>
+        <v>0.4316672582847113</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>40359</v>
       </c>
       <c r="C151">
-        <v>-0.04072466065235612</v>
+        <v>-0.01418160826663562</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2053,7 +2053,7 @@
         <v>40390</v>
       </c>
       <c r="C152">
-        <v>0.008567045409871903</v>
+        <v>0.01263107485522165</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2064,7 +2064,7 @@
         <v>40421</v>
       </c>
       <c r="C153">
-        <v>0.3537124741653881</v>
+        <v>0.327986682985738</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>40451</v>
       </c>
       <c r="C154">
-        <v>0.3708639290861395</v>
+        <v>0.3473671197556881</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2086,7 +2086,7 @@
         <v>40482</v>
       </c>
       <c r="C155">
-        <v>0.6913119607046833</v>
+        <v>0.6590864941372716</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2097,7 +2097,7 @@
         <v>40512</v>
       </c>
       <c r="C156">
-        <v>0.4185212511233302</v>
+        <v>0.4178131208533403</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2108,7 +2108,7 @@
         <v>40543</v>
       </c>
       <c r="C157">
-        <v>0.7055269511360077</v>
+        <v>0.710864692714066</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2119,7 +2119,7 @@
         <v>40574</v>
       </c>
       <c r="C158">
-        <v>0.8103498671337032</v>
+        <v>0.7992276615896335</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2130,7 +2130,7 @@
         <v>40602</v>
       </c>
       <c r="C159">
-        <v>0.3955648693795059</v>
+        <v>0.3849983569556855</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>40633</v>
       </c>
       <c r="C160">
-        <v>0.7226068230524105</v>
+        <v>0.7116768403289191</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>40663</v>
       </c>
       <c r="C161">
-        <v>1.537837592583667</v>
+        <v>1.511552910274866</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2163,7 +2163,7 @@
         <v>40694</v>
       </c>
       <c r="C162">
-        <v>0.9440358278720046</v>
+        <v>0.9179870896470156</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2174,7 +2174,7 @@
         <v>40724</v>
       </c>
       <c r="C163">
-        <v>0.2070703335216766</v>
+        <v>0.1879600583276718</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2185,7 +2185,7 @@
         <v>40755</v>
       </c>
       <c r="C164">
-        <v>0.2464584039845727</v>
+        <v>0.2152397987392661</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2196,7 +2196,7 @@
         <v>40786</v>
       </c>
       <c r="C165">
-        <v>-0.09110527151062324</v>
+        <v>-0.1061321638316179</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2207,7 +2207,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <v>-0.5755164254662396</v>
+        <v>-0.5665464108936044</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>40847</v>
       </c>
       <c r="C167">
-        <v>-0.3993351673513368</v>
+        <v>-0.4030515810482284</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2229,7 +2229,7 @@
         <v>40877</v>
       </c>
       <c r="C168">
-        <v>0.1024730143316274</v>
+        <v>0.08757919069070733</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>40908</v>
       </c>
       <c r="C169">
-        <v>-0.07488135891634649</v>
+        <v>-0.07665360993525233</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>40939</v>
       </c>
       <c r="C170">
-        <v>0.325001278662237</v>
+        <v>0.3172418999605691</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>40968</v>
       </c>
       <c r="C171">
-        <v>-0.04658202153394992</v>
+        <v>-0.05393148573754683</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2273,7 +2273,7 @@
         <v>40999</v>
       </c>
       <c r="C172">
-        <v>-0.3867612160225984</v>
+        <v>-0.3779260905898825</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2284,7 +2284,7 @@
         <v>41029</v>
       </c>
       <c r="C173">
-        <v>-0.308885108335974</v>
+        <v>-0.3155443461843619</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2295,7 +2295,7 @@
         <v>41060</v>
       </c>
       <c r="C174">
-        <v>-0.7175814032090954</v>
+        <v>-0.7199388677252053</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2306,7 +2306,7 @@
         <v>41090</v>
       </c>
       <c r="C175">
-        <v>-0.6833922772448672</v>
+        <v>-0.6866552159047289</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>41121</v>
       </c>
       <c r="C176">
-        <v>-0.704372081659123</v>
+        <v>-0.7282573903693568</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>41152</v>
       </c>
       <c r="C177">
-        <v>-0.1542760712201853</v>
+        <v>-0.1687673174387667</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2339,7 +2339,7 @@
         <v>41182</v>
       </c>
       <c r="C178">
-        <v>-0.2553400534362941</v>
+        <v>-0.2780370181103558</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2350,7 +2350,7 @@
         <v>41213</v>
       </c>
       <c r="C179">
-        <v>-0.02007378093515475</v>
+        <v>-0.044338476035116</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>41243</v>
       </c>
       <c r="C180">
-        <v>-0.3724537717362916</v>
+        <v>-0.3922862825350601</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2372,7 +2372,7 @@
         <v>41274</v>
       </c>
       <c r="C181">
-        <v>-0.165736104085337</v>
+        <v>-0.1753340815679867</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>41305</v>
       </c>
       <c r="C182">
-        <v>-0.05053604408736991</v>
+        <v>-0.05446735957438303</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>41333</v>
       </c>
       <c r="C183">
-        <v>-0.3986130252142273</v>
+        <v>-0.3871424314631878</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2405,7 +2405,7 @@
         <v>41364</v>
       </c>
       <c r="C184">
-        <v>-0.5426773146775361</v>
+        <v>-0.5412433433100493</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2416,7 +2416,7 @@
         <v>41394</v>
       </c>
       <c r="C185">
-        <v>-0.7356016608217302</v>
+        <v>-0.7289435334861356</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>41425</v>
       </c>
       <c r="C186">
-        <v>-0.8361678214248048</v>
+        <v>-0.8317028166631928</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2438,7 +2438,7 @@
         <v>41455</v>
       </c>
       <c r="C187">
-        <v>-0.6306700934004564</v>
+        <v>-0.6308405713882228</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2449,7 +2449,7 @@
         <v>41486</v>
       </c>
       <c r="C188">
-        <v>-0.6604866119644586</v>
+        <v>-0.6615268218371063</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>41517</v>
       </c>
       <c r="C189">
-        <v>-0.5386633726984751</v>
+        <v>-0.5481485579236259</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>41547</v>
       </c>
       <c r="C190">
-        <v>-0.2815251745448726</v>
+        <v>-0.3018092657979788</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2482,7 +2482,7 @@
         <v>41578</v>
       </c>
       <c r="C191">
-        <v>-0.1640039721420914</v>
+        <v>-0.175622040763591</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2493,7 +2493,7 @@
         <v>41608</v>
       </c>
       <c r="C192">
-        <v>-0.6435727239325024</v>
+        <v>-0.6468499557897465</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2504,7 +2504,7 @@
         <v>41639</v>
       </c>
       <c r="C193">
-        <v>-0.4587887642845892</v>
+        <v>-0.4609392726831054</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>41670</v>
       </c>
       <c r="C194">
-        <v>-0.5996931329452704</v>
+        <v>-0.5913031424694828</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2526,7 +2526,7 @@
         <v>41698</v>
       </c>
       <c r="C195">
-        <v>-0.2466215780200666</v>
+        <v>-0.2503619169021771</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>41729</v>
       </c>
       <c r="C196">
-        <v>-0.5678281998493764</v>
+        <v>-0.5748599871252683</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>41759</v>
       </c>
       <c r="C197">
-        <v>-0.8115483845318187</v>
+        <v>-0.821044972795</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>41790</v>
       </c>
       <c r="C198">
-        <v>-0.773302685778433</v>
+        <v>-0.7951956179920302</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>41820</v>
       </c>
       <c r="C199">
-        <v>-0.6375365152110885</v>
+        <v>-0.6446570549135269</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>41851</v>
       </c>
       <c r="C200">
-        <v>-0.7887059214092828</v>
+        <v>-0.7909682096580808</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>41882</v>
       </c>
       <c r="C201">
-        <v>-0.6208409007944486</v>
+        <v>-0.6237165938775465</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>41912</v>
       </c>
       <c r="C202">
-        <v>-0.7931523061063466</v>
+        <v>-0.7824832428984103</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>41943</v>
       </c>
       <c r="C203">
-        <v>-0.5674982968692656</v>
+        <v>-0.5571331419683512</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>41973</v>
       </c>
       <c r="C204">
-        <v>-0.9486057693181326</v>
+        <v>-0.913777232410993</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>42004</v>
       </c>
       <c r="C205">
-        <v>-0.3769944470795471</v>
+        <v>-0.3674262301586177</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>42035</v>
       </c>
       <c r="C206">
-        <v>-0.5244733123205525</v>
+        <v>-0.5269967991100188</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>42063</v>
       </c>
       <c r="C207">
-        <v>-0.3066587718694343</v>
+        <v>-0.2939446219718604</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>42094</v>
       </c>
       <c r="C208">
-        <v>-0.393360514391815</v>
+        <v>-0.3820935575815637</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>42124</v>
       </c>
       <c r="C209">
-        <v>-0.2902802571916857</v>
+        <v>-0.3138516881537506</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>42155</v>
       </c>
       <c r="C210">
-        <v>-0.524100841598206</v>
+        <v>-0.5156692516094383</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>42185</v>
       </c>
       <c r="C211">
-        <v>-0.8302016873102053</v>
+        <v>-0.8184840922008321</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>42216</v>
       </c>
       <c r="C212">
-        <v>-0.3847664115326361</v>
+        <v>-0.3793713839961889</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>42247</v>
       </c>
       <c r="C213">
-        <v>-0.6582815419080952</v>
+        <v>-0.6477169253200259</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>42277</v>
       </c>
       <c r="C214">
-        <v>-0.4140832449712248</v>
+        <v>-0.417118552045818</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>42308</v>
       </c>
       <c r="C215">
-        <v>-0.2313944004353883</v>
+        <v>-0.2545144398294311</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>42338</v>
       </c>
       <c r="C216">
-        <v>-0.6302851447779457</v>
+        <v>-0.6247622405577671</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>42369</v>
       </c>
       <c r="C217">
-        <v>-0.585037920816442</v>
+        <v>-0.5800326260961506</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>42400</v>
       </c>
       <c r="C218">
-        <v>-0.7429543689484841</v>
+        <v>-0.7313754533923019</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>42429</v>
       </c>
       <c r="C219">
-        <v>-0.7082387912259468</v>
+        <v>-0.7121299191981721</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2801,7 +2801,7 @@
         <v>42460</v>
       </c>
       <c r="C220">
-        <v>-0.6217879874099121</v>
+        <v>-0.6388031613322127</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2812,7 +2812,7 @@
         <v>42490</v>
       </c>
       <c r="C221">
-        <v>-0.2364498341168559</v>
+        <v>-0.2609754599752225</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2823,7 +2823,7 @@
         <v>42521</v>
       </c>
       <c r="C222">
-        <v>-0.7110864740964631</v>
+        <v>-0.6983039272468068</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2834,7 +2834,7 @@
         <v>42551</v>
       </c>
       <c r="C223">
-        <v>-0.2780606202595213</v>
+        <v>-0.2824446361052455</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2845,7 +2845,7 @@
         <v>42582</v>
       </c>
       <c r="C224">
-        <v>-0.1791041428298671</v>
+        <v>-0.187843585563764</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>42613</v>
       </c>
       <c r="C225">
-        <v>0.09472878991307618</v>
+        <v>0.08073371502490911</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>42643</v>
       </c>
       <c r="C226">
-        <v>-0.286399030652089</v>
+        <v>-0.2834615340577504</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>42674</v>
       </c>
       <c r="C227">
-        <v>-0.04153282170816167</v>
+        <v>-0.02434522455065218</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>42704</v>
       </c>
       <c r="C228">
-        <v>-0.2875386122459118</v>
+        <v>-0.26562650334188</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>42735</v>
       </c>
       <c r="C229">
-        <v>-0.2240702248715591</v>
+        <v>-0.1967408535343128</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2911,7 +2911,7 @@
         <v>42766</v>
       </c>
       <c r="C230">
-        <v>0.2007565680298957</v>
+        <v>0.1944061316587219</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2922,7 +2922,7 @@
         <v>42794</v>
       </c>
       <c r="C231">
-        <v>0.2212851290568024</v>
+        <v>0.1995551086929454</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2933,7 +2933,7 @@
         <v>42825</v>
       </c>
       <c r="C232">
-        <v>0.1127932638599036</v>
+        <v>0.1132287362424176</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2944,7 +2944,7 @@
         <v>42855</v>
       </c>
       <c r="C233">
-        <v>0.05020871198409478</v>
+        <v>0.05316579636118077</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>42886</v>
       </c>
       <c r="C234">
-        <v>-0.08154752495481679</v>
+        <v>-0.08171439300618667</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>42916</v>
       </c>
       <c r="C235">
-        <v>0.143254245588041</v>
+        <v>0.147039480620801</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>42947</v>
       </c>
       <c r="C236">
-        <v>0.1461134611131931</v>
+        <v>0.1455802958979516</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>42978</v>
       </c>
       <c r="C237">
-        <v>0.4416484193709197</v>
+        <v>0.4330897664225218</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>43008</v>
       </c>
       <c r="C238">
-        <v>0.5476271856828699</v>
+        <v>0.5500305880232562</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43039</v>
       </c>
       <c r="C239">
-        <v>0.8029499528406449</v>
+        <v>0.813896826423218</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>43069</v>
       </c>
       <c r="C240">
-        <v>0.8601732231281125</v>
+        <v>0.8507716462360279</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>43100</v>
       </c>
       <c r="C241">
-        <v>0.7097710688994293</v>
+        <v>0.7045872960530356</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>43131</v>
       </c>
       <c r="C242">
-        <v>0.6012334188657946</v>
+        <v>0.5993090342230561</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>43159</v>
       </c>
       <c r="C243">
-        <v>0.1169367117819424</v>
+        <v>0.1254344532206737</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>43190</v>
       </c>
       <c r="C244">
-        <v>0.4719000588877482</v>
+        <v>0.4686444154735553</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>43220</v>
       </c>
       <c r="C245">
-        <v>0.5598267464067788</v>
+        <v>0.5628334060407663</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>43251</v>
       </c>
       <c r="C246">
-        <v>0.3716110612362358</v>
+        <v>0.3828631963965619</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>43281</v>
       </c>
       <c r="C247">
-        <v>0.4147831512325639</v>
+        <v>0.4235713575543258</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43312</v>
       </c>
       <c r="C248">
-        <v>0.4282338220802847</v>
+        <v>0.4488379887235765</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>43343</v>
       </c>
       <c r="C249">
-        <v>0.5329152409067506</v>
+        <v>0.5287054371734082</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>43373</v>
       </c>
       <c r="C250">
-        <v>0.4732582492389656</v>
+        <v>0.4744784712706934</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>43404</v>
       </c>
       <c r="C251">
-        <v>0.5340236976159524</v>
+        <v>0.5292334928839234</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>43434</v>
       </c>
       <c r="C252">
-        <v>0.4361802534265906</v>
+        <v>0.4372519800553556</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C253">
-        <v>0.446774107272341</v>
+        <v>0.4414090657773878</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>43496</v>
       </c>
       <c r="C254">
-        <v>0.5204877739397965</v>
+        <v>0.5129810366523243</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>43524</v>
       </c>
       <c r="C255">
-        <v>0.1203776673585769</v>
+        <v>0.1202283233360117</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>43555</v>
       </c>
       <c r="C256">
-        <v>0.2002795529579847</v>
+        <v>0.2036705766478846</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>43585</v>
       </c>
       <c r="C257">
-        <v>0.02112897041698963</v>
+        <v>0.02221102996251074</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43616</v>
       </c>
       <c r="C258">
-        <v>-0.6493562731218302</v>
+        <v>-0.6389468573385336</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>43646</v>
       </c>
       <c r="C259">
-        <v>-0.4911140906566539</v>
+        <v>-0.5084376312136919</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>43677</v>
       </c>
       <c r="C260">
-        <v>-0.4554127709707981</v>
+        <v>-0.4633490526545914</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>43708</v>
       </c>
       <c r="C261">
-        <v>-0.3270519928694576</v>
+        <v>-0.3263692117807899</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>43738</v>
       </c>
       <c r="C262">
-        <v>0.1066014324742199</v>
+        <v>0.09539749333345594</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>43769</v>
       </c>
       <c r="C263">
-        <v>0.03449695462293521</v>
+        <v>0.02384856412847488</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>43799</v>
       </c>
       <c r="C264">
-        <v>0.09638074365545246</v>
+        <v>0.08607343753868339</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>43830</v>
       </c>
       <c r="C265">
-        <v>0.007382024780516396</v>
+        <v>0.005232178776166344</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>43861</v>
       </c>
       <c r="C266">
-        <v>0.04335937611564739</v>
+        <v>0.03402588367413136</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>43890</v>
       </c>
       <c r="C267">
-        <v>1.10328440971466</v>
+        <v>1.104982360958368</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>43921</v>
       </c>
       <c r="C268">
-        <v>2.461569478793334</v>
+        <v>2.451769808312692</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>43951</v>
       </c>
       <c r="C269">
-        <v>3.095223513987736</v>
+        <v>3.034393581524249</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3351,7 +3351,7 @@
         <v>43982</v>
       </c>
       <c r="C270">
-        <v>2.554490996182135</v>
+        <v>2.52155120129792</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3362,7 +3362,7 @@
         <v>44012</v>
       </c>
       <c r="C271">
-        <v>2.297542595478015</v>
+        <v>2.250823596716423</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3373,7 +3373,7 @@
         <v>44043</v>
       </c>
       <c r="C272">
-        <v>2.797542585261972</v>
+        <v>2.758609645059133</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3384,7 +3384,7 @@
         <v>44074</v>
       </c>
       <c r="C273">
-        <v>1.33328144364323</v>
+        <v>1.300301164325963</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>44104</v>
       </c>
       <c r="C274">
-        <v>0.5991745590931497</v>
+        <v>0.5738553988902643</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3406,7 +3406,7 @@
         <v>44135</v>
       </c>
       <c r="C275">
-        <v>0.1054668847175035</v>
+        <v>0.1015797506585042</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3417,7 +3417,7 @@
         <v>44165</v>
       </c>
       <c r="C276">
-        <v>0.6952363593364326</v>
+        <v>0.6952233064470169</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>44196</v>
       </c>
       <c r="C277">
-        <v>1.643805349837805</v>
+        <v>1.648937926121926</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3439,7 +3439,7 @@
         <v>44227</v>
       </c>
       <c r="C278">
-        <v>1.42181529046812</v>
+        <v>1.443653624901127</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3450,7 +3450,7 @@
         <v>44255</v>
       </c>
       <c r="C279">
-        <v>1.896743389024177</v>
+        <v>1.922106015099768</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3461,7 +3461,7 @@
         <v>44286</v>
       </c>
       <c r="C280">
-        <v>2.181051903085149</v>
+        <v>2.214353443947572</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>44316</v>
       </c>
       <c r="C281">
-        <v>2.52226817259032</v>
+        <v>2.568983990968679</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>44347</v>
       </c>
       <c r="C282">
-        <v>2.972932101084186</v>
+        <v>3.001387777469247</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3494,7 +3494,7 @@
         <v>44377</v>
       </c>
       <c r="C283">
-        <v>2.69601875215429</v>
+        <v>2.727746797601942</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>44408</v>
       </c>
       <c r="C284">
-        <v>2.940050036011608</v>
+        <v>2.941353410257459</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3516,7 +3516,7 @@
         <v>44439</v>
       </c>
       <c r="C285">
-        <v>3.233109908940609</v>
+        <v>3.256845837251476</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>44469</v>
       </c>
       <c r="C286">
-        <v>3.238326462026413</v>
+        <v>3.256652459949425</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>44500</v>
       </c>
       <c r="C287">
-        <v>3.786907044361866</v>
+        <v>3.809757409286726</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3549,7 +3549,7 @@
         <v>44530</v>
       </c>
       <c r="C288">
-        <v>4.218530163507914</v>
+        <v>4.227530625009744</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3560,7 +3560,7 @@
         <v>44561</v>
       </c>
       <c r="C289">
-        <v>4.302158149343084</v>
+        <v>4.300434648673902</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3571,7 +3571,7 @@
         <v>44592</v>
       </c>
       <c r="C290">
-        <v>3.64286503244586</v>
+        <v>3.647179379028892</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3582,7 +3582,7 @@
         <v>44620</v>
       </c>
       <c r="C291">
-        <v>2.755232215922528</v>
+        <v>2.764428683639632</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3593,7 +3593,7 @@
         <v>44651</v>
       </c>
       <c r="C292">
-        <v>2.781001043605035</v>
+        <v>2.787067584717635</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>44681</v>
       </c>
       <c r="C293">
-        <v>3.416805693208293</v>
+        <v>3.42194013324054</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3615,7 +3615,7 @@
         <v>44712</v>
       </c>
       <c r="C294">
-        <v>2.619388529361149</v>
+        <v>2.642419753228268</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3626,7 +3626,7 @@
         <v>44742</v>
       </c>
       <c r="C295">
-        <v>2.316740396940611</v>
+        <v>2.336789651421864</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>44773</v>
       </c>
       <c r="C296">
-        <v>1.745382443425751</v>
+        <v>1.764353437207443</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3648,7 +3648,7 @@
         <v>44804</v>
       </c>
       <c r="C297">
-        <v>1.508923760918729</v>
+        <v>1.497304551230238</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3659,7 +3659,18 @@
         <v>44834</v>
       </c>
       <c r="C298">
-        <v>1.047849608008719</v>
+        <v>0.8931342075380106</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C299">
+        <v>1.00088876381932</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/gscpi_data.xlsx
+++ b/mercados/gscpi_data.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
         <v>35826</v>
       </c>
       <c r="C2">
-        <v>-0.9213717687627395</v>
+        <v>-0.9153901034208553</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -414,7 +414,7 @@
         <v>35854</v>
       </c>
       <c r="C3">
-        <v>-0.4596956451348003</v>
+        <v>-0.4500462242202808</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,7 +425,7 @@
         <v>35885</v>
       </c>
       <c r="C4">
-        <v>-0.1131707158782029</v>
+        <v>-0.1079085519752831</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,7 +436,7 @@
         <v>35915</v>
       </c>
       <c r="C5">
-        <v>-0.1484218881339096</v>
+        <v>-0.1314669977888898</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>35946</v>
       </c>
       <c r="C6">
-        <v>-0.5036103197043866</v>
+        <v>-0.4913855258297432</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>35976</v>
       </c>
       <c r="C7">
-        <v>-0.7970687781064281</v>
+        <v>-0.790585354481159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -469,7 +469,7 @@
         <v>36007</v>
       </c>
       <c r="C8">
-        <v>-0.940189341444339</v>
+        <v>-0.9457985345908859</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,7 +480,7 @@
         <v>36038</v>
       </c>
       <c r="C9">
-        <v>-0.9512023892152982</v>
+        <v>-0.9542067728504199</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -491,7 +491,7 @@
         <v>36068</v>
       </c>
       <c r="C10">
-        <v>-0.9641080528854897</v>
+        <v>-0.968987607951224</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>36099</v>
       </c>
       <c r="C11">
-        <v>-0.8180181568713073</v>
+        <v>-0.8341103910164045</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -513,7 +513,7 @@
         <v>36129</v>
       </c>
       <c r="C12">
-        <v>-0.8885209103875558</v>
+        <v>-0.9227633014172861</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -524,7 +524,7 @@
         <v>36160</v>
       </c>
       <c r="C13">
-        <v>-0.6653199888526543</v>
+        <v>-0.6933222857574712</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -535,7 +535,7 @@
         <v>36191</v>
       </c>
       <c r="C14">
-        <v>-0.3314089553052362</v>
+        <v>-0.3973689568682516</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -546,7 +546,7 @@
         <v>36219</v>
       </c>
       <c r="C15">
-        <v>-0.09763742653290816</v>
+        <v>-0.1062092981171466</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -557,7 +557,7 @@
         <v>36250</v>
       </c>
       <c r="C16">
-        <v>-0.3454068997002097</v>
+        <v>-0.3551201010172283</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -568,7 +568,7 @@
         <v>36280</v>
       </c>
       <c r="C17">
-        <v>-0.3581185892818958</v>
+        <v>-0.3117451283856713</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>36311</v>
       </c>
       <c r="C18">
-        <v>-0.3874510263925235</v>
+        <v>-0.3799496897300733</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -590,7 +590,7 @@
         <v>36341</v>
       </c>
       <c r="C19">
-        <v>-0.4238237788424287</v>
+        <v>-0.4296896529529518</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -601,7 +601,7 @@
         <v>36372</v>
       </c>
       <c r="C20">
-        <v>-0.6097945704778387</v>
+        <v>-0.6139840154929014</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -612,7 +612,7 @@
         <v>36403</v>
       </c>
       <c r="C21">
-        <v>-0.4869443813135514</v>
+        <v>-0.4771891922504657</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -623,7 +623,7 @@
         <v>36433</v>
       </c>
       <c r="C22">
-        <v>-0.3275271158633454</v>
+        <v>-0.3301248026603409</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -634,7 +634,7 @@
         <v>36464</v>
       </c>
       <c r="C23">
-        <v>-0.1093404141488429</v>
+        <v>-0.1171476141544081</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -645,7 +645,7 @@
         <v>36494</v>
       </c>
       <c r="C24">
-        <v>-0.09114156685846081</v>
+        <v>-0.104806415914664</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -656,7 +656,7 @@
         <v>36525</v>
       </c>
       <c r="C25">
-        <v>-0.03966475682966245</v>
+        <v>-0.04599340839260088</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -667,7 +667,7 @@
         <v>36556</v>
       </c>
       <c r="C26">
-        <v>-0.4759529664722458</v>
+        <v>-0.5072436649848434</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -678,7 +678,7 @@
         <v>36585</v>
       </c>
       <c r="C27">
-        <v>-0.3147309955592109</v>
+        <v>-0.3296463429153315</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -689,7 +689,7 @@
         <v>36616</v>
       </c>
       <c r="C28">
-        <v>-0.2512969928207531</v>
+        <v>-0.2504279957320332</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -700,7 +700,7 @@
         <v>36646</v>
       </c>
       <c r="C29">
-        <v>0.0957042572045205</v>
+        <v>0.1321314432698545</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -711,7 +711,7 @@
         <v>36677</v>
       </c>
       <c r="C30">
-        <v>0.1853261909116201</v>
+        <v>0.2043785727080329</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -722,7 +722,7 @@
         <v>36707</v>
       </c>
       <c r="C31">
-        <v>-0.09043113064740162</v>
+        <v>-0.08477530322340976</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -733,7 +733,7 @@
         <v>36738</v>
       </c>
       <c r="C32">
-        <v>-0.1065913752449231</v>
+        <v>-0.1182077106709961</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -744,7 +744,7 @@
         <v>36769</v>
       </c>
       <c r="C33">
-        <v>-0.07885634590808473</v>
+        <v>-0.08326151520326396</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -755,7 +755,7 @@
         <v>36799</v>
       </c>
       <c r="C34">
-        <v>-0.201210702879164</v>
+        <v>-0.1876859588981391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -766,7 +766,7 @@
         <v>36830</v>
       </c>
       <c r="C35">
-        <v>-0.6517594681774672</v>
+        <v>-0.642760493222194</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -777,7 +777,7 @@
         <v>36860</v>
       </c>
       <c r="C36">
-        <v>-0.9088800145364518</v>
+        <v>-0.8770204391171826</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -788,7 +788,7 @@
         <v>36891</v>
       </c>
       <c r="C37">
-        <v>-1.097238712340159</v>
+        <v>-1.074037993138156</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -799,7 +799,7 @@
         <v>36922</v>
       </c>
       <c r="C38">
-        <v>-1.124066586661989</v>
+        <v>-1.081058076942441</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -810,7 +810,7 @@
         <v>36950</v>
       </c>
       <c r="C39">
-        <v>-0.9524737741176141</v>
+        <v>-0.9273859540569264</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -821,7 +821,7 @@
         <v>36981</v>
       </c>
       <c r="C40">
-        <v>-0.9494283426644615</v>
+        <v>-0.932142209270029</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -832,7 +832,7 @@
         <v>37011</v>
       </c>
       <c r="C41">
-        <v>-1.186902639225804</v>
+        <v>-1.198737892875513</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -843,7 +843,7 @@
         <v>37042</v>
       </c>
       <c r="C42">
-        <v>-1.282525008624491</v>
+        <v>-1.277360563234366</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -854,7 +854,7 @@
         <v>37072</v>
       </c>
       <c r="C43">
-        <v>-0.842795778450444</v>
+        <v>-0.8383488424986236</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -865,7 +865,7 @@
         <v>37103</v>
       </c>
       <c r="C44">
-        <v>-0.8583153525806644</v>
+        <v>-0.8168990083682077</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -876,7 +876,7 @@
         <v>37134</v>
       </c>
       <c r="C45">
-        <v>-0.7479371740055055</v>
+        <v>-0.7230728637613992</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -887,7 +887,7 @@
         <v>37164</v>
       </c>
       <c r="C46">
-        <v>-0.6764976965873651</v>
+        <v>-0.6586968438624037</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -898,7 +898,7 @@
         <v>37195</v>
       </c>
       <c r="C47">
-        <v>-1.148335707266397</v>
+        <v>-1.167338226914781</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -909,7 +909,7 @@
         <v>37225</v>
       </c>
       <c r="C48">
-        <v>-1.233134036478878</v>
+        <v>-1.227271553882965</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -920,7 +920,7 @@
         <v>37256</v>
       </c>
       <c r="C49">
-        <v>-1.031909515542452</v>
+        <v>-1.020221983239675</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -931,7 +931,7 @@
         <v>37287</v>
       </c>
       <c r="C50">
-        <v>-0.8705181321466519</v>
+        <v>-0.8144800761545665</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -942,7 +942,7 @@
         <v>37315</v>
       </c>
       <c r="C51">
-        <v>-0.4023556453941905</v>
+        <v>-0.3811325830469832</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -953,7 +953,7 @@
         <v>37346</v>
       </c>
       <c r="C52">
-        <v>-0.4250491734568824</v>
+        <v>-0.4131363815121975</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -964,7 +964,7 @@
         <v>37376</v>
       </c>
       <c r="C53">
-        <v>-0.476617542263979</v>
+        <v>-0.4892964245321546</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -975,7 +975,7 @@
         <v>37407</v>
       </c>
       <c r="C54">
-        <v>-0.2669707775582806</v>
+        <v>-0.2541740080922994</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -986,7 +986,7 @@
         <v>37437</v>
       </c>
       <c r="C55">
-        <v>-0.4933250943086983</v>
+        <v>-0.4906389686322186</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -997,7 +997,7 @@
         <v>37468</v>
       </c>
       <c r="C56">
-        <v>-0.8739034305179855</v>
+        <v>-0.868973568597542</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>37499</v>
       </c>
       <c r="C57">
-        <v>-0.9593162353801257</v>
+        <v>-0.9716026576838988</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>37529</v>
       </c>
       <c r="C58">
-        <v>-0.9458143371240155</v>
+        <v>-0.9732607815643378</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>37560</v>
       </c>
       <c r="C59">
-        <v>-1.115468362820329</v>
+        <v>-1.14123145727029</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>37590</v>
       </c>
       <c r="C60">
-        <v>-0.793041957554918</v>
+        <v>-0.7910059760707481</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1052,7 +1052,7 @@
         <v>37621</v>
       </c>
       <c r="C61">
-        <v>-0.590519161053419</v>
+        <v>-0.6100237513360018</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1063,7 +1063,7 @@
         <v>37652</v>
       </c>
       <c r="C62">
-        <v>-0.5070391849542738</v>
+        <v>-0.507487375078955</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>37680</v>
       </c>
       <c r="C63">
-        <v>-0.3952859289173751</v>
+        <v>-0.3979165720843996</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1085,7 +1085,7 @@
         <v>37711</v>
       </c>
       <c r="C64">
-        <v>-0.2747882700230833</v>
+        <v>-0.2842559047740441</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1096,7 +1096,7 @@
         <v>37741</v>
       </c>
       <c r="C65">
-        <v>-0.5242005332147761</v>
+        <v>-0.576294785058564</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1107,7 +1107,7 @@
         <v>37772</v>
       </c>
       <c r="C66">
-        <v>-0.2492021869590172</v>
+        <v>-0.288413168902471</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1118,7 +1118,7 @@
         <v>37802</v>
       </c>
       <c r="C67">
-        <v>-0.2315076330632976</v>
+        <v>-0.2510317390534655</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1129,7 +1129,7 @@
         <v>37833</v>
       </c>
       <c r="C68">
-        <v>-0.1431066741306328</v>
+        <v>-0.1218286545043888</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1140,7 +1140,7 @@
         <v>37864</v>
       </c>
       <c r="C69">
-        <v>-0.1815822309337375</v>
+        <v>-0.1730409793808678</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>37894</v>
       </c>
       <c r="C70">
-        <v>-0.09021554589429862</v>
+        <v>-0.07524129674893944</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>37925</v>
       </c>
       <c r="C71">
-        <v>-0.3429665875833305</v>
+        <v>-0.3093029296649326</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>37955</v>
       </c>
       <c r="C72">
-        <v>-0.330072674844947</v>
+        <v>-0.3338198039110667</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>37986</v>
       </c>
       <c r="C73">
-        <v>-0.2736836844551866</v>
+        <v>-0.2698935197968008</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1195,7 +1195,7 @@
         <v>38017</v>
       </c>
       <c r="C74">
-        <v>-0.3785221731060872</v>
+        <v>-0.4657882030197655</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>38046</v>
       </c>
       <c r="C75">
-        <v>-0.2697362407796545</v>
+        <v>-0.2871012495943022</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1217,7 +1217,7 @@
         <v>38077</v>
       </c>
       <c r="C76">
-        <v>0.08221218511749522</v>
+        <v>0.08168258622480462</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>38107</v>
       </c>
       <c r="C77">
-        <v>0.4754378778539542</v>
+        <v>0.4778199986067688</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>38138</v>
       </c>
       <c r="C78">
-        <v>0.4931734772353413</v>
+        <v>0.4648255124673027</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>38168</v>
       </c>
       <c r="C79">
-        <v>0.4214007122606069</v>
+        <v>0.416670971565174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1261,7 +1261,7 @@
         <v>38199</v>
       </c>
       <c r="C80">
-        <v>-0.367261362845292</v>
+        <v>-0.344124833211067</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>38230</v>
       </c>
       <c r="C81">
-        <v>0.1839838020355518</v>
+        <v>0.1628491201948136</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>38260</v>
       </c>
       <c r="C82">
-        <v>-0.06466665533972003</v>
+        <v>-0.07527435839511251</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>38291</v>
       </c>
       <c r="C83">
-        <v>-0.6083243573921016</v>
+        <v>-0.5856966433275774</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>38321</v>
       </c>
       <c r="C84">
-        <v>-0.05526586108242568</v>
+        <v>-0.05253882327179973</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>38352</v>
       </c>
       <c r="C85">
-        <v>0.123555489163299</v>
+        <v>0.122272683789202</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1327,7 +1327,7 @@
         <v>38383</v>
       </c>
       <c r="C86">
-        <v>-0.1647962282416718</v>
+        <v>-0.2138657693434004</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1338,7 +1338,7 @@
         <v>38411</v>
       </c>
       <c r="C87">
-        <v>-0.2754770414753925</v>
+        <v>-0.2613283470832893</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>38442</v>
       </c>
       <c r="C88">
-        <v>-0.3557465664892264</v>
+        <v>-0.3335936710550342</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>38472</v>
       </c>
       <c r="C89">
-        <v>-1.404391691593766</v>
+        <v>-1.417445400273036</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>38503</v>
       </c>
       <c r="C90">
-        <v>-1.122433677112166</v>
+        <v>-1.100742259805054</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>38533</v>
       </c>
       <c r="C91">
-        <v>-0.9544282226891797</v>
+        <v>-0.9425955566196653</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>38564</v>
       </c>
       <c r="C92">
-        <v>-0.9801158279669743</v>
+        <v>-0.9500462274570264</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>38595</v>
       </c>
       <c r="C93">
-        <v>-0.733699165254567</v>
+        <v>-0.6780681184204844</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>38625</v>
       </c>
       <c r="C94">
-        <v>-0.02544544438686595</v>
+        <v>-0.00695436567716293</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>38656</v>
       </c>
       <c r="C95">
-        <v>-0.04986269055534529</v>
+        <v>-0.05589561416038412</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>38686</v>
       </c>
       <c r="C96">
-        <v>-0.6248802813245944</v>
+        <v>-0.6249635669078918</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>38717</v>
       </c>
       <c r="C97">
-        <v>-0.6609601057023803</v>
+        <v>-0.6524712098555425</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>38748</v>
       </c>
       <c r="C98">
-        <v>-0.3776158297871331</v>
+        <v>-0.3406815685594362</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>38776</v>
       </c>
       <c r="C99">
-        <v>-0.6383369024905621</v>
+        <v>-0.6286244654988018</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>38807</v>
       </c>
       <c r="C100">
-        <v>-0.4146326114835607</v>
+        <v>-0.4311235701092065</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1492,7 +1492,7 @@
         <v>38837</v>
       </c>
       <c r="C101">
-        <v>0.05307994889951602</v>
+        <v>0.1021776434438027</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>38868</v>
       </c>
       <c r="C102">
-        <v>0.07380145465259742</v>
+        <v>0.08128994389368574</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>38898</v>
       </c>
       <c r="C103">
-        <v>0.106740596096937</v>
+        <v>0.1017215466958837</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>38929</v>
       </c>
       <c r="C104">
-        <v>-0.1286515354596111</v>
+        <v>-0.1442640708141837</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>38960</v>
       </c>
       <c r="C105">
-        <v>0.09094251365584245</v>
+        <v>0.07953590537027347</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>38990</v>
       </c>
       <c r="C106">
-        <v>-0.5303526392270586</v>
+        <v>-0.5456552227576235</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>39021</v>
       </c>
       <c r="C107">
-        <v>-0.3894193663162377</v>
+        <v>-0.4226382817063964</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>39051</v>
       </c>
       <c r="C108">
-        <v>-0.1899089181311175</v>
+        <v>-0.202767833974189</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>39082</v>
       </c>
       <c r="C109">
-        <v>-0.4268395798788525</v>
+        <v>-0.4394596692437359</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>39113</v>
       </c>
       <c r="C110">
-        <v>-0.7965042598469686</v>
+        <v>-0.8183160844718956</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>39141</v>
       </c>
       <c r="C111">
-        <v>-0.6996703739936609</v>
+        <v>-0.7141815745926723</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>39172</v>
       </c>
       <c r="C112">
-        <v>-0.5007937965736099</v>
+        <v>-0.5145417808114223</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>39202</v>
       </c>
       <c r="C113">
-        <v>-0.7454938095282554</v>
+        <v>-0.7532946804702119</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>39233</v>
       </c>
       <c r="C114">
-        <v>-0.2914088589693897</v>
+        <v>-0.3141433262378539</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>39263</v>
       </c>
       <c r="C115">
-        <v>-0.3603373256427824</v>
+        <v>-0.3686185510654717</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1657,7 +1657,7 @@
         <v>39294</v>
       </c>
       <c r="C116">
-        <v>-0.3995424069199011</v>
+        <v>-0.3321355714751328</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1668,7 +1668,7 @@
         <v>39325</v>
       </c>
       <c r="C117">
-        <v>-0.06161712548725452</v>
+        <v>-0.07717108099684614</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>39355</v>
       </c>
       <c r="C118">
-        <v>-0.09527568836641336</v>
+        <v>-0.1055853795070164</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>39386</v>
       </c>
       <c r="C119">
-        <v>-0.6738472383898836</v>
+        <v>-0.6862352732451034</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>39416</v>
       </c>
       <c r="C120">
-        <v>-0.4887619846507728</v>
+        <v>-0.5054444207021362</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>39447</v>
       </c>
       <c r="C121">
-        <v>-0.1798634065669004</v>
+        <v>-0.1758271325183131</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>39478</v>
       </c>
       <c r="C122">
-        <v>-0.376171278190763</v>
+        <v>-0.3292062680821574</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1734,7 +1734,7 @@
         <v>39507</v>
       </c>
       <c r="C123">
-        <v>0.3538580560909754</v>
+        <v>0.3264847725087534</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1745,7 +1745,7 @@
         <v>39538</v>
       </c>
       <c r="C124">
-        <v>0.1204812151213512</v>
+        <v>0.1151499182678618</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1756,7 +1756,7 @@
         <v>39568</v>
       </c>
       <c r="C125">
-        <v>0.08768345289512147</v>
+        <v>0.07463640626854717</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>39599</v>
       </c>
       <c r="C126">
-        <v>-0.1236838482866658</v>
+        <v>-0.1527370424618697</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>39629</v>
       </c>
       <c r="C127">
-        <v>0.1903810338509238</v>
+        <v>0.1583588380843796</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1789,7 +1789,7 @@
         <v>39660</v>
       </c>
       <c r="C128">
-        <v>0.9050112124084861</v>
+        <v>0.824410107371736</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>39691</v>
       </c>
       <c r="C129">
-        <v>0.2234114064716218</v>
+        <v>0.1810076355830239</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1811,7 +1811,7 @@
         <v>39721</v>
       </c>
       <c r="C130">
-        <v>-0.5932983348271931</v>
+        <v>-0.6218844706012674</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>39752</v>
       </c>
       <c r="C131">
-        <v>-1.025383673884245</v>
+        <v>-0.975868436862755</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>39782</v>
       </c>
       <c r="C132">
-        <v>-1.598856646350406</v>
+        <v>-1.634510923192781</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1844,7 +1844,7 @@
         <v>39813</v>
       </c>
       <c r="C133">
-        <v>-0.7912463679003439</v>
+        <v>-0.8571488330433753</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1855,7 +1855,7 @@
         <v>39844</v>
       </c>
       <c r="C134">
-        <v>-0.5619724131397302</v>
+        <v>-0.6524157543693047</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>39872</v>
       </c>
       <c r="C135">
-        <v>-0.6225252225383835</v>
+        <v>-0.6646389579946903</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1877,7 +1877,7 @@
         <v>39903</v>
       </c>
       <c r="C136">
-        <v>-0.04173522769565233</v>
+        <v>-0.08658140419505964</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1888,7 +1888,7 @@
         <v>39933</v>
       </c>
       <c r="C137">
-        <v>0.5941721365154459</v>
+        <v>0.5462754674788152</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>39964</v>
       </c>
       <c r="C138">
-        <v>0.1307225769561183</v>
+        <v>0.1116689677041551</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1910,7 +1910,7 @@
         <v>39994</v>
       </c>
       <c r="C139">
-        <v>-0.6554492851097978</v>
+        <v>-0.6843905664611455</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1921,7 +1921,7 @@
         <v>40025</v>
       </c>
       <c r="C140">
-        <v>-0.8733172271609769</v>
+        <v>-0.8439563004620081</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>40056</v>
       </c>
       <c r="C141">
-        <v>-1.187998907881263</v>
+        <v>-1.200877700430179</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1943,7 +1943,7 @@
         <v>40086</v>
       </c>
       <c r="C142">
-        <v>-0.5391992427522005</v>
+        <v>-0.5687878824793067</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1954,7 +1954,7 @@
         <v>40117</v>
       </c>
       <c r="C143">
-        <v>-0.4878169356337929</v>
+        <v>-0.7060994867753727</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>40147</v>
       </c>
       <c r="C144">
-        <v>-0.7820995738372711</v>
+        <v>-0.8166276156447929</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1976,7 +1976,7 @@
         <v>40178</v>
       </c>
       <c r="C145">
-        <v>-0.6336679878582391</v>
+        <v>-0.646718963524769</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1987,7 +1987,7 @@
         <v>40209</v>
       </c>
       <c r="C146">
-        <v>-0.2690676751243046</v>
+        <v>-0.1261035110207264</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1998,7 +1998,7 @@
         <v>40237</v>
       </c>
       <c r="C147">
-        <v>-0.1067629848904884</v>
+        <v>-0.1040454766488903</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>40268</v>
       </c>
       <c r="C148">
-        <v>0.4017840236316411</v>
+        <v>0.3986634671828472</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>40298</v>
       </c>
       <c r="C149">
-        <v>0.2762159625261594</v>
+        <v>0.3716677864456576</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>40329</v>
       </c>
       <c r="C150">
-        <v>0.4316672582847113</v>
+        <v>0.4395355549038885</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>40359</v>
       </c>
       <c r="C151">
-        <v>-0.01418160826663562</v>
+        <v>-0.02394148926800438</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2053,7 +2053,7 @@
         <v>40390</v>
       </c>
       <c r="C152">
-        <v>0.01263107485522165</v>
+        <v>0.06620409429010718</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2064,7 +2064,7 @@
         <v>40421</v>
       </c>
       <c r="C153">
-        <v>0.327986682985738</v>
+        <v>0.3033314775646468</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>40451</v>
       </c>
       <c r="C154">
-        <v>0.3473671197556881</v>
+        <v>0.3211240221059141</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2086,7 +2086,7 @@
         <v>40482</v>
       </c>
       <c r="C155">
-        <v>0.6590864941372716</v>
+        <v>0.4878551787946206</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2097,7 +2097,7 @@
         <v>40512</v>
       </c>
       <c r="C156">
-        <v>0.4178131208533403</v>
+        <v>0.4092709955252792</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2108,7 +2108,7 @@
         <v>40543</v>
       </c>
       <c r="C157">
-        <v>0.710864692714066</v>
+        <v>0.6941763033158729</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2119,7 +2119,7 @@
         <v>40574</v>
       </c>
       <c r="C158">
-        <v>0.7992276615896335</v>
+        <v>0.8837062089839479</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2130,7 +2130,7 @@
         <v>40602</v>
       </c>
       <c r="C159">
-        <v>0.3849983569556855</v>
+        <v>0.3431248493612089</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>40633</v>
       </c>
       <c r="C160">
-        <v>0.7116768403289191</v>
+        <v>0.6681469116965113</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>40663</v>
       </c>
       <c r="C161">
-        <v>1.511552910274866</v>
+        <v>1.470630675031862</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2163,7 +2163,7 @@
         <v>40694</v>
       </c>
       <c r="C162">
-        <v>0.9179870896470156</v>
+        <v>0.9158081213862481</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2174,7 +2174,7 @@
         <v>40724</v>
       </c>
       <c r="C163">
-        <v>0.1879600583276718</v>
+        <v>0.1631438556145167</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2185,7 +2185,7 @@
         <v>40755</v>
       </c>
       <c r="C164">
-        <v>0.2152397987392661</v>
+        <v>0.1902698762565202</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2196,7 +2196,7 @@
         <v>40786</v>
       </c>
       <c r="C165">
-        <v>-0.1061321638316179</v>
+        <v>-0.134236797135799</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2207,7 +2207,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <v>-0.5665464108936044</v>
+        <v>-0.5871973886234069</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>40847</v>
       </c>
       <c r="C167">
-        <v>-0.4030515810482284</v>
+        <v>-0.4066830743123854</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2229,7 +2229,7 @@
         <v>40877</v>
       </c>
       <c r="C168">
-        <v>0.08757919069070733</v>
+        <v>0.0890720435192994</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>40908</v>
       </c>
       <c r="C169">
-        <v>-0.07665360993525233</v>
+        <v>-0.06809662970093071</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>40939</v>
       </c>
       <c r="C170">
-        <v>0.3172418999605691</v>
+        <v>0.3600212060425325</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>40968</v>
       </c>
       <c r="C171">
-        <v>-0.05393148573754683</v>
+        <v>-0.04430614297643471</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2273,7 +2273,7 @@
         <v>40999</v>
       </c>
       <c r="C172">
-        <v>-0.3779260905898825</v>
+        <v>-0.3731231402968451</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2284,7 +2284,7 @@
         <v>41029</v>
       </c>
       <c r="C173">
-        <v>-0.3155443461843619</v>
+        <v>-0.3526153816604323</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2295,7 +2295,7 @@
         <v>41060</v>
       </c>
       <c r="C174">
-        <v>-0.7199388677252053</v>
+        <v>-0.7078219593299401</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2306,7 +2306,7 @@
         <v>41090</v>
       </c>
       <c r="C175">
-        <v>-0.6866552159047289</v>
+        <v>-0.6778113260944533</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>41121</v>
       </c>
       <c r="C176">
-        <v>-0.7282573903693568</v>
+        <v>-0.6559465420815941</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>41152</v>
       </c>
       <c r="C177">
-        <v>-0.1687673174387667</v>
+        <v>-0.1658640004468025</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2339,7 +2339,7 @@
         <v>41182</v>
       </c>
       <c r="C178">
-        <v>-0.2780370181103558</v>
+        <v>-0.2683837275716879</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2350,7 +2350,7 @@
         <v>41213</v>
       </c>
       <c r="C179">
-        <v>-0.044338476035116</v>
+        <v>-0.1039668000642142</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>41243</v>
       </c>
       <c r="C180">
-        <v>-0.3922862825350601</v>
+        <v>-0.3966919547436077</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2372,7 +2372,7 @@
         <v>41274</v>
       </c>
       <c r="C181">
-        <v>-0.1753340815679867</v>
+        <v>-0.1741853355186383</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>41305</v>
       </c>
       <c r="C182">
-        <v>-0.05446735957438303</v>
+        <v>-0.01795576053090294</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>41333</v>
       </c>
       <c r="C183">
-        <v>-0.3871424314631878</v>
+        <v>-0.3703518209736822</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2405,7 +2405,7 @@
         <v>41364</v>
       </c>
       <c r="C184">
-        <v>-0.5412433433100493</v>
+        <v>-0.5338780093318599</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2416,7 +2416,7 @@
         <v>41394</v>
       </c>
       <c r="C185">
-        <v>-0.7289435334861356</v>
+        <v>-0.7560179413640146</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>41425</v>
       </c>
       <c r="C186">
-        <v>-0.8317028166631928</v>
+        <v>-0.8313569897571157</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2438,7 +2438,7 @@
         <v>41455</v>
       </c>
       <c r="C187">
-        <v>-0.6308405713882228</v>
+        <v>-0.6332360407464851</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2449,7 +2449,7 @@
         <v>41486</v>
       </c>
       <c r="C188">
-        <v>-0.6615268218371063</v>
+        <v>-0.662795262271366</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>41517</v>
       </c>
       <c r="C189">
-        <v>-0.5481485579236259</v>
+        <v>-0.5434091200544281</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>41547</v>
       </c>
       <c r="C190">
-        <v>-0.3018092657979788</v>
+        <v>-0.3000696088971437</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2482,7 +2482,7 @@
         <v>41578</v>
       </c>
       <c r="C191">
-        <v>-0.175622040763591</v>
+        <v>-0.1598757122803357</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2493,7 +2493,7 @@
         <v>41608</v>
       </c>
       <c r="C192">
-        <v>-0.6468499557897465</v>
+        <v>-0.6661471129384793</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2504,7 +2504,7 @@
         <v>41639</v>
       </c>
       <c r="C193">
-        <v>-0.4609392726831054</v>
+        <v>-0.4882503247386438</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>41670</v>
       </c>
       <c r="C194">
-        <v>-0.5913031424694828</v>
+        <v>-0.5861211275765508</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2526,7 +2526,7 @@
         <v>41698</v>
       </c>
       <c r="C195">
-        <v>-0.2503619169021771</v>
+        <v>-0.2666744867236334</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>41729</v>
       </c>
       <c r="C196">
-        <v>-0.5748599871252683</v>
+        <v>-0.5948272451042821</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>41759</v>
       </c>
       <c r="C197">
-        <v>-0.821044972795</v>
+        <v>-0.7947940853834589</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>41790</v>
       </c>
       <c r="C198">
-        <v>-0.7951956179920302</v>
+        <v>-0.7901856656801806</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>41820</v>
       </c>
       <c r="C199">
-        <v>-0.6446570549135269</v>
+        <v>-0.6350162493998328</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>41851</v>
       </c>
       <c r="C200">
-        <v>-0.7909682096580808</v>
+        <v>-0.7973976111387105</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>41882</v>
       </c>
       <c r="C201">
-        <v>-0.6237165938775465</v>
+        <v>-0.6112704728444027</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>41912</v>
       </c>
       <c r="C202">
-        <v>-0.7824832428984103</v>
+        <v>-0.7762043847053578</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>41943</v>
       </c>
       <c r="C203">
-        <v>-0.5571331419683512</v>
+        <v>-0.5499484822028995</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>41973</v>
       </c>
       <c r="C204">
-        <v>-0.913777232410993</v>
+        <v>-0.9046803289159767</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>42004</v>
       </c>
       <c r="C205">
-        <v>-0.3674262301586177</v>
+        <v>-0.369128462624676</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>42035</v>
       </c>
       <c r="C206">
-        <v>-0.5269967991100188</v>
+        <v>-0.4369275496340296</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>42063</v>
       </c>
       <c r="C207">
-        <v>-0.2939446219718604</v>
+        <v>-0.2883791649206697</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>42094</v>
       </c>
       <c r="C208">
-        <v>-0.3820935575815637</v>
+        <v>-0.379463773054077</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>42124</v>
       </c>
       <c r="C209">
-        <v>-0.3138516881537506</v>
+        <v>-0.4302031924312694</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>42155</v>
       </c>
       <c r="C210">
-        <v>-0.5156692516094383</v>
+        <v>-0.5078791608313609</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>42185</v>
       </c>
       <c r="C211">
-        <v>-0.8184840922008321</v>
+        <v>-0.8187181416200073</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>42216</v>
       </c>
       <c r="C212">
-        <v>-0.3793713839961889</v>
+        <v>-0.3951582994883055</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>42247</v>
       </c>
       <c r="C213">
-        <v>-0.6477169253200259</v>
+        <v>-0.6467851468972948</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>42277</v>
       </c>
       <c r="C214">
-        <v>-0.417118552045818</v>
+        <v>-0.4234728330516883</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>42308</v>
       </c>
       <c r="C215">
-        <v>-0.2545144398294311</v>
+        <v>-0.2041523386589454</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>42338</v>
       </c>
       <c r="C216">
-        <v>-0.6247622405577671</v>
+        <v>-0.625335983715909</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>42369</v>
       </c>
       <c r="C217">
-        <v>-0.5800326260961506</v>
+        <v>-0.5812861521962626</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>42400</v>
       </c>
       <c r="C218">
-        <v>-0.7313754533923019</v>
+        <v>-0.7122031649393632</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>42429</v>
       </c>
       <c r="C219">
-        <v>-0.7121299191981721</v>
+        <v>-0.7283144997383154</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2801,7 +2801,7 @@
         <v>42460</v>
       </c>
       <c r="C220">
-        <v>-0.6388031613322127</v>
+        <v>-0.6505083419513881</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2812,7 +2812,7 @@
         <v>42490</v>
       </c>
       <c r="C221">
-        <v>-0.2609754599752225</v>
+        <v>-0.3163830621817037</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2823,7 +2823,7 @@
         <v>42521</v>
       </c>
       <c r="C222">
-        <v>-0.6983039272468068</v>
+        <v>-0.7088621943147552</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2834,7 +2834,7 @@
         <v>42551</v>
       </c>
       <c r="C223">
-        <v>-0.2824446361052455</v>
+        <v>-0.2913521773780497</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2845,7 +2845,7 @@
         <v>42582</v>
       </c>
       <c r="C224">
-        <v>-0.187843585563764</v>
+        <v>-0.1200751952357919</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>42613</v>
       </c>
       <c r="C225">
-        <v>0.08073371502490911</v>
+        <v>0.06784519089787346</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>42643</v>
       </c>
       <c r="C226">
-        <v>-0.2834615340577504</v>
+        <v>-0.2844773477687158</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>42674</v>
       </c>
       <c r="C227">
-        <v>-0.02434522455065218</v>
+        <v>-0.05912388606083174</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>42704</v>
       </c>
       <c r="C228">
-        <v>-0.26562650334188</v>
+        <v>-0.2844060581523801</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>42735</v>
       </c>
       <c r="C229">
-        <v>-0.1967408535343128</v>
+        <v>-0.2003120639072671</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2911,7 +2911,7 @@
         <v>42766</v>
       </c>
       <c r="C230">
-        <v>0.1944061316587219</v>
+        <v>0.168576939242355</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2922,7 +2922,7 @@
         <v>42794</v>
       </c>
       <c r="C231">
-        <v>0.1995551086929454</v>
+        <v>0.1877019224940788</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2933,7 +2933,7 @@
         <v>42825</v>
       </c>
       <c r="C232">
-        <v>0.1132287362424176</v>
+        <v>0.1092605468240724</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2944,7 +2944,7 @@
         <v>42855</v>
       </c>
       <c r="C233">
-        <v>0.05316579636118077</v>
+        <v>0.09798180596485677</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>42886</v>
       </c>
       <c r="C234">
-        <v>-0.08171439300618667</v>
+        <v>-0.09111722650644359</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>42916</v>
       </c>
       <c r="C235">
-        <v>0.147039480620801</v>
+        <v>0.1275470375355851</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>42947</v>
       </c>
       <c r="C236">
-        <v>0.1455802958979516</v>
+        <v>0.07961781018018874</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>42978</v>
       </c>
       <c r="C237">
-        <v>0.4330897664225218</v>
+        <v>0.408615446465141</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>43008</v>
       </c>
       <c r="C238">
-        <v>0.5500305880232562</v>
+        <v>0.5342486264592248</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43039</v>
       </c>
       <c r="C239">
-        <v>0.813896826423218</v>
+        <v>0.8126121956857216</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>43069</v>
       </c>
       <c r="C240">
-        <v>0.8507716462360279</v>
+        <v>0.832446235949787</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>43100</v>
       </c>
       <c r="C241">
-        <v>0.7045872960530356</v>
+        <v>0.6917469620603763</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>43131</v>
       </c>
       <c r="C242">
-        <v>0.5993090342230561</v>
+        <v>0.6230103037081131</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>43159</v>
       </c>
       <c r="C243">
-        <v>0.1254344532206737</v>
+        <v>0.1038012757461319</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>43190</v>
       </c>
       <c r="C244">
-        <v>0.4686444154735553</v>
+        <v>0.4560878377531353</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>43220</v>
       </c>
       <c r="C245">
-        <v>0.5628334060407663</v>
+        <v>0.5391385516474161</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>43251</v>
       </c>
       <c r="C246">
-        <v>0.3828631963965619</v>
+        <v>0.3821359111794377</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>43281</v>
       </c>
       <c r="C247">
-        <v>0.4235713575543258</v>
+        <v>0.4260189117262799</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43312</v>
       </c>
       <c r="C248">
-        <v>0.4488379887235765</v>
+        <v>0.4939370212575536</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>43343</v>
       </c>
       <c r="C249">
-        <v>0.5287054371734082</v>
+        <v>0.5274932608747958</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>43373</v>
       </c>
       <c r="C250">
-        <v>0.4744784712706934</v>
+        <v>0.4647983545433663</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>43404</v>
       </c>
       <c r="C251">
-        <v>0.5292334928839234</v>
+        <v>0.3998160134149976</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>43434</v>
       </c>
       <c r="C252">
-        <v>0.4372519800553556</v>
+        <v>0.4407172101526217</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C253">
-        <v>0.4414090657773878</v>
+        <v>0.4547455111972519</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>43496</v>
       </c>
       <c r="C254">
-        <v>0.5129810366523243</v>
+        <v>0.6265064370276308</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>43524</v>
       </c>
       <c r="C255">
-        <v>0.1202283233360117</v>
+        <v>0.1158056609216274</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>43555</v>
       </c>
       <c r="C256">
-        <v>0.2036705766478846</v>
+        <v>0.2088988730322744</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>43585</v>
       </c>
       <c r="C257">
-        <v>0.02221102996251074</v>
+        <v>-0.03272755513088985</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43616</v>
       </c>
       <c r="C258">
-        <v>-0.6389468573385336</v>
+        <v>-0.6439658904657848</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>43646</v>
       </c>
       <c r="C259">
-        <v>-0.5084376312136919</v>
+        <v>-0.5128200443181792</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>43677</v>
       </c>
       <c r="C260">
-        <v>-0.4633490526545914</v>
+        <v>-0.461775302751785</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>43708</v>
       </c>
       <c r="C261">
-        <v>-0.3263692117807899</v>
+        <v>-0.3299635613910949</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>43738</v>
       </c>
       <c r="C262">
-        <v>0.09539749333345594</v>
+        <v>0.09313291808143409</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>43769</v>
       </c>
       <c r="C263">
-        <v>0.02384856412847488</v>
+        <v>0.03080889959940646</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>43799</v>
       </c>
       <c r="C264">
-        <v>0.08607343753868339</v>
+        <v>0.08617059631262033</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>43830</v>
       </c>
       <c r="C265">
-        <v>0.005232178776166344</v>
+        <v>0.009498798917605678</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>43861</v>
       </c>
       <c r="C266">
-        <v>0.03402588367413136</v>
+        <v>-0.01305301600342694</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>43890</v>
       </c>
       <c r="C267">
-        <v>1.104982360958368</v>
+        <v>1.100330903806716</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>43921</v>
       </c>
       <c r="C268">
-        <v>2.451769808312692</v>
+        <v>2.454066677461402</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>43951</v>
       </c>
       <c r="C269">
-        <v>3.034393581524249</v>
+        <v>3.106368029964577</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3351,7 +3351,7 @@
         <v>43982</v>
       </c>
       <c r="C270">
-        <v>2.52155120129792</v>
+        <v>2.44461508730982</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3362,7 +3362,7 @@
         <v>44012</v>
       </c>
       <c r="C271">
-        <v>2.250823596716423</v>
+        <v>2.208398524336272</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3373,7 +3373,7 @@
         <v>44043</v>
       </c>
       <c r="C272">
-        <v>2.758609645059133</v>
+        <v>2.6959141557347</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3384,7 +3384,7 @@
         <v>44074</v>
       </c>
       <c r="C273">
-        <v>1.300301164325963</v>
+        <v>1.303738070651973</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>44104</v>
       </c>
       <c r="C274">
-        <v>0.5738553988902643</v>
+        <v>0.5657642831328815</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3406,7 +3406,7 @@
         <v>44135</v>
       </c>
       <c r="C275">
-        <v>0.1015797506585042</v>
+        <v>0.1139493150399674</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3417,7 +3417,7 @@
         <v>44165</v>
       </c>
       <c r="C276">
-        <v>0.6952233064470169</v>
+        <v>0.6870125551985871</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>44196</v>
       </c>
       <c r="C277">
-        <v>1.648937926121926</v>
+        <v>1.633887231437378</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3439,7 +3439,7 @@
         <v>44227</v>
       </c>
       <c r="C278">
-        <v>1.443653624901127</v>
+        <v>1.312117370745632</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3450,7 +3450,7 @@
         <v>44255</v>
       </c>
       <c r="C279">
-        <v>1.922106015099768</v>
+        <v>1.903494318822433</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3461,7 +3461,7 @@
         <v>44286</v>
       </c>
       <c r="C280">
-        <v>2.214353443947572</v>
+        <v>2.215403953001315</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>44316</v>
       </c>
       <c r="C281">
-        <v>2.568983990968679</v>
+        <v>2.933053397558059</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>44347</v>
       </c>
       <c r="C282">
-        <v>3.001387777469247</v>
+        <v>2.992422876495233</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3494,7 +3494,7 @@
         <v>44377</v>
       </c>
       <c r="C283">
-        <v>2.727746797601942</v>
+        <v>2.727842713747636</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>44408</v>
       </c>
       <c r="C284">
-        <v>2.941353410257459</v>
+        <v>2.453240643211918</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3516,7 +3516,7 @@
         <v>44439</v>
       </c>
       <c r="C285">
-        <v>3.256845837251476</v>
+        <v>3.246520740736296</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>44469</v>
       </c>
       <c r="C286">
-        <v>3.256652459949425</v>
+        <v>3.262419909651774</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>44500</v>
       </c>
       <c r="C287">
-        <v>3.809757409286726</v>
+        <v>4.124372638885117</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3549,7 +3549,7 @@
         <v>44530</v>
       </c>
       <c r="C288">
-        <v>4.227530625009744</v>
+        <v>4.239297670755052</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3560,7 +3560,7 @@
         <v>44561</v>
       </c>
       <c r="C289">
-        <v>4.300434648673902</v>
+        <v>4.304073430994282</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3571,7 +3571,7 @@
         <v>44592</v>
       </c>
       <c r="C290">
-        <v>3.647179379028892</v>
+        <v>3.590745507943014</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3582,7 +3582,7 @@
         <v>44620</v>
       </c>
       <c r="C291">
-        <v>2.764428683639632</v>
+        <v>2.742946886761998</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3593,7 +3593,7 @@
         <v>44651</v>
       </c>
       <c r="C292">
-        <v>2.787067584717635</v>
+        <v>2.766880652381579</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>44681</v>
       </c>
       <c r="C293">
-        <v>3.42194013324054</v>
+        <v>3.288982650379054</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3615,7 +3615,7 @@
         <v>44712</v>
       </c>
       <c r="C294">
-        <v>2.642419753228268</v>
+        <v>2.646048845238659</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3626,7 +3626,7 @@
         <v>44742</v>
       </c>
       <c r="C295">
-        <v>2.336789651421864</v>
+        <v>2.350456955710274</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>44773</v>
       </c>
       <c r="C296">
-        <v>1.764353437207443</v>
+        <v>1.780717198912923</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3648,7 +3648,7 @@
         <v>44804</v>
       </c>
       <c r="C297">
-        <v>1.497304551230238</v>
+        <v>1.468188541529458</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3659,7 +3659,7 @@
         <v>44834</v>
       </c>
       <c r="C298">
-        <v>0.8931342075380106</v>
+        <v>0.9341299504630153</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3670,7 +3670,18 @@
         <v>44865</v>
       </c>
       <c r="C299">
-        <v>1.00088876381932</v>
+        <v>1.117839518802095</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>44895</v>
+      </c>
+      <c r="C300">
+        <v>1.200367606828666</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/gscpi_data.xlsx
+++ b/mercados/gscpi_data.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
         <v>35826</v>
       </c>
       <c r="C2">
-        <v>-0.9153901034208553</v>
+        <v>-0.9226419949017531</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -414,7 +414,7 @@
         <v>35854</v>
       </c>
       <c r="C3">
-        <v>-0.4500462242202808</v>
+        <v>-0.4340322806532768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,7 +425,7 @@
         <v>35885</v>
       </c>
       <c r="C4">
-        <v>-0.1079085519752831</v>
+        <v>-0.08985926425591935</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,7 +436,7 @@
         <v>35915</v>
       </c>
       <c r="C5">
-        <v>-0.1314669977888898</v>
+        <v>-0.1365502500494324</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>35946</v>
       </c>
       <c r="C6">
-        <v>-0.4913855258297432</v>
+        <v>-0.5104310073033328</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>35976</v>
       </c>
       <c r="C7">
-        <v>-0.790585354481159</v>
+        <v>-0.782034047113665</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -469,7 +469,7 @@
         <v>36007</v>
       </c>
       <c r="C8">
-        <v>-0.9457985345908859</v>
+        <v>-0.9364248982468213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,7 +480,7 @@
         <v>36038</v>
       </c>
       <c r="C9">
-        <v>-0.9542067728504199</v>
+        <v>-0.9489160591960377</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -491,7 +491,7 @@
         <v>36068</v>
       </c>
       <c r="C10">
-        <v>-0.968987607951224</v>
+        <v>-0.9369136210523531</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>36099</v>
       </c>
       <c r="C11">
-        <v>-0.8341103910164045</v>
+        <v>-0.7557964139917656</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -513,7 +513,7 @@
         <v>36129</v>
       </c>
       <c r="C12">
-        <v>-0.9227633014172861</v>
+        <v>-0.8529772378658376</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -524,7 +524,7 @@
         <v>36160</v>
       </c>
       <c r="C13">
-        <v>-0.6933222857574712</v>
+        <v>-0.6482299410266312</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -535,7 +535,7 @@
         <v>36191</v>
       </c>
       <c r="C14">
-        <v>-0.3973689568682516</v>
+        <v>-0.3042279575865668</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -546,7 +546,7 @@
         <v>36219</v>
       </c>
       <c r="C15">
-        <v>-0.1062092981171466</v>
+        <v>-0.04763957886748968</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -557,7 +557,7 @@
         <v>36250</v>
       </c>
       <c r="C16">
-        <v>-0.3551201010172283</v>
+        <v>-0.3022602890326255</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -568,7 +568,7 @@
         <v>36280</v>
       </c>
       <c r="C17">
-        <v>-0.3117451283856713</v>
+        <v>-0.3245636973432052</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>36311</v>
       </c>
       <c r="C18">
-        <v>-0.3799496897300733</v>
+        <v>-0.3365741908012185</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -590,7 +590,7 @@
         <v>36341</v>
       </c>
       <c r="C19">
-        <v>-0.4296896529529518</v>
+        <v>-0.3884915794328524</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -601,7 +601,7 @@
         <v>36372</v>
       </c>
       <c r="C20">
-        <v>-0.6139840154929014</v>
+        <v>-0.6024960411649212</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -612,7 +612,7 @@
         <v>36403</v>
       </c>
       <c r="C21">
-        <v>-0.4771891922504657</v>
+        <v>-0.4481276418462189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -623,7 +623,7 @@
         <v>36433</v>
       </c>
       <c r="C22">
-        <v>-0.3301248026603409</v>
+        <v>-0.2943435621352533</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -634,7 +634,7 @@
         <v>36464</v>
       </c>
       <c r="C23">
-        <v>-0.1171476141544081</v>
+        <v>-0.09789451534634286</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -645,7 +645,7 @@
         <v>36494</v>
       </c>
       <c r="C24">
-        <v>-0.104806415914664</v>
+        <v>-0.05359096254978905</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -656,7 +656,7 @@
         <v>36525</v>
       </c>
       <c r="C25">
-        <v>-0.04599340839260088</v>
+        <v>-0.01696632048214564</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -667,7 +667,7 @@
         <v>36556</v>
       </c>
       <c r="C26">
-        <v>-0.5072436649848434</v>
+        <v>-0.4756675664855044</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -678,7 +678,7 @@
         <v>36585</v>
       </c>
       <c r="C27">
-        <v>-0.3296463429153315</v>
+        <v>-0.2765380293715293</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -689,7 +689,7 @@
         <v>36616</v>
       </c>
       <c r="C28">
-        <v>-0.2504279957320332</v>
+        <v>-0.2532527004091401</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -700,7 +700,7 @@
         <v>36646</v>
       </c>
       <c r="C29">
-        <v>0.1321314432698545</v>
+        <v>0.1088091974283309</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -711,7 +711,7 @@
         <v>36677</v>
       </c>
       <c r="C30">
-        <v>0.2043785727080329</v>
+        <v>0.1965280662320263</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -722,7 +722,7 @@
         <v>36707</v>
       </c>
       <c r="C31">
-        <v>-0.08477530322340976</v>
+        <v>-0.095412856379684</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -733,7 +733,7 @@
         <v>36738</v>
       </c>
       <c r="C32">
-        <v>-0.1182077106709961</v>
+        <v>-0.114086211420001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -744,7 +744,7 @@
         <v>36769</v>
       </c>
       <c r="C33">
-        <v>-0.08326151520326396</v>
+        <v>-0.07431793468145476</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -755,7 +755,7 @@
         <v>36799</v>
       </c>
       <c r="C34">
-        <v>-0.1876859588981391</v>
+        <v>-0.1899393996533413</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -766,7 +766,7 @@
         <v>36830</v>
       </c>
       <c r="C35">
-        <v>-0.642760493222194</v>
+        <v>-0.6435187767833757</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -777,7 +777,7 @@
         <v>36860</v>
       </c>
       <c r="C36">
-        <v>-0.8770204391171826</v>
+        <v>-0.8816517880157713</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -788,7 +788,7 @@
         <v>36891</v>
       </c>
       <c r="C37">
-        <v>-1.074037993138156</v>
+        <v>-1.100307645716563</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -799,7 +799,7 @@
         <v>36922</v>
       </c>
       <c r="C38">
-        <v>-1.081058076942441</v>
+        <v>-1.115796257162188</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -810,7 +810,7 @@
         <v>36950</v>
       </c>
       <c r="C39">
-        <v>-0.9273859540569264</v>
+        <v>-0.9434447494441678</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -821,7 +821,7 @@
         <v>36981</v>
       </c>
       <c r="C40">
-        <v>-0.932142209270029</v>
+        <v>-0.931460490290842</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -832,7 +832,7 @@
         <v>37011</v>
       </c>
       <c r="C41">
-        <v>-1.198737892875513</v>
+        <v>-1.156353347871033</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -843,7 +843,7 @@
         <v>37042</v>
       </c>
       <c r="C42">
-        <v>-1.277360563234366</v>
+        <v>-1.250828753998682</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -854,7 +854,7 @@
         <v>37072</v>
       </c>
       <c r="C43">
-        <v>-0.8383488424986236</v>
+        <v>-0.8328172804174917</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -865,7 +865,7 @@
         <v>37103</v>
       </c>
       <c r="C44">
-        <v>-0.8168990083682077</v>
+        <v>-0.8050360067085697</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -876,7 +876,7 @@
         <v>37134</v>
       </c>
       <c r="C45">
-        <v>-0.7230728637613992</v>
+        <v>-0.6944277122682019</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -887,7 +887,7 @@
         <v>37164</v>
       </c>
       <c r="C46">
-        <v>-0.6586968438624037</v>
+        <v>-0.6377436709308447</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -898,7 +898,7 @@
         <v>37195</v>
       </c>
       <c r="C47">
-        <v>-1.167338226914781</v>
+        <v>-1.132996629563446</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -909,7 +909,7 @@
         <v>37225</v>
       </c>
       <c r="C48">
-        <v>-1.227271553882965</v>
+        <v>-1.230298842959192</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -920,7 +920,7 @@
         <v>37256</v>
       </c>
       <c r="C49">
-        <v>-1.020221983239675</v>
+        <v>-1.049336782929403</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -931,7 +931,7 @@
         <v>37287</v>
       </c>
       <c r="C50">
-        <v>-0.8144800761545665</v>
+        <v>-0.7932920100188577</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -942,7 +942,7 @@
         <v>37315</v>
       </c>
       <c r="C51">
-        <v>-0.3811325830469832</v>
+        <v>-0.3227585681705395</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -953,7 +953,7 @@
         <v>37346</v>
       </c>
       <c r="C52">
-        <v>-0.4131363815121975</v>
+        <v>-0.322200631863603</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -964,7 +964,7 @@
         <v>37376</v>
       </c>
       <c r="C53">
-        <v>-0.4892964245321546</v>
+        <v>-0.4175009551069723</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -975,7 +975,7 @@
         <v>37407</v>
       </c>
       <c r="C54">
-        <v>-0.2541740080922994</v>
+        <v>-0.1805231368060931</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -986,7 +986,7 @@
         <v>37437</v>
       </c>
       <c r="C55">
-        <v>-0.4906389686322186</v>
+        <v>-0.4423473563527159</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -997,7 +997,7 @@
         <v>37468</v>
       </c>
       <c r="C56">
-        <v>-0.868973568597542</v>
+        <v>-0.8348083139488128</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>37499</v>
       </c>
       <c r="C57">
-        <v>-0.9716026576838988</v>
+        <v>-0.962202756926942</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>37529</v>
       </c>
       <c r="C58">
-        <v>-0.9732607815643378</v>
+        <v>-0.9806151947918773</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>37560</v>
       </c>
       <c r="C59">
-        <v>-1.14123145727029</v>
+        <v>-1.155974928518776</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>37590</v>
       </c>
       <c r="C60">
-        <v>-0.7910059760707481</v>
+        <v>-0.7641570924709127</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1052,7 +1052,7 @@
         <v>37621</v>
       </c>
       <c r="C61">
-        <v>-0.6100237513360018</v>
+        <v>-0.5739435866259355</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1063,7 +1063,7 @@
         <v>37652</v>
       </c>
       <c r="C62">
-        <v>-0.507487375078955</v>
+        <v>-0.4813607969583674</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>37680</v>
       </c>
       <c r="C63">
-        <v>-0.3979165720843996</v>
+        <v>-0.3563768820958771</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1085,7 +1085,7 @@
         <v>37711</v>
       </c>
       <c r="C64">
-        <v>-0.2842559047740441</v>
+        <v>-0.2499043291392003</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1096,7 +1096,7 @@
         <v>37741</v>
       </c>
       <c r="C65">
-        <v>-0.576294785058564</v>
+        <v>-0.514051011005573</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1107,7 +1107,7 @@
         <v>37772</v>
       </c>
       <c r="C66">
-        <v>-0.288413168902471</v>
+        <v>-0.225057772671854</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1118,7 +1118,7 @@
         <v>37802</v>
       </c>
       <c r="C67">
-        <v>-0.2510317390534655</v>
+        <v>-0.1756757138666108</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1129,7 +1129,7 @@
         <v>37833</v>
       </c>
       <c r="C68">
-        <v>-0.1218286545043888</v>
+        <v>-0.08380146008079802</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1140,7 +1140,7 @@
         <v>37864</v>
       </c>
       <c r="C69">
-        <v>-0.1730409793808678</v>
+        <v>-0.1300932247981017</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>37894</v>
       </c>
       <c r="C70">
-        <v>-0.07524129674893944</v>
+        <v>0.008643032858214227</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>37925</v>
       </c>
       <c r="C71">
-        <v>-0.3093029296649326</v>
+        <v>-0.2284475663421284</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>37955</v>
       </c>
       <c r="C72">
-        <v>-0.3338198039110667</v>
+        <v>-0.2942410861115237</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>37986</v>
       </c>
       <c r="C73">
-        <v>-0.2698935197968008</v>
+        <v>-0.2181410870298837</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1195,7 +1195,7 @@
         <v>38017</v>
       </c>
       <c r="C74">
-        <v>-0.4657882030197655</v>
+        <v>-0.3609025542264829</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>38046</v>
       </c>
       <c r="C75">
-        <v>-0.2871012495943022</v>
+        <v>-0.2333478455104913</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1217,7 +1217,7 @@
         <v>38077</v>
       </c>
       <c r="C76">
-        <v>0.08168258622480462</v>
+        <v>0.1136255476819526</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>38107</v>
       </c>
       <c r="C77">
-        <v>0.4778199986067688</v>
+        <v>0.5089335257232105</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1239,7 +1239,7 @@
         <v>38138</v>
       </c>
       <c r="C78">
-        <v>0.4648255124673027</v>
+        <v>0.4671016442181648</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>38168</v>
       </c>
       <c r="C79">
-        <v>0.416670971565174</v>
+        <v>0.4409691472767386</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1261,7 +1261,7 @@
         <v>38199</v>
       </c>
       <c r="C80">
-        <v>-0.344124833211067</v>
+        <v>-0.3585938122811778</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>38230</v>
       </c>
       <c r="C81">
-        <v>0.1628491201948136</v>
+        <v>0.1738097424928938</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>38260</v>
       </c>
       <c r="C82">
-        <v>-0.07527435839511251</v>
+        <v>-0.04973268782901316</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>38291</v>
       </c>
       <c r="C83">
-        <v>-0.5856966433275774</v>
+        <v>-0.6169219107533237</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>38321</v>
       </c>
       <c r="C84">
-        <v>-0.05253882327179973</v>
+        <v>-0.02444299261872411</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>38352</v>
       </c>
       <c r="C85">
-        <v>0.122272683789202</v>
+        <v>0.1376356835998965</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1327,7 +1327,7 @@
         <v>38383</v>
       </c>
       <c r="C86">
-        <v>-0.2138657693434004</v>
+        <v>-0.165517836246573</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1338,7 +1338,7 @@
         <v>38411</v>
       </c>
       <c r="C87">
-        <v>-0.2613283470832893</v>
+        <v>-0.2286698976966075</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>38442</v>
       </c>
       <c r="C88">
-        <v>-0.3335936710550342</v>
+        <v>-0.2946222265257422</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>38472</v>
       </c>
       <c r="C89">
-        <v>-1.417445400273036</v>
+        <v>-1.359094685761504</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>38503</v>
       </c>
       <c r="C90">
-        <v>-1.100742259805054</v>
+        <v>-1.083120745323259</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>38533</v>
       </c>
       <c r="C91">
-        <v>-0.9425955566196653</v>
+        <v>-0.9593520641230331</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>38564</v>
       </c>
       <c r="C92">
-        <v>-0.9500462274570264</v>
+        <v>-0.9771013253362555</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>38595</v>
       </c>
       <c r="C93">
-        <v>-0.6780681184204844</v>
+        <v>-0.6573335437952073</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>38625</v>
       </c>
       <c r="C94">
-        <v>-0.00695436567716293</v>
+        <v>0.01746545424191876</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>38656</v>
       </c>
       <c r="C95">
-        <v>-0.05589561416038412</v>
+        <v>-0.06847348679617636</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>38686</v>
       </c>
       <c r="C96">
-        <v>-0.6249635669078918</v>
+        <v>-0.6465086128550468</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>38717</v>
       </c>
       <c r="C97">
-        <v>-0.6524712098555425</v>
+        <v>-0.6641015048134704</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>38748</v>
       </c>
       <c r="C98">
-        <v>-0.3406815685594362</v>
+        <v>-0.3265609122493457</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>38776</v>
       </c>
       <c r="C99">
-        <v>-0.6286244654988018</v>
+        <v>-0.6303274371697606</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>38807</v>
       </c>
       <c r="C100">
-        <v>-0.4311235701092065</v>
+        <v>-0.4322493599155787</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1492,7 +1492,7 @@
         <v>38837</v>
       </c>
       <c r="C101">
-        <v>0.1021776434438027</v>
+        <v>0.02053512399573716</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>38868</v>
       </c>
       <c r="C102">
-        <v>0.08128994389368574</v>
+        <v>0.08259234930875466</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>38898</v>
       </c>
       <c r="C103">
-        <v>0.1017215466958837</v>
+        <v>0.08244292885775441</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>38929</v>
       </c>
       <c r="C104">
-        <v>-0.1442640708141837</v>
+        <v>-0.1486590907619647</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>38960</v>
       </c>
       <c r="C105">
-        <v>0.07953590537027347</v>
+        <v>0.04276434784452009</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>38990</v>
       </c>
       <c r="C106">
-        <v>-0.5456552227576235</v>
+        <v>-0.57908512980924</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>39021</v>
       </c>
       <c r="C107">
-        <v>-0.4226382817063964</v>
+        <v>-0.4429794792025863</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>39051</v>
       </c>
       <c r="C108">
-        <v>-0.202767833974189</v>
+        <v>-0.2321349475113484</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>39082</v>
       </c>
       <c r="C109">
-        <v>-0.4394596692437359</v>
+        <v>-0.4730482490709662</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>39113</v>
       </c>
       <c r="C110">
-        <v>-0.8183160844718956</v>
+        <v>-0.8595740823416084</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>39141</v>
       </c>
       <c r="C111">
-        <v>-0.7141815745926723</v>
+        <v>-0.7345948701575737</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>39172</v>
       </c>
       <c r="C112">
-        <v>-0.5145417808114223</v>
+        <v>-0.5388843507553248</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>39202</v>
       </c>
       <c r="C113">
-        <v>-0.7532946804702119</v>
+        <v>-0.7428142999506908</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>39233</v>
       </c>
       <c r="C114">
-        <v>-0.3141433262378539</v>
+        <v>-0.3265774628775472</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>39263</v>
       </c>
       <c r="C115">
-        <v>-0.3686185510654717</v>
+        <v>-0.3729472524545627</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1657,7 +1657,7 @@
         <v>39294</v>
       </c>
       <c r="C116">
-        <v>-0.3321355714751328</v>
+        <v>-0.385227346073313</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1668,7 +1668,7 @@
         <v>39325</v>
       </c>
       <c r="C117">
-        <v>-0.07717108099684614</v>
+        <v>-0.07907497193728463</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>39355</v>
       </c>
       <c r="C118">
-        <v>-0.1055853795070164</v>
+        <v>-0.09461036577543108</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>39386</v>
       </c>
       <c r="C119">
-        <v>-0.6862352732451034</v>
+        <v>-0.6297186326441551</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>39416</v>
       </c>
       <c r="C120">
-        <v>-0.5054444207021362</v>
+        <v>-0.4792191508252052</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>39447</v>
       </c>
       <c r="C121">
-        <v>-0.1758271325183131</v>
+        <v>-0.1705875939038133</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>39478</v>
       </c>
       <c r="C122">
-        <v>-0.3292062680821574</v>
+        <v>-0.3455588480343459</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1734,7 +1734,7 @@
         <v>39507</v>
       </c>
       <c r="C123">
-        <v>0.3264847725087534</v>
+        <v>0.3730077180965606</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1745,7 +1745,7 @@
         <v>39538</v>
       </c>
       <c r="C124">
-        <v>0.1151499182678618</v>
+        <v>0.138869644804531</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1756,7 +1756,7 @@
         <v>39568</v>
       </c>
       <c r="C125">
-        <v>0.07463640626854717</v>
+        <v>0.1018000424488833</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>39599</v>
       </c>
       <c r="C126">
-        <v>-0.1527370424618697</v>
+        <v>-0.141696074493773</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>39629</v>
       </c>
       <c r="C127">
-        <v>0.1583588380843796</v>
+        <v>0.1876250026510885</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1789,7 +1789,7 @@
         <v>39660</v>
       </c>
       <c r="C128">
-        <v>0.824410107371736</v>
+        <v>0.9057137667881866</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>39691</v>
       </c>
       <c r="C129">
-        <v>0.1810076355830239</v>
+        <v>0.1807321573079786</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1811,7 +1811,7 @@
         <v>39721</v>
       </c>
       <c r="C130">
-        <v>-0.6218844706012674</v>
+        <v>-0.605900251802175</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>39752</v>
       </c>
       <c r="C131">
-        <v>-0.975868436862755</v>
+        <v>-1.044733075892714</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>39782</v>
       </c>
       <c r="C132">
-        <v>-1.634510923192781</v>
+        <v>-1.612958685311669</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1844,7 +1844,7 @@
         <v>39813</v>
       </c>
       <c r="C133">
-        <v>-0.8571488330433753</v>
+        <v>-0.7930429683649484</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1855,7 +1855,7 @@
         <v>39844</v>
       </c>
       <c r="C134">
-        <v>-0.6524157543693047</v>
+        <v>-0.5286974816031474</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>39872</v>
       </c>
       <c r="C135">
-        <v>-0.6646389579946903</v>
+        <v>-0.6442469028186604</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1877,7 +1877,7 @@
         <v>39903</v>
       </c>
       <c r="C136">
-        <v>-0.08658140419505964</v>
+        <v>-0.01388380854810263</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1888,7 +1888,7 @@
         <v>39933</v>
       </c>
       <c r="C137">
-        <v>0.5462754674788152</v>
+        <v>0.6536275345285338</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>39964</v>
       </c>
       <c r="C138">
-        <v>0.1116689677041551</v>
+        <v>0.1837236174808653</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1910,7 +1910,7 @@
         <v>39994</v>
       </c>
       <c r="C139">
-        <v>-0.6843905664611455</v>
+        <v>-0.6142924659553366</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1921,7 +1921,7 @@
         <v>40025</v>
       </c>
       <c r="C140">
-        <v>-0.8439563004620081</v>
+        <v>-0.8283101101802857</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>40056</v>
       </c>
       <c r="C141">
-        <v>-1.200877700430179</v>
+        <v>-1.161378217897055</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1943,7 +1943,7 @@
         <v>40086</v>
       </c>
       <c r="C142">
-        <v>-0.5687878824793067</v>
+        <v>-0.5186033702510157</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1954,7 +1954,7 @@
         <v>40117</v>
       </c>
       <c r="C143">
-        <v>-0.7060994867753727</v>
+        <v>-0.475385360931316</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>40147</v>
       </c>
       <c r="C144">
-        <v>-0.8166276156447929</v>
+        <v>-0.791547561627762</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1976,7 +1976,7 @@
         <v>40178</v>
       </c>
       <c r="C145">
-        <v>-0.646718963524769</v>
+        <v>-0.6280148826447118</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1987,7 +1987,7 @@
         <v>40209</v>
       </c>
       <c r="C146">
-        <v>-0.1261035110207264</v>
+        <v>-0.2985305286266964</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1998,7 +1998,7 @@
         <v>40237</v>
       </c>
       <c r="C147">
-        <v>-0.1040454766488903</v>
+        <v>-0.1260753788375757</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>40268</v>
       </c>
       <c r="C148">
-        <v>0.3986634671828472</v>
+        <v>0.3924414224402264</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>40298</v>
       </c>
       <c r="C149">
-        <v>0.3716677864456576</v>
+        <v>0.3036790224604734</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>40329</v>
       </c>
       <c r="C150">
-        <v>0.4395355549038885</v>
+        <v>0.423750207476314</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>40359</v>
       </c>
       <c r="C151">
-        <v>-0.02394148926800438</v>
+        <v>-0.0337511935509264</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2053,7 +2053,7 @@
         <v>40390</v>
       </c>
       <c r="C152">
-        <v>0.06620409429010718</v>
+        <v>0.0263524354798571</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2064,7 +2064,7 @@
         <v>40421</v>
       </c>
       <c r="C153">
-        <v>0.3033314775646468</v>
+        <v>0.3237419338430282</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>40451</v>
       </c>
       <c r="C154">
-        <v>0.3211240221059141</v>
+        <v>0.3613037702537159</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2086,7 +2086,7 @@
         <v>40482</v>
       </c>
       <c r="C155">
-        <v>0.4878551787946206</v>
+        <v>0.6550178107101841</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2097,7 +2097,7 @@
         <v>40512</v>
       </c>
       <c r="C156">
-        <v>0.4092709955252792</v>
+        <v>0.4175167261540664</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2108,7 +2108,7 @@
         <v>40543</v>
       </c>
       <c r="C157">
-        <v>0.6941763033158729</v>
+        <v>0.6763136403877942</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2119,7 +2119,7 @@
         <v>40574</v>
       </c>
       <c r="C158">
-        <v>0.8837062089839479</v>
+        <v>0.8061488409047844</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2130,7 +2130,7 @@
         <v>40602</v>
       </c>
       <c r="C159">
-        <v>0.3431248493612089</v>
+        <v>0.3573589620841375</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>40633</v>
       </c>
       <c r="C160">
-        <v>0.6681469116965113</v>
+        <v>0.6987559687787585</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>40663</v>
       </c>
       <c r="C161">
-        <v>1.470630675031862</v>
+        <v>1.535433078532401</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2163,7 +2163,7 @@
         <v>40694</v>
       </c>
       <c r="C162">
-        <v>0.9158081213862481</v>
+        <v>0.895286149523643</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2174,7 +2174,7 @@
         <v>40724</v>
       </c>
       <c r="C163">
-        <v>0.1631438556145167</v>
+        <v>0.1705119122867642</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2185,7 +2185,7 @@
         <v>40755</v>
       </c>
       <c r="C164">
-        <v>0.1902698762565202</v>
+        <v>0.2564266118392406</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2196,7 +2196,7 @@
         <v>40786</v>
       </c>
       <c r="C165">
-        <v>-0.134236797135799</v>
+        <v>-0.1154058130834426</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2207,7 +2207,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <v>-0.5871973886234069</v>
+        <v>-0.5781369858579709</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>40847</v>
       </c>
       <c r="C167">
-        <v>-0.4066830743123854</v>
+        <v>-0.3814559115753416</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2229,7 +2229,7 @@
         <v>40877</v>
       </c>
       <c r="C168">
-        <v>0.0890720435192994</v>
+        <v>0.08939091199776432</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>40908</v>
       </c>
       <c r="C169">
-        <v>-0.06809662970093071</v>
+        <v>-0.0590984374929121</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>40939</v>
       </c>
       <c r="C170">
-        <v>0.3600212060425325</v>
+        <v>0.3706571692268256</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>40968</v>
       </c>
       <c r="C171">
-        <v>-0.04430614297643471</v>
+        <v>-0.02727206423588815</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2273,7 +2273,7 @@
         <v>40999</v>
       </c>
       <c r="C172">
-        <v>-0.3731231402968451</v>
+        <v>-0.3683546638790688</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2284,7 +2284,7 @@
         <v>41029</v>
       </c>
       <c r="C173">
-        <v>-0.3526153816604323</v>
+        <v>-0.3120325820771905</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2295,7 +2295,7 @@
         <v>41060</v>
       </c>
       <c r="C174">
-        <v>-0.7078219593299401</v>
+        <v>-0.6867739071013607</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2306,7 +2306,7 @@
         <v>41090</v>
       </c>
       <c r="C175">
-        <v>-0.6778113260944533</v>
+        <v>-0.6808506712616663</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>41121</v>
       </c>
       <c r="C176">
-        <v>-0.6559465420815941</v>
+        <v>-0.6771283294958813</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>41152</v>
       </c>
       <c r="C177">
-        <v>-0.1658640004468025</v>
+        <v>-0.1431629091774013</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2339,7 +2339,7 @@
         <v>41182</v>
       </c>
       <c r="C178">
-        <v>-0.2683837275716879</v>
+        <v>-0.2596060719168579</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2350,7 +2350,7 @@
         <v>41213</v>
       </c>
       <c r="C179">
-        <v>-0.1039668000642142</v>
+        <v>-0.02712543241753658</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>41243</v>
       </c>
       <c r="C180">
-        <v>-0.3966919547436077</v>
+        <v>-0.3575791069651957</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2372,7 +2372,7 @@
         <v>41274</v>
       </c>
       <c r="C181">
-        <v>-0.1741853355186383</v>
+        <v>-0.1603512416514284</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>41305</v>
       </c>
       <c r="C182">
-        <v>-0.01795576053090294</v>
+        <v>-0.04507663502803113</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>41333</v>
       </c>
       <c r="C183">
-        <v>-0.3703518209736822</v>
+        <v>-0.3816550633014601</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2405,7 +2405,7 @@
         <v>41364</v>
       </c>
       <c r="C184">
-        <v>-0.5338780093318599</v>
+        <v>-0.5161096165392887</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2416,7 +2416,7 @@
         <v>41394</v>
       </c>
       <c r="C185">
-        <v>-0.7560179413640146</v>
+        <v>-0.7121571299282484</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>41425</v>
       </c>
       <c r="C186">
-        <v>-0.8313569897571157</v>
+        <v>-0.8171072983106943</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2438,7 +2438,7 @@
         <v>41455</v>
       </c>
       <c r="C187">
-        <v>-0.6332360407464851</v>
+        <v>-0.6287592232624925</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2449,7 +2449,7 @@
         <v>41486</v>
       </c>
       <c r="C188">
-        <v>-0.662795262271366</v>
+        <v>-0.6438750180643315</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>41517</v>
       </c>
       <c r="C189">
-        <v>-0.5434091200544281</v>
+        <v>-0.5237048353301333</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>41547</v>
       </c>
       <c r="C190">
-        <v>-0.3000696088971437</v>
+        <v>-0.2788716043039989</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2482,7 +2482,7 @@
         <v>41578</v>
       </c>
       <c r="C191">
-        <v>-0.1598757122803357</v>
+        <v>-0.1567600982733048</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2493,7 +2493,7 @@
         <v>41608</v>
       </c>
       <c r="C192">
-        <v>-0.6661471129384793</v>
+        <v>-0.6574860058521805</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2504,7 +2504,7 @@
         <v>41639</v>
       </c>
       <c r="C193">
-        <v>-0.4882503247386438</v>
+        <v>-0.4849685028729661</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>41670</v>
       </c>
       <c r="C194">
-        <v>-0.5861211275765508</v>
+        <v>-0.6115426967825142</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2526,7 +2526,7 @@
         <v>41698</v>
       </c>
       <c r="C195">
-        <v>-0.2666744867236334</v>
+        <v>-0.2758819771863793</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>41729</v>
       </c>
       <c r="C196">
-        <v>-0.5948272451042821</v>
+        <v>-0.5958865097097997</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2548,7 +2548,7 @@
         <v>41759</v>
       </c>
       <c r="C197">
-        <v>-0.7947940853834589</v>
+        <v>-0.8048251765811969</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>41790</v>
       </c>
       <c r="C198">
-        <v>-0.7901856656801806</v>
+        <v>-0.7776478309420637</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>41820</v>
       </c>
       <c r="C199">
-        <v>-0.6350162493998328</v>
+        <v>-0.6459103006372502</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>41851</v>
       </c>
       <c r="C200">
-        <v>-0.7973976111387105</v>
+        <v>-0.768582653208553</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>41882</v>
       </c>
       <c r="C201">
-        <v>-0.6112704728444027</v>
+        <v>-0.5973162632878565</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>41912</v>
       </c>
       <c r="C202">
-        <v>-0.7762043847053578</v>
+        <v>-0.7872860921444372</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>41943</v>
       </c>
       <c r="C203">
-        <v>-0.5499484822028995</v>
+        <v>-0.5514832217246577</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>41973</v>
       </c>
       <c r="C204">
-        <v>-0.9046803289159767</v>
+        <v>-0.9334024461017683</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>42004</v>
       </c>
       <c r="C205">
-        <v>-0.369128462624676</v>
+        <v>-0.3681265623504676</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>42035</v>
       </c>
       <c r="C206">
-        <v>-0.4369275496340296</v>
+        <v>-0.4866873780263238</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>42063</v>
       </c>
       <c r="C207">
-        <v>-0.2883791649206697</v>
+        <v>-0.3033299688008249</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>42094</v>
       </c>
       <c r="C208">
-        <v>-0.379463773054077</v>
+        <v>-0.3787823446415081</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>42124</v>
       </c>
       <c r="C209">
-        <v>-0.4302031924312694</v>
+        <v>-0.3313358388105676</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>42155</v>
       </c>
       <c r="C210">
-        <v>-0.5078791608313609</v>
+        <v>-0.5102325796509967</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>42185</v>
       </c>
       <c r="C211">
-        <v>-0.8187181416200073</v>
+        <v>-0.8227333246777742</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>42216</v>
       </c>
       <c r="C212">
-        <v>-0.3951582994883055</v>
+        <v>-0.3908529723778516</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>42247</v>
       </c>
       <c r="C213">
-        <v>-0.6467851468972948</v>
+        <v>-0.6571493929368529</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>42277</v>
       </c>
       <c r="C214">
-        <v>-0.4234728330516883</v>
+        <v>-0.406609132644784</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>42308</v>
       </c>
       <c r="C215">
-        <v>-0.2041523386589454</v>
+        <v>-0.2214490137561343</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>42338</v>
       </c>
       <c r="C216">
-        <v>-0.625335983715909</v>
+        <v>-0.6309764241836124</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>42369</v>
       </c>
       <c r="C217">
-        <v>-0.5812861521962626</v>
+        <v>-0.5760521977045275</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>42400</v>
       </c>
       <c r="C218">
-        <v>-0.7122031649393632</v>
+        <v>-0.7558737865882508</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>42429</v>
       </c>
       <c r="C219">
-        <v>-0.7283144997383154</v>
+        <v>-0.7188609702205594</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2801,7 +2801,7 @@
         <v>42460</v>
       </c>
       <c r="C220">
-        <v>-0.6505083419513881</v>
+        <v>-0.631240241618557</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2812,7 +2812,7 @@
         <v>42490</v>
       </c>
       <c r="C221">
-        <v>-0.3163830621817037</v>
+        <v>-0.2592055720620697</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2823,7 +2823,7 @@
         <v>42521</v>
       </c>
       <c r="C222">
-        <v>-0.7088621943147552</v>
+        <v>-0.704527485570421</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2834,7 +2834,7 @@
         <v>42551</v>
       </c>
       <c r="C223">
-        <v>-0.2913521773780497</v>
+        <v>-0.2885881047144187</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2845,7 +2845,7 @@
         <v>42582</v>
       </c>
       <c r="C224">
-        <v>-0.1200751952357919</v>
+        <v>-0.1784575678386667</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>42613</v>
       </c>
       <c r="C225">
-        <v>0.06784519089787346</v>
+        <v>0.07650611226175352</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>42643</v>
       </c>
       <c r="C226">
-        <v>-0.2844773477687158</v>
+        <v>-0.2934550689668519</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>42674</v>
       </c>
       <c r="C227">
-        <v>-0.05912388606083174</v>
+        <v>-0.03273137094670993</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>42704</v>
       </c>
       <c r="C228">
-        <v>-0.2844060581523801</v>
+        <v>-0.3058149772637968</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>42735</v>
       </c>
       <c r="C229">
-        <v>-0.2003120639072671</v>
+        <v>-0.2165805187645589</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2911,7 +2911,7 @@
         <v>42766</v>
       </c>
       <c r="C230">
-        <v>0.168576939242355</v>
+        <v>0.1941105683496181</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2922,7 +2922,7 @@
         <v>42794</v>
       </c>
       <c r="C231">
-        <v>0.1877019224940788</v>
+        <v>0.1894876314534283</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2933,7 +2933,7 @@
         <v>42825</v>
       </c>
       <c r="C232">
-        <v>0.1092605468240724</v>
+        <v>0.1026010830488696</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2944,7 +2944,7 @@
         <v>42855</v>
       </c>
       <c r="C233">
-        <v>0.09798180596485677</v>
+        <v>0.04003726161439487</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>42886</v>
       </c>
       <c r="C234">
-        <v>-0.09111722650644359</v>
+        <v>-0.1046390990762999</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>42916</v>
       </c>
       <c r="C235">
-        <v>0.1275470375355851</v>
+        <v>0.1141874817119187</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>42947</v>
       </c>
       <c r="C236">
-        <v>0.07961781018018874</v>
+        <v>0.1201829476046358</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>42978</v>
       </c>
       <c r="C237">
-        <v>0.408615446465141</v>
+        <v>0.4020420945207441</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>43008</v>
       </c>
       <c r="C238">
-        <v>0.5342486264592248</v>
+        <v>0.5239993258909307</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43039</v>
       </c>
       <c r="C239">
-        <v>0.8126121956857216</v>
+        <v>0.7890699135266173</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>43069</v>
       </c>
       <c r="C240">
-        <v>0.832446235949787</v>
+        <v>0.8150284840355777</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>43100</v>
       </c>
       <c r="C241">
-        <v>0.6917469620603763</v>
+        <v>0.6782768306095328</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>43131</v>
       </c>
       <c r="C242">
-        <v>0.6230103037081131</v>
+        <v>0.5919028270410401</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>43159</v>
       </c>
       <c r="C243">
-        <v>0.1038012757461319</v>
+        <v>0.0880551298595626</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>43190</v>
       </c>
       <c r="C244">
-        <v>0.4560878377531353</v>
+        <v>0.4429170170256422</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>43220</v>
       </c>
       <c r="C245">
-        <v>0.5391385516474161</v>
+        <v>0.5364841980262451</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>43251</v>
       </c>
       <c r="C246">
-        <v>0.3821359111794377</v>
+        <v>0.363268470650266</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>43281</v>
       </c>
       <c r="C247">
-        <v>0.4260189117262799</v>
+        <v>0.4128688143996226</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43312</v>
       </c>
       <c r="C248">
-        <v>0.4939370212575536</v>
+        <v>0.434006839558059</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>43343</v>
       </c>
       <c r="C249">
-        <v>0.5274932608747958</v>
+        <v>0.5212028067593787</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>43373</v>
       </c>
       <c r="C250">
-        <v>0.4647983545433663</v>
+        <v>0.442376024477627</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>43404</v>
       </c>
       <c r="C251">
-        <v>0.3998160134149976</v>
+        <v>0.5063797881814787</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>43434</v>
       </c>
       <c r="C252">
-        <v>0.4407172101526217</v>
+        <v>0.4298098947982487</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C253">
-        <v>0.4547455111972519</v>
+        <v>0.4454278358457716</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>43496</v>
       </c>
       <c r="C254">
-        <v>0.6265064370276308</v>
+        <v>0.5116044891832755</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>43524</v>
       </c>
       <c r="C255">
-        <v>0.1158056609216274</v>
+        <v>0.1239244514283779</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>43555</v>
       </c>
       <c r="C256">
-        <v>0.2088988730322744</v>
+        <v>0.1962726792361079</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>43585</v>
       </c>
       <c r="C257">
-        <v>-0.03272755513088985</v>
+        <v>0.01653537605253108</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43616</v>
       </c>
       <c r="C258">
-        <v>-0.6439658904657848</v>
+        <v>-0.6438211487047663</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>43646</v>
       </c>
       <c r="C259">
-        <v>-0.5128200443181792</v>
+        <v>-0.4861631251541088</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>43677</v>
       </c>
       <c r="C260">
-        <v>-0.461775302751785</v>
+        <v>-0.4570562755283146</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>43708</v>
       </c>
       <c r="C261">
-        <v>-0.3299635613910949</v>
+        <v>-0.3141761761605439</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>43738</v>
       </c>
       <c r="C262">
-        <v>0.09313291808143409</v>
+        <v>0.1240255795993366</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>43769</v>
       </c>
       <c r="C263">
-        <v>0.03080889959940646</v>
+        <v>0.06288261550964123</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>43799</v>
       </c>
       <c r="C264">
-        <v>0.08617059631262033</v>
+        <v>0.1185374171068211</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>43830</v>
       </c>
       <c r="C265">
-        <v>0.009498798917605678</v>
+        <v>0.02022890299247729</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>43861</v>
       </c>
       <c r="C266">
-        <v>-0.01305301600342694</v>
+        <v>0.07208573274340144</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>43890</v>
       </c>
       <c r="C267">
-        <v>1.100330903806716</v>
+        <v>1.152901570813268</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>43921</v>
       </c>
       <c r="C268">
-        <v>2.454066677461402</v>
+        <v>2.509049949130309</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>43951</v>
       </c>
       <c r="C269">
-        <v>3.106368029964577</v>
+        <v>3.103106189946664</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3351,7 +3351,7 @@
         <v>43982</v>
       </c>
       <c r="C270">
-        <v>2.44461508730982</v>
+        <v>2.465883896232027</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3362,7 +3362,7 @@
         <v>44012</v>
       </c>
       <c r="C271">
-        <v>2.208398524336272</v>
+        <v>2.185706641283783</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3373,7 +3373,7 @@
         <v>44043</v>
       </c>
       <c r="C272">
-        <v>2.6959141557347</v>
+        <v>2.722222064077492</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3384,7 +3384,7 @@
         <v>44074</v>
       </c>
       <c r="C273">
-        <v>1.303738070651973</v>
+        <v>1.343150025273132</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>44104</v>
       </c>
       <c r="C274">
-        <v>0.5657642831328815</v>
+        <v>0.6013699922327741</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3406,7 +3406,7 @@
         <v>44135</v>
       </c>
       <c r="C275">
-        <v>0.1139493150399674</v>
+        <v>0.1065675707000933</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3417,7 +3417,7 @@
         <v>44165</v>
       </c>
       <c r="C276">
-        <v>0.6870125551985871</v>
+        <v>0.7205674827413001</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>44196</v>
       </c>
       <c r="C277">
-        <v>1.633887231437378</v>
+        <v>1.650208825493946</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3439,7 +3439,7 @@
         <v>44227</v>
       </c>
       <c r="C278">
-        <v>1.312117370745632</v>
+        <v>1.318289511791286</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3450,7 +3450,7 @@
         <v>44255</v>
       </c>
       <c r="C279">
-        <v>1.903494318822433</v>
+        <v>1.904003659127892</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3461,7 +3461,7 @@
         <v>44286</v>
       </c>
       <c r="C280">
-        <v>2.215403953001315</v>
+        <v>2.199021549994756</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>44316</v>
       </c>
       <c r="C281">
-        <v>2.933053397558059</v>
+        <v>2.691856929618602</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>44347</v>
       </c>
       <c r="C282">
-        <v>2.992422876495233</v>
+        <v>2.994197312232161</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3494,7 +3494,7 @@
         <v>44377</v>
       </c>
       <c r="C283">
-        <v>2.727842713747636</v>
+        <v>2.718285939822889</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>44408</v>
       </c>
       <c r="C284">
-        <v>2.453240643211918</v>
+        <v>2.926522324356652</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3516,7 +3516,7 @@
         <v>44439</v>
       </c>
       <c r="C285">
-        <v>3.246520740736296</v>
+        <v>3.2464066500676</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>44469</v>
       </c>
       <c r="C286">
-        <v>3.262419909651774</v>
+        <v>3.27876621383759</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>44500</v>
       </c>
       <c r="C287">
-        <v>4.124372638885117</v>
+        <v>3.811973731965607</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3549,7 +3549,7 @@
         <v>44530</v>
       </c>
       <c r="C288">
-        <v>4.239297670755052</v>
+        <v>4.221202840421792</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3560,7 +3560,7 @@
         <v>44561</v>
       </c>
       <c r="C289">
-        <v>4.304073430994282</v>
+        <v>4.307350163581368</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3571,7 +3571,7 @@
         <v>44592</v>
       </c>
       <c r="C290">
-        <v>3.590745507943014</v>
+        <v>3.585308856094215</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3582,7 +3582,7 @@
         <v>44620</v>
       </c>
       <c r="C291">
-        <v>2.742946886761998</v>
+        <v>2.731618343511062</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3593,7 +3593,7 @@
         <v>44651</v>
       </c>
       <c r="C292">
-        <v>2.766880652381579</v>
+        <v>2.75658372590975</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>44681</v>
       </c>
       <c r="C293">
-        <v>3.288982650379054</v>
+        <v>3.411036875191892</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3615,7 +3615,7 @@
         <v>44712</v>
       </c>
       <c r="C294">
-        <v>2.646048845238659</v>
+        <v>2.639534015727866</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3626,7 +3626,7 @@
         <v>44742</v>
       </c>
       <c r="C295">
-        <v>2.350456955710274</v>
+        <v>2.340988609194089</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>44773</v>
       </c>
       <c r="C296">
-        <v>1.780717198912923</v>
+        <v>1.759607719306357</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3648,7 +3648,7 @@
         <v>44804</v>
       </c>
       <c r="C297">
-        <v>1.468188541529458</v>
+        <v>1.446038270049706</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3659,7 +3659,7 @@
         <v>44834</v>
       </c>
       <c r="C298">
-        <v>0.9341299504630153</v>
+        <v>0.8988250577778711</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3670,7 +3670,7 @@
         <v>44865</v>
       </c>
       <c r="C299">
-        <v>1.117839518802095</v>
+        <v>1.027471637314434</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3681,7 +3681,84 @@
         <v>44895</v>
       </c>
       <c r="C300">
-        <v>1.200367606828666</v>
+        <v>1.169016057795877</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>44926</v>
+      </c>
+      <c r="C301">
+        <v>1.234240157384275</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C302">
+        <v>0.9784101276316537</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C303">
+        <v>-0.298910224458852</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>45016</v>
+      </c>
+      <c r="C304">
+        <v>-1.190814992149533</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>45046</v>
+      </c>
+      <c r="C305">
+        <v>-1.364702380014721</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>45077</v>
+      </c>
+      <c r="C306">
+        <v>-1.557880767394676</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C307">
+        <v>-1.202791697842035</v>
       </c>
     </row>
   </sheetData>
